--- a/Output/FedAcqTrends/Platform/Land_Vehicles/Fed_Land_Vehicles_Contracts.xlsx
+++ b/Output/FedAcqTrends/Platform/Land_Vehicles/Fed_Land_Vehicles_Contracts.xlsx
@@ -233,10 +233,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -272,11 +273,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,82 +589,82 @@
         <v>1</v>
       </c>
       <c r="O1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="P1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="Q1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="R1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="T1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="U1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="V1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="W1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="X1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Y1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Z1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="AA1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AB1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AC1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="AD1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="AE1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AF1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="AG1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AH1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AI1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="AJ1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AL1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="AM1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AN1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="AO1" t="s">
         <v>28</v>
@@ -738,81 +740,85 @@
       <c r="N2" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="1" t="n">
-        <v>213000</v>
-      </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1" t="n">
-        <v>171582000</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>40094000</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>-181000</v>
-      </c>
-      <c r="U2" s="1" t="n">
-        <v>1582000</v>
-      </c>
-      <c r="V2" s="1" t="n">
-        <v>1317318414</v>
-      </c>
-      <c r="W2" s="1" t="n">
-        <v>102311000</v>
-      </c>
-      <c r="X2" s="1" t="n">
-        <v>7647000</v>
-      </c>
-      <c r="Y2" s="1" t="n">
-        <v>9090000</v>
-      </c>
-      <c r="Z2" s="1" t="n">
-        <v>23052000</v>
-      </c>
-      <c r="AA2" s="1" t="n">
-        <v>13627000</v>
-      </c>
-      <c r="AB2" s="1" t="n">
-        <v>387450215</v>
-      </c>
-      <c r="AC2" s="1" t="n">
-        <v>7218000</v>
-      </c>
-      <c r="AD2" s="1" t="n">
-        <v>1493000</v>
-      </c>
-      <c r="AE2" s="1" t="n">
-        <v>2744000</v>
-      </c>
-      <c r="AF2" s="1" t="n">
-        <v>675493186</v>
-      </c>
-      <c r="AG2" s="1" t="n">
-        <v>603976258</v>
-      </c>
-      <c r="AH2" s="1" t="n">
-        <v>1060083492</v>
-      </c>
-      <c r="AI2" s="1" t="n">
+      <c r="O2" s="4" t="n">
         <v>2931132335</v>
       </c>
-      <c r="AJ2" s="1" t="n">
+      <c r="P2" s="4" t="n">
         <v>2073786516.4</v>
       </c>
-      <c r="AK2" s="1" t="n">
+      <c r="Q2" s="4" t="n">
         <v>2619596795.62</v>
       </c>
-      <c r="AL2" s="1" t="n">
+      <c r="R2" s="4" t="n">
         <v>6194131044.21</v>
       </c>
-      <c r="AM2" s="1" t="n">
+      <c r="S2" s="4" t="n">
         <v>3904701892.09</v>
       </c>
-      <c r="AN2" s="1" t="n">
+      <c r="T2" s="4" t="n">
         <v>7560851511.28</v>
       </c>
-      <c r="AO2" s="1" t="n">
+      <c r="U2" s="4" t="n">
+        <v>8782305738.3</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>12992988666.34</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>17740818007.76</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>10044214189.17</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>8285407210.4833</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>6213113216.5179</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>3739746841.7959</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>2892859700.0275</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>3043555449.1345</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>4028199410.0074</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>4389794434.1296</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>3894931276.0882</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>5283901673.32</v>
+      </c>
+      <c r="AH2" s="4" t="n">
+        <v>6433093185.29</v>
+      </c>
+      <c r="AI2" s="4" t="n">
+        <v>5840233329.92</v>
+      </c>
+      <c r="AJ2" s="4" t="n">
+        <v>3476463281.89</v>
+      </c>
+      <c r="AK2" s="4" t="n">
+        <v>3852685672.46</v>
+      </c>
+      <c r="AL2" s="4" t="n">
+        <v>4816798883.74</v>
+      </c>
+      <c r="AM2" s="4" t="n">
+        <v>4853819229.95</v>
+      </c>
+      <c r="AN2" s="4" t="n">
+        <v>1633769040.16</v>
+      </c>
+      <c r="AO2" s="4" t="n">
         <v>8782305738.3</v>
       </c>
       <c r="AP2" s="1" t="n">
@@ -887,71 +893,85 @@
       <c r="N3" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1" t="n">
-        <v>52000</v>
-      </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1" t="n">
-        <v>18000</v>
-      </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1" t="n">
-        <v>-187000</v>
-      </c>
-      <c r="Y3" s="1" t="n">
-        <v>283000</v>
-      </c>
-      <c r="Z3" s="1" t="n">
-        <v>235000</v>
-      </c>
-      <c r="AA3" s="1" t="n">
-        <v>5853000</v>
-      </c>
-      <c r="AB3" s="1" t="n">
-        <v>1246000</v>
-      </c>
-      <c r="AC3" s="1" t="n">
-        <v>5311000</v>
-      </c>
-      <c r="AD3" s="1" t="n">
-        <v>238000</v>
-      </c>
-      <c r="AE3" s="1" t="n">
-        <v>1266000</v>
-      </c>
-      <c r="AF3" s="1" t="n">
-        <v>8647815</v>
-      </c>
-      <c r="AG3" s="1" t="n">
-        <v>42941630</v>
-      </c>
-      <c r="AH3" s="1" t="n">
-        <v>69279017</v>
-      </c>
-      <c r="AI3" s="1" t="n">
+      <c r="O3" s="4" t="n">
         <v>146968265.5601</v>
       </c>
-      <c r="AJ3" s="1" t="n">
+      <c r="P3" s="4" t="n">
         <v>154442127.79</v>
       </c>
-      <c r="AK3" s="1" t="n">
+      <c r="Q3" s="4" t="n">
         <v>225016948.21</v>
       </c>
-      <c r="AL3" s="1" t="n">
+      <c r="R3" s="4" t="n">
         <v>367944635.93</v>
       </c>
-      <c r="AM3" s="1" t="n">
+      <c r="S3" s="4" t="n">
         <v>493148100.47</v>
       </c>
-      <c r="AN3" s="1" t="n">
+      <c r="T3" s="4" t="n">
         <v>1058605764.89</v>
       </c>
-      <c r="AO3" s="1" t="n">
+      <c r="U3" s="4" t="n">
+        <v>1101449163.49</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>627794140.78</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>755235044.05</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>832551665.78</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>853405362.8977</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>914394484.2247</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>741571648.8278</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>596515377.8522</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>668813424.083</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>802012237.7668</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>736994474.0547</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>748008006.7097</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>1215674792.26</v>
+      </c>
+      <c r="AH3" s="4" t="n">
+        <v>1019434629.36</v>
+      </c>
+      <c r="AI3" s="4" t="n">
+        <v>862982640.09</v>
+      </c>
+      <c r="AJ3" s="4" t="n">
+        <v>595847161.46</v>
+      </c>
+      <c r="AK3" s="4" t="n">
+        <v>684343611.05</v>
+      </c>
+      <c r="AL3" s="4" t="n">
+        <v>746173610.93</v>
+      </c>
+      <c r="AM3" s="4" t="n">
+        <v>867290105.02</v>
+      </c>
+      <c r="AN3" s="4" t="n">
+        <v>387961217.6</v>
+      </c>
+      <c r="AO3" s="4" t="n">
         <v>1101449163.49</v>
       </c>
       <c r="AP3" s="1" t="n">
@@ -1026,67 +1046,85 @@
       <c r="N4" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="1" t="n">
-        <v>39000</v>
-      </c>
-      <c r="P4" s="1" t="n">
-        <v>515000</v>
-      </c>
-      <c r="Q4" s="1" t="n">
-        <v>44000</v>
-      </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1" t="n">
-        <v>40000</v>
-      </c>
-      <c r="T4" s="1" t="n">
-        <v>38000</v>
-      </c>
-      <c r="U4" s="1" t="n">
-        <v>42000</v>
-      </c>
-      <c r="V4" s="1" t="n">
-        <v>916000</v>
-      </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1" t="n">
-        <v>98000</v>
-      </c>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1" t="n">
-        <v>495378</v>
-      </c>
-      <c r="AG4" s="1" t="n">
-        <v>204268</v>
-      </c>
-      <c r="AH4" s="1" t="n">
-        <v>52000</v>
-      </c>
-      <c r="AI4" s="1" t="n">
+      <c r="O4" s="4" t="n">
         <v>1068000</v>
       </c>
-      <c r="AJ4" s="1" t="n">
+      <c r="P4" s="4" t="n">
         <v>3874329.74</v>
       </c>
-      <c r="AK4" s="1" t="n">
+      <c r="Q4" s="4" t="n">
         <v>5619599.3</v>
       </c>
-      <c r="AL4" s="1" t="n">
+      <c r="R4" s="4" t="n">
         <v>12689260.9309</v>
       </c>
-      <c r="AM4" s="1" t="n">
+      <c r="S4" s="4" t="n">
         <v>184548061.2761</v>
       </c>
-      <c r="AN4" s="1" t="n">
+      <c r="T4" s="4" t="n">
         <v>29427904.2372</v>
       </c>
-      <c r="AO4" s="1" t="n">
+      <c r="U4" s="4" t="n">
+        <v>13190811.5889</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>9353162.1739</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>12424697.6521</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>6891356.4421</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>30732628.4554</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>779060481.6775</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>622602737.5652</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>133128926.8231</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>240385283.0639</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>142486340.3795</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>112310939.1422</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>214627848.477</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>262829316.0867</v>
+      </c>
+      <c r="AH4" s="4" t="n">
+        <v>158378389.6945</v>
+      </c>
+      <c r="AI4" s="4" t="n">
+        <v>261912967.0421</v>
+      </c>
+      <c r="AJ4" s="4" t="n">
+        <v>364946451.5593</v>
+      </c>
+      <c r="AK4" s="4" t="n">
+        <v>252393664.4033</v>
+      </c>
+      <c r="AL4" s="4" t="n">
+        <v>359165027.8787</v>
+      </c>
+      <c r="AM4" s="4" t="n">
+        <v>549315531.8232</v>
+      </c>
+      <c r="AN4" s="4" t="n">
+        <v>178493981.58</v>
+      </c>
+      <c r="AO4" s="4" t="n">
         <v>13190811.5889</v>
       </c>
       <c r="AP4" s="1" t="n">
@@ -1161,61 +1199,85 @@
       <c r="N5" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1" t="n">
-        <v>20687.9</v>
-      </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1" t="n">
-        <v>294000</v>
-      </c>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1" t="n">
-        <v>136000</v>
-      </c>
-      <c r="AD5" s="1" t="n">
-        <v>498000</v>
-      </c>
-      <c r="AE5" s="1" t="n">
-        <v>2180000</v>
-      </c>
-      <c r="AF5" s="1" t="n">
-        <v>2902531</v>
-      </c>
-      <c r="AG5" s="1" t="n">
-        <v>3113449</v>
-      </c>
-      <c r="AH5" s="1" t="n">
-        <v>5660020</v>
-      </c>
-      <c r="AI5" s="1" t="n">
+      <c r="O5" s="4" t="n">
         <v>55548428</v>
       </c>
-      <c r="AJ5" s="1" t="n">
+      <c r="P5" s="4" t="n">
         <v>46602843</v>
       </c>
-      <c r="AK5" s="1" t="n">
+      <c r="Q5" s="4" t="n">
         <v>176620718.7701</v>
       </c>
-      <c r="AL5" s="1" t="n">
+      <c r="R5" s="4" t="n">
         <v>151717973</v>
       </c>
-      <c r="AM5" s="1" t="n">
+      <c r="S5" s="4" t="n">
         <v>216775879.7908</v>
       </c>
-      <c r="AN5" s="1" t="n">
+      <c r="T5" s="4" t="n">
         <v>218334839.2482</v>
       </c>
-      <c r="AO5" s="1" t="n">
+      <c r="U5" s="4" t="n">
+        <v>220351549.3255</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>248036497.5461</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>192228348.524</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>350832605.7469</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>494174738.2762</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>273781225.2494</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>228773975.2703</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>185761494.3901</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>178784219.2524</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>117795176.611</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>139050733.7143</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>165241865.5682</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>207110661.2367</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>214198951.286</v>
+      </c>
+      <c r="AI5" s="4" t="n">
+        <v>311320067.0807</v>
+      </c>
+      <c r="AJ5" s="4" t="n">
+        <v>320456607.7415</v>
+      </c>
+      <c r="AK5" s="4" t="n">
+        <v>251051955.4443</v>
+      </c>
+      <c r="AL5" s="4" t="n">
+        <v>247996537.5797</v>
+      </c>
+      <c r="AM5" s="4" t="n">
+        <v>229425000.37</v>
+      </c>
+      <c r="AN5" s="4" t="n">
+        <v>97436323.7</v>
+      </c>
+      <c r="AO5" s="4" t="n">
         <v>220351549.3255</v>
       </c>
       <c r="AP5" s="1" t="n">
@@ -1290,51 +1352,85 @@
       <c r="N6" t="s">
         <v>54</v>
       </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1" t="n">
-        <v>11269281</v>
-      </c>
-      <c r="AG6" s="1" t="n">
-        <v>15859303</v>
-      </c>
-      <c r="AH6" s="1" t="n">
-        <v>12786607</v>
-      </c>
-      <c r="AI6" s="1" t="n">
+      <c r="O6" s="4" t="n">
         <v>762279334</v>
       </c>
-      <c r="AJ6" s="1" t="n">
+      <c r="P6" s="4" t="n">
         <v>951102444</v>
       </c>
-      <c r="AK6" s="1" t="n">
+      <c r="Q6" s="4" t="n">
         <v>1012807159.3203</v>
       </c>
-      <c r="AL6" s="1" t="n">
+      <c r="R6" s="4" t="n">
         <v>1427732344</v>
       </c>
-      <c r="AM6" s="1" t="n">
+      <c r="S6" s="4" t="n">
         <v>1478262368.8707</v>
       </c>
-      <c r="AN6" s="1" t="n">
+      <c r="T6" s="4" t="n">
         <v>2255457700.2099</v>
       </c>
-      <c r="AO6" s="1" t="n">
+      <c r="U6" s="4" t="n">
+        <v>2252370923.0094</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2335660468.0123</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2260263854.4786</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>5412043308.442</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>5540867786.4147</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>4531894935.9344</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2067692226.1442</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1481643854.3302</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1582874093.2068</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1607347899.7446</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>2046014047.8598</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>1789279890.6398</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1804154851.5597</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>2005190477.4086</v>
+      </c>
+      <c r="AI6" s="4" t="n">
+        <v>1642958221.7768</v>
+      </c>
+      <c r="AJ6" s="4" t="n">
+        <v>1678830439.3199</v>
+      </c>
+      <c r="AK6" s="4" t="n">
+        <v>1605594992.564</v>
+      </c>
+      <c r="AL6" s="4" t="n">
+        <v>2215150196.7289</v>
+      </c>
+      <c r="AM6" s="4" t="n">
+        <v>2347096133.0201</v>
+      </c>
+      <c r="AN6" s="4" t="n">
+        <v>1079722623.39</v>
+      </c>
+      <c r="AO6" s="4" t="n">
         <v>2252370923.0094</v>
       </c>
       <c r="AP6" s="1" t="n">
@@ -1409,59 +1505,85 @@
       <c r="N7" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1" t="n">
-        <v>85000</v>
-      </c>
-      <c r="AB7" s="1" t="n">
-        <v>180000</v>
-      </c>
-      <c r="AC7" s="1" t="n">
-        <v>78000</v>
-      </c>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="1" t="n">
-        <v>348569419</v>
-      </c>
-      <c r="AG7" s="1" t="n">
-        <v>456171890</v>
-      </c>
-      <c r="AH7" s="1" t="n">
-        <v>634571529</v>
-      </c>
-      <c r="AI7" s="1" t="n">
+      <c r="O7" s="4" t="n">
         <v>712364401.699</v>
       </c>
-      <c r="AJ7" s="1" t="n">
+      <c r="P7" s="4" t="n">
         <v>955940479.5809</v>
       </c>
-      <c r="AK7" s="1" t="n">
+      <c r="Q7" s="4" t="n">
         <v>1863155468.2858</v>
       </c>
-      <c r="AL7" s="1" t="n">
+      <c r="R7" s="4" t="n">
         <v>2645043514.3177</v>
       </c>
-      <c r="AM7" s="1" t="n">
+      <c r="S7" s="4" t="n">
         <v>3886098535.9652</v>
       </c>
-      <c r="AN7" s="1" t="n">
+      <c r="T7" s="4" t="n">
         <v>7012579941.1941</v>
       </c>
-      <c r="AO7" s="1" t="n">
+      <c r="U7" s="4" t="n">
+        <v>5883031480.2044</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>13626771672.4669</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>20415258638.2616</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>14404842131.1878</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>11974865673.599</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>8693033063.2791</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>5239436859.5682</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>3656131126.2301</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>2076017359.0671</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>2631352331.1894</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>2120428559.6654</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>3625511096.826</v>
+      </c>
+      <c r="AG7" s="4" t="n">
+        <v>6351492338.4138</v>
+      </c>
+      <c r="AH7" s="4" t="n">
+        <v>5314231684.8696</v>
+      </c>
+      <c r="AI7" s="4" t="n">
+        <v>5136369521.952</v>
+      </c>
+      <c r="AJ7" s="4" t="n">
+        <v>5596266730.6152</v>
+      </c>
+      <c r="AK7" s="4" t="n">
+        <v>6628569115.4678</v>
+      </c>
+      <c r="AL7" s="4" t="n">
+        <v>9032366332.7949</v>
+      </c>
+      <c r="AM7" s="4" t="n">
+        <v>7917660106.77</v>
+      </c>
+      <c r="AN7" s="4" t="n">
+        <v>4797770135.6</v>
+      </c>
+      <c r="AO7" s="4" t="n">
         <v>5883031480.2044</v>
       </c>
       <c r="AP7" s="1" t="n">
@@ -1536,69 +1658,73 @@
       <c r="N8" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1" t="n">
-        <v>283000</v>
-      </c>
-      <c r="Q8" s="1" t="n">
-        <v>373000</v>
-      </c>
-      <c r="R8" s="1" t="n">
-        <v>643000</v>
-      </c>
-      <c r="S8" s="1" t="n">
-        <v>534000</v>
-      </c>
-      <c r="T8" s="1" t="n">
-        <v>210000</v>
-      </c>
-      <c r="U8" s="1" t="n">
-        <v>567000</v>
-      </c>
-      <c r="V8" s="1" t="n">
-        <v>15092000</v>
-      </c>
-      <c r="W8" s="1" t="n">
-        <v>1514000</v>
-      </c>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="1" t="n">
-        <v>16880561</v>
-      </c>
-      <c r="AG8" s="1" t="n">
-        <v>23410394</v>
-      </c>
-      <c r="AH8" s="1" t="n">
-        <v>14691568</v>
-      </c>
-      <c r="AI8" s="1" t="n">
+      <c r="O8" s="4" t="n">
         <v>100365285</v>
       </c>
-      <c r="AJ8" s="1" t="n">
+      <c r="P8" s="4" t="n">
         <v>70532967</v>
       </c>
-      <c r="AK8" s="1" t="n">
+      <c r="Q8" s="4" t="n">
         <v>65339216</v>
       </c>
-      <c r="AL8" s="1" t="n">
+      <c r="R8" s="4" t="n">
         <v>93513899.3584</v>
       </c>
-      <c r="AM8" s="1" t="n">
+      <c r="S8" s="4" t="n">
         <v>68472015.2874</v>
       </c>
-      <c r="AN8" s="1" t="n">
+      <c r="T8" s="4" t="n">
         <v>49197900.3704</v>
       </c>
-      <c r="AO8" s="1" t="n">
+      <c r="U8" s="4" t="n">
+        <v>70476259.987</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>41497150.8592</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>22776.8298</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>-4334.1706</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>139580.4572</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>1370470.1133</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>-5622.2402</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="4" t="n">
+        <v>90437.039</v>
+      </c>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4" t="n">
+        <v>315207.2969</v>
+      </c>
+      <c r="AK8" s="4" t="n">
+        <v>-186954.5625</v>
+      </c>
+      <c r="AL8" s="4" t="n">
+        <v>759.78</v>
+      </c>
+      <c r="AM8" s="4" t="n">
+        <v>-70848.04</v>
+      </c>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4" t="n">
         <v>70476259.987</v>
       </c>
       <c r="AP8" s="1" t="n">
@@ -1657,61 +1783,63 @@
       </c>
       <c r="M9"/>
       <c r="N9"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1" t="n">
-        <v>68494000</v>
-      </c>
-      <c r="Y9" s="1" t="n">
-        <v>4275032000</v>
-      </c>
-      <c r="Z9" s="1" t="n">
-        <v>6503975889</v>
-      </c>
-      <c r="AA9" s="1" t="n">
-        <v>4166812450</v>
-      </c>
-      <c r="AB9" s="1" t="n">
-        <v>4396364530</v>
-      </c>
-      <c r="AC9" s="1" t="n">
-        <v>3619043411</v>
-      </c>
-      <c r="AD9" s="1" t="n">
-        <v>3098484867</v>
-      </c>
-      <c r="AE9" s="1" t="n">
-        <v>3678284276</v>
-      </c>
-      <c r="AF9" s="1" t="n">
-        <v>3652677750</v>
-      </c>
-      <c r="AG9" s="1" t="n">
-        <v>2804310363</v>
-      </c>
-      <c r="AH9" s="1" t="n">
-        <v>3507481438</v>
-      </c>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="1" t="n">
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="4" t="n">
+        <v>98514</v>
+      </c>
+      <c r="AN9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AP9" s="1"/>
@@ -1770,85 +1898,85 @@
       <c r="N10" t="s">
         <v>58</v>
       </c>
-      <c r="O10" s="1" t="str">
+      <c r="O10" s="4" t="str">
         <f>Sum(O2:O9)</f>
       </c>
-      <c r="P10" s="1" t="str">
+      <c r="P10" s="4" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="1" t="str">
+      <c r="Q10" s="4" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="1" t="str">
+      <c r="R10" s="4" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="1" t="str">
+      <c r="S10" s="4" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="1" t="str">
+      <c r="T10" s="4" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="1" t="str">
+      <c r="U10" s="4" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="1" t="str">
+      <c r="V10" s="4" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="1" t="str">
+      <c r="W10" s="4" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="1" t="str">
+      <c r="X10" s="4" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="1" t="str">
+      <c r="Y10" s="4" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="1" t="str">
+      <c r="Z10" s="4" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="1" t="str">
+      <c r="AA10" s="4" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="1" t="str">
+      <c r="AB10" s="4" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="1" t="str">
+      <c r="AC10" s="4" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="1" t="str">
+      <c r="AD10" s="4" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="1" t="str">
+      <c r="AE10" s="4" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="1" t="str">
+      <c r="AF10" s="4" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="1" t="str">
+      <c r="AG10" s="4" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="1" t="str">
+      <c r="AH10" s="4" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="1" t="str">
+      <c r="AI10" s="4" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="1" t="str">
+      <c r="AJ10" s="4" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="1" t="str">
+      <c r="AK10" s="4" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="1" t="str">
+      <c r="AL10" s="4" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="1" t="str">
+      <c r="AM10" s="4" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="1" t="str">
+      <c r="AN10" s="4" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="1" t="str">
+      <c r="AO10" s="4" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
       <c r="AP10" s="1" t="str">
@@ -1924,82 +2052,82 @@
         <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="P13" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="Q13" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="R13" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="S13" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="T13" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="U13" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="V13" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="W13" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="X13" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Y13" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Z13" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="AA13" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AB13" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AC13" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="AD13" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="AE13" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="AG13" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AH13" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AI13" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="AJ13" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="AK13" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AL13" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="AM13" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AN13" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="AO13" t="s">
         <v>28</v>
@@ -2075,81 +2203,85 @@
       <c r="N14" t="s">
         <v>49</v>
       </c>
-      <c r="O14" s="1" t="n">
-        <v>731389.872261076</v>
-      </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1" t="n">
-        <v>442157795.289321</v>
-      </c>
-      <c r="S14" s="1" t="n">
-        <v>99740668.0439091</v>
-      </c>
-      <c r="T14" s="1" t="n">
-        <v>-435706.370043739</v>
-      </c>
-      <c r="U14" s="1" t="n">
-        <v>3724488.720752</v>
-      </c>
-      <c r="V14" s="1" t="n">
-        <v>3033485355.34892</v>
-      </c>
-      <c r="W14" s="1" t="n">
-        <v>228194843.115493</v>
-      </c>
-      <c r="X14" s="1" t="n">
-        <v>16393910.963171</v>
-      </c>
-      <c r="Y14" s="1" t="n">
-        <v>18800682.8093618</v>
-      </c>
-      <c r="Z14" s="1" t="n">
-        <v>46032351.3815922</v>
-      </c>
-      <c r="AA14" s="1" t="n">
-        <v>26547205.3982666</v>
-      </c>
-      <c r="AB14" s="1" t="n">
-        <v>737502693.539363</v>
-      </c>
-      <c r="AC14" s="1" t="n">
-        <v>13445769.2726782</v>
-      </c>
-      <c r="AD14" s="1" t="n">
-        <v>2723408.6990267</v>
-      </c>
-      <c r="AE14" s="1" t="n">
-        <v>4912878.84871196</v>
-      </c>
-      <c r="AF14" s="1" t="n">
-        <v>1188318968.82216</v>
-      </c>
-      <c r="AG14" s="1" t="n">
-        <v>1049350724.07256</v>
-      </c>
-      <c r="AH14" s="1" t="n">
-        <v>1819266017.20232</v>
-      </c>
-      <c r="AI14" s="1" t="n">
+      <c r="O14" s="4" t="n">
         <v>4927741688.20604</v>
       </c>
-      <c r="AJ14" s="1" t="n">
+      <c r="P14" s="4" t="n">
         <v>3403887587.92503</v>
       </c>
-      <c r="AK14" s="1" t="n">
+      <c r="Q14" s="4" t="n">
         <v>4233176872.39738</v>
       </c>
-      <c r="AL14" s="1" t="n">
+      <c r="R14" s="4" t="n">
         <v>9820984232.87341</v>
       </c>
-      <c r="AM14" s="1" t="n">
+      <c r="S14" s="4" t="n">
         <v>6043450741.57595</v>
       </c>
-      <c r="AN14" s="1" t="n">
+      <c r="T14" s="4" t="n">
         <v>11356627839.064</v>
       </c>
-      <c r="AO14" s="1" t="n">
+      <c r="U14" s="4" t="n">
+        <v>12776261006.3759</v>
+      </c>
+      <c r="V14" s="4" t="n">
+        <v>18395431766.1773</v>
+      </c>
+      <c r="W14" s="4" t="n">
+        <v>24606540771.853</v>
+      </c>
+      <c r="X14" s="4" t="n">
+        <v>13790318584.7415</v>
+      </c>
+      <c r="Y14" s="4" t="n">
+        <v>11277873079.9843</v>
+      </c>
+      <c r="Z14" s="4" t="n">
+        <v>8290716340.46435</v>
+      </c>
+      <c r="AA14" s="4" t="n">
+        <v>4901340961.48759</v>
+      </c>
+      <c r="AB14" s="4" t="n">
+        <v>3723836164.3108</v>
+      </c>
+      <c r="AC14" s="4" t="n">
+        <v>3847626488.01747</v>
+      </c>
+      <c r="AD14" s="4" t="n">
+        <v>5040203997.24721</v>
+      </c>
+      <c r="AE14" s="4" t="n">
+        <v>5449076741.95026</v>
+      </c>
+      <c r="AF14" s="4" t="n">
+        <v>4754542609.63421</v>
+      </c>
+      <c r="AG14" s="4" t="n">
+        <v>6309977274.91763</v>
+      </c>
+      <c r="AH14" s="4" t="n">
+        <v>7542865098.94448</v>
+      </c>
+      <c r="AI14" s="4" t="n">
+        <v>6759431899.85415</v>
+      </c>
+      <c r="AJ14" s="4" t="n">
+        <v>3889751354.90092</v>
+      </c>
+      <c r="AK14" s="4" t="n">
+        <v>4028932922.49631</v>
+      </c>
+      <c r="AL14" s="4" t="n">
+        <v>4816798883.74</v>
+      </c>
+      <c r="AM14" s="4" t="n">
+        <v>4727564937.46095</v>
+      </c>
+      <c r="AN14" s="4" t="n">
+        <v>1557106392.40923</v>
+      </c>
+      <c r="AO14" s="4" t="n">
         <v>12776261006.3759</v>
       </c>
       <c r="AP14" s="1" t="n">
@@ -2224,71 +2356,85 @@
       <c r="N15" t="s">
         <v>50</v>
       </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1" t="n">
-        <v>129358.875100595</v>
-      </c>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1" t="n">
-        <v>42377.2420818812</v>
-      </c>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1" t="n">
-        <v>-400897.260378316</v>
-      </c>
-      <c r="Y15" s="1" t="n">
-        <v>585323.788234255</v>
-      </c>
-      <c r="Z15" s="1" t="n">
-        <v>469269.589392424</v>
-      </c>
-      <c r="AA15" s="1" t="n">
-        <v>11402421.1635763</v>
-      </c>
-      <c r="AB15" s="1" t="n">
-        <v>2371732.72997163</v>
-      </c>
-      <c r="AC15" s="1" t="n">
-        <v>9893388.83446852</v>
-      </c>
-      <c r="AD15" s="1" t="n">
-        <v>434140.167694812</v>
-      </c>
-      <c r="AE15" s="1" t="n">
-        <v>2266656.20352381</v>
-      </c>
-      <c r="AF15" s="1" t="n">
-        <v>15213125.4857171</v>
-      </c>
-      <c r="AG15" s="1" t="n">
-        <v>74606956.708149</v>
-      </c>
-      <c r="AH15" s="1" t="n">
-        <v>118893428.946333</v>
-      </c>
-      <c r="AI15" s="1" t="n">
+      <c r="O15" s="4" t="n">
         <v>247079137.436434</v>
       </c>
-      <c r="AJ15" s="1" t="n">
+      <c r="P15" s="4" t="n">
         <v>253499402.026063</v>
       </c>
-      <c r="AK15" s="1" t="n">
+      <c r="Q15" s="4" t="n">
         <v>363619524.444626</v>
       </c>
-      <c r="AL15" s="1" t="n">
+      <c r="R15" s="4" t="n">
         <v>583387474.731696</v>
       </c>
-      <c r="AM15" s="1" t="n">
+      <c r="S15" s="4" t="n">
         <v>763263454.126832</v>
       </c>
-      <c r="AN15" s="1" t="n">
+      <c r="T15" s="4" t="n">
         <v>1590057903.16178</v>
       </c>
-      <c r="AO15" s="1" t="n">
+      <c r="U15" s="4" t="n">
+        <v>1602358471.37868</v>
+      </c>
+      <c r="V15" s="4" t="n">
+        <v>888828935.088843</v>
+      </c>
+      <c r="W15" s="4" t="n">
+        <v>1047512121.23476</v>
+      </c>
+      <c r="X15" s="4" t="n">
+        <v>1143061318.00164</v>
+      </c>
+      <c r="Y15" s="4" t="n">
+        <v>1161632388.61217</v>
+      </c>
+      <c r="Z15" s="4" t="n">
+        <v>1220158884.57299</v>
+      </c>
+      <c r="AA15" s="4" t="n">
+        <v>971909504.048712</v>
+      </c>
+      <c r="AB15" s="4" t="n">
+        <v>767864938.832819</v>
+      </c>
+      <c r="AC15" s="4" t="n">
+        <v>845505951.526263</v>
+      </c>
+      <c r="AD15" s="4" t="n">
+        <v>1003501782.10914</v>
+      </c>
+      <c r="AE15" s="4" t="n">
+        <v>914835422.883214</v>
+      </c>
+      <c r="AF15" s="4" t="n">
+        <v>913093373.965936</v>
+      </c>
+      <c r="AG15" s="4" t="n">
+        <v>1451745468.99375</v>
+      </c>
+      <c r="AH15" s="4" t="n">
+        <v>1195297140.11259</v>
+      </c>
+      <c r="AI15" s="4" t="n">
+        <v>998808105.244761</v>
+      </c>
+      <c r="AJ15" s="4" t="n">
+        <v>666682520.617008</v>
+      </c>
+      <c r="AK15" s="4" t="n">
+        <v>715650000.872989</v>
+      </c>
+      <c r="AL15" s="4" t="n">
+        <v>746173610.93</v>
+      </c>
+      <c r="AM15" s="4" t="n">
+        <v>844730736.118001</v>
+      </c>
+      <c r="AN15" s="4" t="n">
+        <v>369756603.952213</v>
+      </c>
+      <c r="AO15" s="4" t="n">
         <v>1602358471.37868</v>
       </c>
       <c r="AP15" s="1" t="n">
@@ -2363,67 +2509,85 @@
       <c r="N16" t="s">
         <v>52</v>
       </c>
-      <c r="O16" s="1" t="n">
-        <v>133916.455484422</v>
-      </c>
-      <c r="P16" s="1" t="n">
-        <v>1481292.4129612</v>
-      </c>
-      <c r="Q16" s="1" t="n">
-        <v>118331.791111514</v>
-      </c>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1" t="n">
-        <v>99506.8270004581</v>
-      </c>
-      <c r="T16" s="1" t="n">
-        <v>91474.2655340448</v>
-      </c>
-      <c r="U16" s="1" t="n">
-        <v>98880.2315243894</v>
-      </c>
-      <c r="V16" s="1" t="n">
-        <v>2109340.12306277</v>
-      </c>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1" t="n">
-        <v>202691.629847904</v>
-      </c>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1" t="n">
-        <v>871462.638465735</v>
-      </c>
-      <c r="AG16" s="1" t="n">
-        <v>354896.02590447</v>
-      </c>
-      <c r="AH16" s="1" t="n">
-        <v>89239.9830847671</v>
-      </c>
-      <c r="AI16" s="1" t="n">
+      <c r="O16" s="4" t="n">
         <v>1795493.18199038</v>
       </c>
-      <c r="AJ16" s="1" t="n">
+      <c r="P16" s="4" t="n">
         <v>6359277.00813111</v>
       </c>
-      <c r="AK16" s="1" t="n">
+      <c r="Q16" s="4" t="n">
         <v>9081076.07578219</v>
       </c>
-      <c r="AL16" s="1" t="n">
+      <c r="R16" s="4" t="n">
         <v>20119211.3372667</v>
       </c>
-      <c r="AM16" s="1" t="n">
+      <c r="S16" s="4" t="n">
         <v>285631822.50476</v>
       </c>
-      <c r="AN16" s="1" t="n">
+      <c r="T16" s="4" t="n">
         <v>44201602.955289</v>
       </c>
-      <c r="AO16" s="1" t="n">
+      <c r="U16" s="4" t="n">
+        <v>19189636.1579341</v>
+      </c>
+      <c r="V16" s="4" t="n">
+        <v>13242177.0684446</v>
+      </c>
+      <c r="W16" s="4" t="n">
+        <v>17233073.9890695</v>
+      </c>
+      <c r="X16" s="4" t="n">
+        <v>9461566.53250568</v>
+      </c>
+      <c r="Y16" s="4" t="n">
+        <v>41832425.8940192</v>
+      </c>
+      <c r="Z16" s="4" t="n">
+        <v>1039570540.6562</v>
+      </c>
+      <c r="AA16" s="4" t="n">
+        <v>815987934.332259</v>
+      </c>
+      <c r="AB16" s="4" t="n">
+        <v>171370326.813648</v>
+      </c>
+      <c r="AC16" s="4" t="n">
+        <v>303892206.96119</v>
+      </c>
+      <c r="AD16" s="4" t="n">
+        <v>178283185.422681</v>
+      </c>
+      <c r="AE16" s="4" t="n">
+        <v>139412206.090625</v>
+      </c>
+      <c r="AF16" s="4" t="n">
+        <v>261996214.686203</v>
+      </c>
+      <c r="AG16" s="4" t="n">
+        <v>313867879.12107</v>
+      </c>
+      <c r="AH16" s="4" t="n">
+        <v>185700221.284735</v>
+      </c>
+      <c r="AI16" s="4" t="n">
+        <v>303135639.348517</v>
+      </c>
+      <c r="AJ16" s="4" t="n">
+        <v>408331927.972304</v>
+      </c>
+      <c r="AK16" s="4" t="n">
+        <v>263939815.078308</v>
+      </c>
+      <c r="AL16" s="4" t="n">
+        <v>359165027.8787</v>
+      </c>
+      <c r="AM16" s="4" t="n">
+        <v>535027104.39359</v>
+      </c>
+      <c r="AN16" s="4" t="n">
+        <v>170118366.117144</v>
+      </c>
+      <c r="AO16" s="4" t="n">
         <v>19189636.1579341</v>
       </c>
       <c r="AP16" s="1" t="n">
@@ -2498,61 +2662,85 @@
       <c r="N17" t="s">
         <v>53</v>
       </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1" t="n">
-        <v>48705.3414703194</v>
-      </c>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1" t="n">
-        <v>630287.671396924</v>
-      </c>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1" t="n">
-        <v>253342.286101999</v>
-      </c>
-      <c r="AD17" s="1" t="n">
-        <v>908410.939126119</v>
-      </c>
-      <c r="AE17" s="1" t="n">
-        <v>3903088.88126533</v>
-      </c>
-      <c r="AF17" s="1" t="n">
-        <v>5106095.39278811</v>
-      </c>
-      <c r="AG17" s="1" t="n">
-        <v>5409318.52740638</v>
-      </c>
-      <c r="AH17" s="1" t="n">
-        <v>9713463.25114315</v>
-      </c>
-      <c r="AI17" s="1" t="n">
+      <c r="O17" s="4" t="n">
         <v>93386539.086408</v>
       </c>
-      <c r="AJ17" s="1" t="n">
+      <c r="P17" s="4" t="n">
         <v>76493331.2060949</v>
       </c>
-      <c r="AK17" s="1" t="n">
+      <c r="Q17" s="4" t="n">
         <v>285412909.014814</v>
       </c>
-      <c r="AL17" s="1" t="n">
+      <c r="R17" s="4" t="n">
         <v>240553486.847734</v>
       </c>
-      <c r="AM17" s="1" t="n">
+      <c r="S17" s="4" t="n">
         <v>335512002.62724</v>
       </c>
-      <c r="AN17" s="1" t="n">
+      <c r="T17" s="4" t="n">
         <v>327945537.608357</v>
       </c>
-      <c r="AO17" s="1" t="n">
+      <c r="U17" s="4" t="n">
+        <v>320561477.957251</v>
+      </c>
+      <c r="V17" s="4" t="n">
+        <v>351169279.31687</v>
+      </c>
+      <c r="W17" s="4" t="n">
+        <v>266621003.23631</v>
+      </c>
+      <c r="X17" s="4" t="n">
+        <v>481679632.875745</v>
+      </c>
+      <c r="Y17" s="4" t="n">
+        <v>672657340.312951</v>
+      </c>
+      <c r="Z17" s="4" t="n">
+        <v>365330937.774166</v>
+      </c>
+      <c r="AA17" s="4" t="n">
+        <v>299832930.770309</v>
+      </c>
+      <c r="AB17" s="4" t="n">
+        <v>239121645.180268</v>
+      </c>
+      <c r="AC17" s="4" t="n">
+        <v>226016877.014899</v>
+      </c>
+      <c r="AD17" s="4" t="n">
+        <v>147388860.277429</v>
+      </c>
+      <c r="AE17" s="4" t="n">
+        <v>172604464.833886</v>
+      </c>
+      <c r="AF17" s="4" t="n">
+        <v>201710745.33785</v>
+      </c>
+      <c r="AG17" s="4" t="n">
+        <v>247329274.198172</v>
+      </c>
+      <c r="AH17" s="4" t="n">
+        <v>251150379.350963</v>
+      </c>
+      <c r="AI17" s="4" t="n">
+        <v>360318958.783594</v>
+      </c>
+      <c r="AJ17" s="4" t="n">
+        <v>358553053.225917</v>
+      </c>
+      <c r="AK17" s="4" t="n">
+        <v>262536727.50333</v>
+      </c>
+      <c r="AL17" s="4" t="n">
+        <v>247996537.5797</v>
+      </c>
+      <c r="AM17" s="4" t="n">
+        <v>223457351.034754</v>
+      </c>
+      <c r="AN17" s="4" t="n">
+        <v>92864241.3686984</v>
+      </c>
+      <c r="AO17" s="4" t="n">
         <v>320561477.957251</v>
       </c>
       <c r="AP17" s="1" t="n">
@@ -2627,51 +2815,85 @@
       <c r="N18" t="s">
         <v>54</v>
       </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1" t="n">
-        <v>19824774.9271703</v>
-      </c>
-      <c r="AG18" s="1" t="n">
-        <v>27554015.3539215</v>
-      </c>
-      <c r="AH18" s="1" t="n">
-        <v>21943780.6229147</v>
-      </c>
-      <c r="AI18" s="1" t="n">
+      <c r="O18" s="4" t="n">
         <v>1281523733.1172</v>
       </c>
-      <c r="AJ18" s="1" t="n">
+      <c r="P18" s="4" t="n">
         <v>1561127810.58912</v>
       </c>
-      <c r="AK18" s="1" t="n">
+      <c r="Q18" s="4" t="n">
         <v>1636660974.0101</v>
       </c>
-      <c r="AL18" s="1" t="n">
+      <c r="R18" s="4" t="n">
         <v>2263713302.0126</v>
       </c>
-      <c r="AM18" s="1" t="n">
+      <c r="S18" s="4" t="n">
         <v>2287961041.91545</v>
       </c>
-      <c r="AN18" s="1" t="n">
+      <c r="T18" s="4" t="n">
         <v>3387765739.06009</v>
       </c>
-      <c r="AO18" s="1" t="n">
+      <c r="U18" s="4" t="n">
+        <v>3276688338.23931</v>
+      </c>
+      <c r="V18" s="4" t="n">
+        <v>3306820614.68933</v>
+      </c>
+      <c r="W18" s="4" t="n">
+        <v>3134989303.53976</v>
+      </c>
+      <c r="X18" s="4" t="n">
+        <v>7430526670.59869</v>
+      </c>
+      <c r="Y18" s="4" t="n">
+        <v>7542079955.84003</v>
+      </c>
+      <c r="Z18" s="4" t="n">
+        <v>6047315426.14257</v>
+      </c>
+      <c r="AA18" s="4" t="n">
+        <v>2709933327.70174</v>
+      </c>
+      <c r="AB18" s="4" t="n">
+        <v>1907247339.83165</v>
+      </c>
+      <c r="AC18" s="4" t="n">
+        <v>2001050544.33985</v>
+      </c>
+      <c r="AD18" s="4" t="n">
+        <v>2011161932.33462</v>
+      </c>
+      <c r="AE18" s="4" t="n">
+        <v>2539728848.17029</v>
+      </c>
+      <c r="AF18" s="4" t="n">
+        <v>2184173962.92358</v>
+      </c>
+      <c r="AG18" s="4" t="n">
+        <v>2154501884.70694</v>
+      </c>
+      <c r="AH18" s="4" t="n">
+        <v>2351105577.54175</v>
+      </c>
+      <c r="AI18" s="4" t="n">
+        <v>1901544610.81401</v>
+      </c>
+      <c r="AJ18" s="4" t="n">
+        <v>1878412756.43886</v>
+      </c>
+      <c r="AK18" s="4" t="n">
+        <v>1679045495.97109</v>
+      </c>
+      <c r="AL18" s="4" t="n">
+        <v>2215150196.7289</v>
+      </c>
+      <c r="AM18" s="4" t="n">
+        <v>2286045041.57241</v>
+      </c>
+      <c r="AN18" s="4" t="n">
+        <v>1029057937.55572</v>
+      </c>
+      <c r="AO18" s="4" t="n">
         <v>3276688338.23931</v>
       </c>
       <c r="AP18" s="1" t="n">
@@ -2746,59 +2968,85 @@
       <c r="N19" t="s">
         <v>55</v>
       </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1" t="n">
-        <v>165591.286332477</v>
-      </c>
-      <c r="AB19" s="1" t="n">
-        <v>342625.916047266</v>
-      </c>
-      <c r="AC19" s="1" t="n">
-        <v>145299.252323206</v>
-      </c>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="1" t="n">
-        <v>613198861.41534</v>
-      </c>
-      <c r="AG19" s="1" t="n">
-        <v>792554834.287951</v>
-      </c>
-      <c r="AH19" s="1" t="n">
-        <v>1089022163.73144</v>
-      </c>
-      <c r="AI19" s="1" t="n">
+      <c r="O19" s="4" t="n">
         <v>1197608077.10039</v>
       </c>
-      <c r="AJ19" s="1" t="n">
+      <c r="P19" s="4" t="n">
         <v>1569068902.46792</v>
       </c>
-      <c r="AK19" s="1" t="n">
+      <c r="Q19" s="4" t="n">
         <v>3010794123.4374</v>
       </c>
-      <c r="AL19" s="1" t="n">
+      <c r="R19" s="4" t="n">
         <v>4193797396.91822</v>
       </c>
-      <c r="AM19" s="1" t="n">
+      <c r="S19" s="4" t="n">
         <v>6014657643.03084</v>
       </c>
-      <c r="AN19" s="1" t="n">
+      <c r="T19" s="4" t="n">
         <v>10533107344.4589</v>
       </c>
-      <c r="AO19" s="1" t="n">
+      <c r="U19" s="4" t="n">
+        <v>8558475181.7541</v>
+      </c>
+      <c r="V19" s="4" t="n">
+        <v>19292739717.6553</v>
+      </c>
+      <c r="W19" s="4" t="n">
+        <v>28315993875.2866</v>
+      </c>
+      <c r="X19" s="4" t="n">
+        <v>19777292519.924</v>
+      </c>
+      <c r="Y19" s="4" t="n">
+        <v>16299864543.27</v>
+      </c>
+      <c r="Z19" s="4" t="n">
+        <v>11599896662.8065</v>
+      </c>
+      <c r="AA19" s="4" t="n">
+        <v>6866846228.17874</v>
+      </c>
+      <c r="AB19" s="4" t="n">
+        <v>4706357971.38333</v>
+      </c>
+      <c r="AC19" s="4" t="n">
+        <v>2624476377.65303</v>
+      </c>
+      <c r="AD19" s="4" t="n">
+        <v>3292427009.6654</v>
+      </c>
+      <c r="AE19" s="4" t="n">
+        <v>2632100003.95629</v>
+      </c>
+      <c r="AF19" s="4" t="n">
+        <v>4425661396.74567</v>
+      </c>
+      <c r="AG19" s="4" t="n">
+        <v>7584882307.6268</v>
+      </c>
+      <c r="AH19" s="4" t="n">
+        <v>6230988973.57272</v>
+      </c>
+      <c r="AI19" s="4" t="n">
+        <v>5944786455.40632</v>
+      </c>
+      <c r="AJ19" s="4" t="n">
+        <v>6261560768.15028</v>
+      </c>
+      <c r="AK19" s="4" t="n">
+        <v>6931803580.35754</v>
+      </c>
+      <c r="AL19" s="4" t="n">
+        <v>9032366332.7949</v>
+      </c>
+      <c r="AM19" s="4" t="n">
+        <v>7711711238.96279</v>
+      </c>
+      <c r="AN19" s="4" t="n">
+        <v>4572640540.86937</v>
+      </c>
+      <c r="AO19" s="4" t="n">
         <v>8558475181.7541</v>
       </c>
       <c r="AP19" s="1" t="n">
@@ -2873,69 +3121,73 @@
       <c r="N20" t="s">
         <v>56</v>
       </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1" t="n">
-        <v>813991.753141785</v>
-      </c>
-      <c r="Q20" s="1" t="n">
-        <v>1003130.86555897</v>
-      </c>
-      <c r="R20" s="1" t="n">
-        <v>1656977.20256806</v>
-      </c>
-      <c r="S20" s="1" t="n">
-        <v>1328416.14045612</v>
-      </c>
-      <c r="T20" s="1" t="n">
-        <v>505515.6779513</v>
-      </c>
-      <c r="U20" s="1" t="n">
-        <v>1334883.12557926</v>
-      </c>
-      <c r="V20" s="1" t="n">
-        <v>34753451.0232133</v>
-      </c>
-      <c r="W20" s="1" t="n">
-        <v>3376831.35221879</v>
-      </c>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="1" t="n">
-        <v>29696066.8980895</v>
-      </c>
-      <c r="AG20" s="1" t="n">
-        <v>40673310.530567</v>
-      </c>
-      <c r="AH20" s="1" t="n">
-        <v>25212986.1501674</v>
-      </c>
-      <c r="AI20" s="1" t="n">
+      <c r="O20" s="4" t="n">
         <v>168731446.559945</v>
       </c>
-      <c r="AJ20" s="1" t="n">
+      <c r="P20" s="4" t="n">
         <v>115771941.331553</v>
       </c>
-      <c r="AK20" s="1" t="n">
+      <c r="Q20" s="4" t="n">
         <v>105585889.589666</v>
       </c>
-      <c r="AL20" s="1" t="n">
+      <c r="R20" s="4" t="n">
         <v>148269147.778498</v>
       </c>
-      <c r="AM20" s="1" t="n">
+      <c r="S20" s="4" t="n">
         <v>105976656.605748</v>
       </c>
-      <c r="AN20" s="1" t="n">
+      <c r="T20" s="4" t="n">
         <v>73896735.5907502</v>
       </c>
-      <c r="AO20" s="1" t="n">
+      <c r="U20" s="4" t="n">
+        <v>102526958.088049</v>
+      </c>
+      <c r="V20" s="4" t="n">
+        <v>58751533.3634328</v>
+      </c>
+      <c r="W20" s="4" t="n">
+        <v>31591.4965635804</v>
+      </c>
+      <c r="X20" s="4" t="n">
+        <v>-5950.64902529315</v>
+      </c>
+      <c r="Y20" s="4" t="n">
+        <v>189993.157941112</v>
+      </c>
+      <c r="Z20" s="4" t="n">
+        <v>1828741.65760369</v>
+      </c>
+      <c r="AA20" s="4" t="n">
+        <v>-7368.55122908507</v>
+      </c>
+      <c r="AB20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="4" t="n">
+        <v>107998.917501105</v>
+      </c>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4" t="n">
+        <v>352679.695073571</v>
+      </c>
+      <c r="AK20" s="4" t="n">
+        <v>-195507.097101487</v>
+      </c>
+      <c r="AL20" s="4" t="n">
+        <v>759.78</v>
+      </c>
+      <c r="AM20" s="4" t="n">
+        <v>-69005.1882701204</v>
+      </c>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4" t="n">
         <v>102526958.088049</v>
       </c>
       <c r="AP20" s="1" t="n">
@@ -2994,61 +3246,63 @@
       </c>
       <c r="M21"/>
       <c r="N21"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1" t="n">
-        <v>146839876.750547</v>
-      </c>
-      <c r="Y21" s="1" t="n">
-        <v>8841971466.65252</v>
-      </c>
-      <c r="Z21" s="1" t="n">
-        <v>12987736573.8266</v>
-      </c>
-      <c r="AA21" s="1" t="n">
-        <v>8117503923.54916</v>
-      </c>
-      <c r="AB21" s="1" t="n">
-        <v>8368380135.38311</v>
-      </c>
-      <c r="AC21" s="1" t="n">
-        <v>6741593612.09646</v>
-      </c>
-      <c r="AD21" s="1" t="n">
-        <v>5652003108.232</v>
-      </c>
-      <c r="AE21" s="1" t="n">
-        <v>6585628651.27922</v>
-      </c>
-      <c r="AF21" s="1" t="n">
-        <v>6425743956.09027</v>
-      </c>
-      <c r="AG21" s="1" t="n">
-        <v>4872219844.67181</v>
-      </c>
-      <c r="AH21" s="1" t="n">
-        <v>6019376619.17798</v>
-      </c>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="1" t="n">
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="4" t="n">
+        <v>95951.5198619841</v>
+      </c>
+      <c r="AN21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AP21" s="1"/>
@@ -3101,33 +3355,33 @@
       <c r="B22" t="str">
         <f>N22</f>
       </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="1"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>

--- a/Output/FedAcqTrends/Platform/Land_Vehicles/Fed_Land_Vehicles_Contracts.xlsx
+++ b/Output/FedAcqTrends/Platform/Land_Vehicles/Fed_Land_Vehicles_Contracts.xlsx
@@ -9,12 +9,13 @@
     <sheet name="FYQ" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Veh" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="PSR" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t xml:space="preserve">Vehicle.AwardTask</t>
   </si>
@@ -228,16 +229,32 @@
   <si>
     <t xml:space="preserve">Incentive</t>
   </si>
+  <si>
+    <t xml:space="preserve">SimpleArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products (All)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services (Non-R&amp;D)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlabeled</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -273,12 +290,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,85 +758,85 @@
       <c r="N2" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="4" t="n">
+      <c r="O2" s="2" t="n">
         <v>2931132335</v>
       </c>
-      <c r="P2" s="4" t="n">
+      <c r="P2" s="2" t="n">
         <v>2073786516.4</v>
       </c>
-      <c r="Q2" s="4" t="n">
+      <c r="Q2" s="2" t="n">
         <v>2619596795.62</v>
       </c>
-      <c r="R2" s="4" t="n">
+      <c r="R2" s="2" t="n">
         <v>6194131044.21</v>
       </c>
-      <c r="S2" s="4" t="n">
+      <c r="S2" s="2" t="n">
         <v>3904701892.09</v>
       </c>
-      <c r="T2" s="4" t="n">
+      <c r="T2" s="2" t="n">
         <v>7560851511.28</v>
       </c>
-      <c r="U2" s="4" t="n">
+      <c r="U2" s="2" t="n">
         <v>8782305738.3</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="V2" s="2" t="n">
         <v>12992988666.34</v>
       </c>
-      <c r="W2" s="4" t="n">
+      <c r="W2" s="2" t="n">
         <v>17740818007.76</v>
       </c>
-      <c r="X2" s="4" t="n">
+      <c r="X2" s="2" t="n">
         <v>10044214189.17</v>
       </c>
-      <c r="Y2" s="4" t="n">
+      <c r="Y2" s="2" t="n">
         <v>8285407210.4833</v>
       </c>
-      <c r="Z2" s="4" t="n">
+      <c r="Z2" s="2" t="n">
         <v>6213113216.5179</v>
       </c>
-      <c r="AA2" s="4" t="n">
+      <c r="AA2" s="2" t="n">
         <v>3739746841.7959</v>
       </c>
-      <c r="AB2" s="4" t="n">
+      <c r="AB2" s="2" t="n">
         <v>2892859700.0275</v>
       </c>
-      <c r="AC2" s="4" t="n">
+      <c r="AC2" s="2" t="n">
         <v>3043555449.1345</v>
       </c>
-      <c r="AD2" s="4" t="n">
+      <c r="AD2" s="2" t="n">
         <v>4028199410.0074</v>
       </c>
-      <c r="AE2" s="4" t="n">
+      <c r="AE2" s="2" t="n">
         <v>4389794434.1296</v>
       </c>
-      <c r="AF2" s="4" t="n">
+      <c r="AF2" s="2" t="n">
         <v>3894931276.0882</v>
       </c>
-      <c r="AG2" s="4" t="n">
+      <c r="AG2" s="2" t="n">
         <v>5283901673.32</v>
       </c>
-      <c r="AH2" s="4" t="n">
+      <c r="AH2" s="2" t="n">
         <v>6433093185.29</v>
       </c>
-      <c r="AI2" s="4" t="n">
+      <c r="AI2" s="2" t="n">
         <v>5840233329.92</v>
       </c>
-      <c r="AJ2" s="4" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>3476463281.89</v>
       </c>
-      <c r="AK2" s="4" t="n">
+      <c r="AK2" s="2" t="n">
         <v>3852685672.46</v>
       </c>
-      <c r="AL2" s="4" t="n">
+      <c r="AL2" s="2" t="n">
         <v>4816798883.74</v>
       </c>
-      <c r="AM2" s="4" t="n">
+      <c r="AM2" s="2" t="n">
         <v>4853819229.95</v>
       </c>
-      <c r="AN2" s="4" t="n">
+      <c r="AN2" s="2" t="n">
         <v>1633769040.16</v>
       </c>
-      <c r="AO2" s="4" t="n">
+      <c r="AO2" s="2" t="n">
         <v>8782305738.3</v>
       </c>
       <c r="AP2" s="1" t="n">
@@ -893,85 +911,85 @@
       <c r="N3" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="4" t="n">
+      <c r="O3" s="2" t="n">
         <v>146968265.5601</v>
       </c>
-      <c r="P3" s="4" t="n">
+      <c r="P3" s="2" t="n">
         <v>154442127.79</v>
       </c>
-      <c r="Q3" s="4" t="n">
+      <c r="Q3" s="2" t="n">
         <v>225016948.21</v>
       </c>
-      <c r="R3" s="4" t="n">
+      <c r="R3" s="2" t="n">
         <v>367944635.93</v>
       </c>
-      <c r="S3" s="4" t="n">
+      <c r="S3" s="2" t="n">
         <v>493148100.47</v>
       </c>
-      <c r="T3" s="4" t="n">
+      <c r="T3" s="2" t="n">
         <v>1058605764.89</v>
       </c>
-      <c r="U3" s="4" t="n">
+      <c r="U3" s="2" t="n">
         <v>1101449163.49</v>
       </c>
-      <c r="V3" s="4" t="n">
+      <c r="V3" s="2" t="n">
         <v>627794140.78</v>
       </c>
-      <c r="W3" s="4" t="n">
+      <c r="W3" s="2" t="n">
         <v>755235044.05</v>
       </c>
-      <c r="X3" s="4" t="n">
+      <c r="X3" s="2" t="n">
         <v>832551665.78</v>
       </c>
-      <c r="Y3" s="4" t="n">
+      <c r="Y3" s="2" t="n">
         <v>853405362.8977</v>
       </c>
-      <c r="Z3" s="4" t="n">
+      <c r="Z3" s="2" t="n">
         <v>914394484.2247</v>
       </c>
-      <c r="AA3" s="4" t="n">
+      <c r="AA3" s="2" t="n">
         <v>741571648.8278</v>
       </c>
-      <c r="AB3" s="4" t="n">
+      <c r="AB3" s="2" t="n">
         <v>596515377.8522</v>
       </c>
-      <c r="AC3" s="4" t="n">
+      <c r="AC3" s="2" t="n">
         <v>668813424.083</v>
       </c>
-      <c r="AD3" s="4" t="n">
+      <c r="AD3" s="2" t="n">
         <v>802012237.7668</v>
       </c>
-      <c r="AE3" s="4" t="n">
+      <c r="AE3" s="2" t="n">
         <v>736994474.0547</v>
       </c>
-      <c r="AF3" s="4" t="n">
+      <c r="AF3" s="2" t="n">
         <v>748008006.7097</v>
       </c>
-      <c r="AG3" s="4" t="n">
+      <c r="AG3" s="2" t="n">
         <v>1215674792.26</v>
       </c>
-      <c r="AH3" s="4" t="n">
+      <c r="AH3" s="2" t="n">
         <v>1019434629.36</v>
       </c>
-      <c r="AI3" s="4" t="n">
+      <c r="AI3" s="2" t="n">
         <v>862982640.09</v>
       </c>
-      <c r="AJ3" s="4" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>595847161.46</v>
       </c>
-      <c r="AK3" s="4" t="n">
+      <c r="AK3" s="2" t="n">
         <v>684343611.05</v>
       </c>
-      <c r="AL3" s="4" t="n">
+      <c r="AL3" s="2" t="n">
         <v>746173610.93</v>
       </c>
-      <c r="AM3" s="4" t="n">
+      <c r="AM3" s="2" t="n">
         <v>867290105.02</v>
       </c>
-      <c r="AN3" s="4" t="n">
+      <c r="AN3" s="2" t="n">
         <v>387961217.6</v>
       </c>
-      <c r="AO3" s="4" t="n">
+      <c r="AO3" s="2" t="n">
         <v>1101449163.49</v>
       </c>
       <c r="AP3" s="1" t="n">
@@ -1046,85 +1064,85 @@
       <c r="N4" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="4" t="n">
+      <c r="O4" s="2" t="n">
         <v>1068000</v>
       </c>
-      <c r="P4" s="4" t="n">
+      <c r="P4" s="2" t="n">
         <v>3874329.74</v>
       </c>
-      <c r="Q4" s="4" t="n">
+      <c r="Q4" s="2" t="n">
         <v>5619599.3</v>
       </c>
-      <c r="R4" s="4" t="n">
+      <c r="R4" s="2" t="n">
         <v>12689260.9309</v>
       </c>
-      <c r="S4" s="4" t="n">
+      <c r="S4" s="2" t="n">
         <v>184548061.2761</v>
       </c>
-      <c r="T4" s="4" t="n">
+      <c r="T4" s="2" t="n">
         <v>29427904.2372</v>
       </c>
-      <c r="U4" s="4" t="n">
+      <c r="U4" s="2" t="n">
         <v>13190811.5889</v>
       </c>
-      <c r="V4" s="4" t="n">
+      <c r="V4" s="2" t="n">
         <v>9353162.1739</v>
       </c>
-      <c r="W4" s="4" t="n">
+      <c r="W4" s="2" t="n">
         <v>12424697.6521</v>
       </c>
-      <c r="X4" s="4" t="n">
+      <c r="X4" s="2" t="n">
         <v>6891356.4421</v>
       </c>
-      <c r="Y4" s="4" t="n">
+      <c r="Y4" s="2" t="n">
         <v>30732628.4554</v>
       </c>
-      <c r="Z4" s="4" t="n">
+      <c r="Z4" s="2" t="n">
         <v>779060481.6775</v>
       </c>
-      <c r="AA4" s="4" t="n">
+      <c r="AA4" s="2" t="n">
         <v>622602737.5652</v>
       </c>
-      <c r="AB4" s="4" t="n">
+      <c r="AB4" s="2" t="n">
         <v>133128926.8231</v>
       </c>
-      <c r="AC4" s="4" t="n">
+      <c r="AC4" s="2" t="n">
         <v>240385283.0639</v>
       </c>
-      <c r="AD4" s="4" t="n">
+      <c r="AD4" s="2" t="n">
         <v>142486340.3795</v>
       </c>
-      <c r="AE4" s="4" t="n">
+      <c r="AE4" s="2" t="n">
         <v>112310939.1422</v>
       </c>
-      <c r="AF4" s="4" t="n">
+      <c r="AF4" s="2" t="n">
         <v>214627848.477</v>
       </c>
-      <c r="AG4" s="4" t="n">
+      <c r="AG4" s="2" t="n">
         <v>262829316.0867</v>
       </c>
-      <c r="AH4" s="4" t="n">
+      <c r="AH4" s="2" t="n">
         <v>158378389.6945</v>
       </c>
-      <c r="AI4" s="4" t="n">
+      <c r="AI4" s="2" t="n">
         <v>261912967.0421</v>
       </c>
-      <c r="AJ4" s="4" t="n">
+      <c r="AJ4" s="2" t="n">
         <v>364946451.5593</v>
       </c>
-      <c r="AK4" s="4" t="n">
+      <c r="AK4" s="2" t="n">
         <v>252393664.4033</v>
       </c>
-      <c r="AL4" s="4" t="n">
+      <c r="AL4" s="2" t="n">
         <v>359165027.8787</v>
       </c>
-      <c r="AM4" s="4" t="n">
+      <c r="AM4" s="2" t="n">
         <v>549315531.8232</v>
       </c>
-      <c r="AN4" s="4" t="n">
+      <c r="AN4" s="2" t="n">
         <v>178493981.58</v>
       </c>
-      <c r="AO4" s="4" t="n">
+      <c r="AO4" s="2" t="n">
         <v>13190811.5889</v>
       </c>
       <c r="AP4" s="1" t="n">
@@ -1199,85 +1217,85 @@
       <c r="N5" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="4" t="n">
+      <c r="O5" s="2" t="n">
         <v>55548428</v>
       </c>
-      <c r="P5" s="4" t="n">
+      <c r="P5" s="2" t="n">
         <v>46602843</v>
       </c>
-      <c r="Q5" s="4" t="n">
+      <c r="Q5" s="2" t="n">
         <v>176620718.7701</v>
       </c>
-      <c r="R5" s="4" t="n">
+      <c r="R5" s="2" t="n">
         <v>151717973</v>
       </c>
-      <c r="S5" s="4" t="n">
+      <c r="S5" s="2" t="n">
         <v>216775879.7908</v>
       </c>
-      <c r="T5" s="4" t="n">
+      <c r="T5" s="2" t="n">
         <v>218334839.2482</v>
       </c>
-      <c r="U5" s="4" t="n">
+      <c r="U5" s="2" t="n">
         <v>220351549.3255</v>
       </c>
-      <c r="V5" s="4" t="n">
+      <c r="V5" s="2" t="n">
         <v>248036497.5461</v>
       </c>
-      <c r="W5" s="4" t="n">
+      <c r="W5" s="2" t="n">
         <v>192228348.524</v>
       </c>
-      <c r="X5" s="4" t="n">
+      <c r="X5" s="2" t="n">
         <v>350832605.7469</v>
       </c>
-      <c r="Y5" s="4" t="n">
+      <c r="Y5" s="2" t="n">
         <v>494174738.2762</v>
       </c>
-      <c r="Z5" s="4" t="n">
+      <c r="Z5" s="2" t="n">
         <v>273781225.2494</v>
       </c>
-      <c r="AA5" s="4" t="n">
+      <c r="AA5" s="2" t="n">
         <v>228773975.2703</v>
       </c>
-      <c r="AB5" s="4" t="n">
+      <c r="AB5" s="2" t="n">
         <v>185761494.3901</v>
       </c>
-      <c r="AC5" s="4" t="n">
+      <c r="AC5" s="2" t="n">
         <v>178784219.2524</v>
       </c>
-      <c r="AD5" s="4" t="n">
+      <c r="AD5" s="2" t="n">
         <v>117795176.611</v>
       </c>
-      <c r="AE5" s="4" t="n">
+      <c r="AE5" s="2" t="n">
         <v>139050733.7143</v>
       </c>
-      <c r="AF5" s="4" t="n">
+      <c r="AF5" s="2" t="n">
         <v>165241865.5682</v>
       </c>
-      <c r="AG5" s="4" t="n">
+      <c r="AG5" s="2" t="n">
         <v>207110661.2367</v>
       </c>
-      <c r="AH5" s="4" t="n">
+      <c r="AH5" s="2" t="n">
         <v>214198951.286</v>
       </c>
-      <c r="AI5" s="4" t="n">
+      <c r="AI5" s="2" t="n">
         <v>311320067.0807</v>
       </c>
-      <c r="AJ5" s="4" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>320456607.7415</v>
       </c>
-      <c r="AK5" s="4" t="n">
+      <c r="AK5" s="2" t="n">
         <v>251051955.4443</v>
       </c>
-      <c r="AL5" s="4" t="n">
+      <c r="AL5" s="2" t="n">
         <v>247996537.5797</v>
       </c>
-      <c r="AM5" s="4" t="n">
+      <c r="AM5" s="2" t="n">
         <v>229425000.37</v>
       </c>
-      <c r="AN5" s="4" t="n">
+      <c r="AN5" s="2" t="n">
         <v>97436323.7</v>
       </c>
-      <c r="AO5" s="4" t="n">
+      <c r="AO5" s="2" t="n">
         <v>220351549.3255</v>
       </c>
       <c r="AP5" s="1" t="n">
@@ -1352,85 +1370,85 @@
       <c r="N6" t="s">
         <v>54</v>
       </c>
-      <c r="O6" s="4" t="n">
+      <c r="O6" s="2" t="n">
         <v>762279334</v>
       </c>
-      <c r="P6" s="4" t="n">
+      <c r="P6" s="2" t="n">
         <v>951102444</v>
       </c>
-      <c r="Q6" s="4" t="n">
+      <c r="Q6" s="2" t="n">
         <v>1012807159.3203</v>
       </c>
-      <c r="R6" s="4" t="n">
+      <c r="R6" s="2" t="n">
         <v>1427732344</v>
       </c>
-      <c r="S6" s="4" t="n">
+      <c r="S6" s="2" t="n">
         <v>1478262368.8707</v>
       </c>
-      <c r="T6" s="4" t="n">
+      <c r="T6" s="2" t="n">
         <v>2255457700.2099</v>
       </c>
-      <c r="U6" s="4" t="n">
+      <c r="U6" s="2" t="n">
         <v>2252370923.0094</v>
       </c>
-      <c r="V6" s="4" t="n">
+      <c r="V6" s="2" t="n">
         <v>2335660468.0123</v>
       </c>
-      <c r="W6" s="4" t="n">
+      <c r="W6" s="2" t="n">
         <v>2260263854.4786</v>
       </c>
-      <c r="X6" s="4" t="n">
+      <c r="X6" s="2" t="n">
         <v>5412043308.442</v>
       </c>
-      <c r="Y6" s="4" t="n">
+      <c r="Y6" s="2" t="n">
         <v>5540867786.4147</v>
       </c>
-      <c r="Z6" s="4" t="n">
+      <c r="Z6" s="2" t="n">
         <v>4531894935.9344</v>
       </c>
-      <c r="AA6" s="4" t="n">
+      <c r="AA6" s="2" t="n">
         <v>2067692226.1442</v>
       </c>
-      <c r="AB6" s="4" t="n">
+      <c r="AB6" s="2" t="n">
         <v>1481643854.3302</v>
       </c>
-      <c r="AC6" s="4" t="n">
+      <c r="AC6" s="2" t="n">
         <v>1582874093.2068</v>
       </c>
-      <c r="AD6" s="4" t="n">
+      <c r="AD6" s="2" t="n">
         <v>1607347899.7446</v>
       </c>
-      <c r="AE6" s="4" t="n">
+      <c r="AE6" s="2" t="n">
         <v>2046014047.8598</v>
       </c>
-      <c r="AF6" s="4" t="n">
+      <c r="AF6" s="2" t="n">
         <v>1789279890.6398</v>
       </c>
-      <c r="AG6" s="4" t="n">
+      <c r="AG6" s="2" t="n">
         <v>1804154851.5597</v>
       </c>
-      <c r="AH6" s="4" t="n">
+      <c r="AH6" s="2" t="n">
         <v>2005190477.4086</v>
       </c>
-      <c r="AI6" s="4" t="n">
+      <c r="AI6" s="2" t="n">
         <v>1642958221.7768</v>
       </c>
-      <c r="AJ6" s="4" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>1678830439.3199</v>
       </c>
-      <c r="AK6" s="4" t="n">
+      <c r="AK6" s="2" t="n">
         <v>1605594992.564</v>
       </c>
-      <c r="AL6" s="4" t="n">
+      <c r="AL6" s="2" t="n">
         <v>2215150196.7289</v>
       </c>
-      <c r="AM6" s="4" t="n">
+      <c r="AM6" s="2" t="n">
         <v>2347096133.0201</v>
       </c>
-      <c r="AN6" s="4" t="n">
+      <c r="AN6" s="2" t="n">
         <v>1079722623.39</v>
       </c>
-      <c r="AO6" s="4" t="n">
+      <c r="AO6" s="2" t="n">
         <v>2252370923.0094</v>
       </c>
       <c r="AP6" s="1" t="n">
@@ -1505,85 +1523,85 @@
       <c r="N7" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="4" t="n">
+      <c r="O7" s="2" t="n">
         <v>712364401.699</v>
       </c>
-      <c r="P7" s="4" t="n">
+      <c r="P7" s="2" t="n">
         <v>955940479.5809</v>
       </c>
-      <c r="Q7" s="4" t="n">
+      <c r="Q7" s="2" t="n">
         <v>1863155468.2858</v>
       </c>
-      <c r="R7" s="4" t="n">
+      <c r="R7" s="2" t="n">
         <v>2645043514.3177</v>
       </c>
-      <c r="S7" s="4" t="n">
+      <c r="S7" s="2" t="n">
         <v>3886098535.9652</v>
       </c>
-      <c r="T7" s="4" t="n">
+      <c r="T7" s="2" t="n">
         <v>7012579941.1941</v>
       </c>
-      <c r="U7" s="4" t="n">
+      <c r="U7" s="2" t="n">
         <v>5883031480.2044</v>
       </c>
-      <c r="V7" s="4" t="n">
+      <c r="V7" s="2" t="n">
         <v>13626771672.4669</v>
       </c>
-      <c r="W7" s="4" t="n">
+      <c r="W7" s="2" t="n">
         <v>20415258638.2616</v>
       </c>
-      <c r="X7" s="4" t="n">
+      <c r="X7" s="2" t="n">
         <v>14404842131.1878</v>
       </c>
-      <c r="Y7" s="4" t="n">
+      <c r="Y7" s="2" t="n">
         <v>11974865673.599</v>
       </c>
-      <c r="Z7" s="4" t="n">
+      <c r="Z7" s="2" t="n">
         <v>8693033063.2791</v>
       </c>
-      <c r="AA7" s="4" t="n">
+      <c r="AA7" s="2" t="n">
         <v>5239436859.5682</v>
       </c>
-      <c r="AB7" s="4" t="n">
+      <c r="AB7" s="2" t="n">
         <v>3656131126.2301</v>
       </c>
-      <c r="AC7" s="4" t="n">
+      <c r="AC7" s="2" t="n">
         <v>2076017359.0671</v>
       </c>
-      <c r="AD7" s="4" t="n">
+      <c r="AD7" s="2" t="n">
         <v>2631352331.1894</v>
       </c>
-      <c r="AE7" s="4" t="n">
+      <c r="AE7" s="2" t="n">
         <v>2120428559.6654</v>
       </c>
-      <c r="AF7" s="4" t="n">
+      <c r="AF7" s="2" t="n">
         <v>3625511096.826</v>
       </c>
-      <c r="AG7" s="4" t="n">
+      <c r="AG7" s="2" t="n">
         <v>6351492338.4138</v>
       </c>
-      <c r="AH7" s="4" t="n">
+      <c r="AH7" s="2" t="n">
         <v>5314231684.8696</v>
       </c>
-      <c r="AI7" s="4" t="n">
+      <c r="AI7" s="2" t="n">
         <v>5136369521.952</v>
       </c>
-      <c r="AJ7" s="4" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>5596266730.6152</v>
       </c>
-      <c r="AK7" s="4" t="n">
+      <c r="AK7" s="2" t="n">
         <v>6628569115.4678</v>
       </c>
-      <c r="AL7" s="4" t="n">
+      <c r="AL7" s="2" t="n">
         <v>9032366332.7949</v>
       </c>
-      <c r="AM7" s="4" t="n">
+      <c r="AM7" s="2" t="n">
         <v>7917660106.77</v>
       </c>
-      <c r="AN7" s="4" t="n">
+      <c r="AN7" s="2" t="n">
         <v>4797770135.6</v>
       </c>
-      <c r="AO7" s="4" t="n">
+      <c r="AO7" s="2" t="n">
         <v>5883031480.2044</v>
       </c>
       <c r="AP7" s="1" t="n">
@@ -1658,73 +1676,73 @@
       <c r="N8" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="4" t="n">
+      <c r="O8" s="2" t="n">
         <v>100365285</v>
       </c>
-      <c r="P8" s="4" t="n">
+      <c r="P8" s="2" t="n">
         <v>70532967</v>
       </c>
-      <c r="Q8" s="4" t="n">
+      <c r="Q8" s="2" t="n">
         <v>65339216</v>
       </c>
-      <c r="R8" s="4" t="n">
+      <c r="R8" s="2" t="n">
         <v>93513899.3584</v>
       </c>
-      <c r="S8" s="4" t="n">
+      <c r="S8" s="2" t="n">
         <v>68472015.2874</v>
       </c>
-      <c r="T8" s="4" t="n">
+      <c r="T8" s="2" t="n">
         <v>49197900.3704</v>
       </c>
-      <c r="U8" s="4" t="n">
+      <c r="U8" s="2" t="n">
         <v>70476259.987</v>
       </c>
-      <c r="V8" s="4" t="n">
+      <c r="V8" s="2" t="n">
         <v>41497150.8592</v>
       </c>
-      <c r="W8" s="4" t="n">
+      <c r="W8" s="2" t="n">
         <v>22776.8298</v>
       </c>
-      <c r="X8" s="4" t="n">
+      <c r="X8" s="2" t="n">
         <v>-4334.1706</v>
       </c>
-      <c r="Y8" s="4" t="n">
+      <c r="Y8" s="2" t="n">
         <v>139580.4572</v>
       </c>
-      <c r="Z8" s="4" t="n">
+      <c r="Z8" s="2" t="n">
         <v>1370470.1133</v>
       </c>
-      <c r="AA8" s="4" t="n">
+      <c r="AA8" s="2" t="n">
         <v>-5622.2402</v>
       </c>
-      <c r="AB8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="4" t="n">
+      <c r="AB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2" t="n">
         <v>90437.039</v>
       </c>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4" t="n">
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2" t="n">
         <v>315207.2969</v>
       </c>
-      <c r="AK8" s="4" t="n">
+      <c r="AK8" s="2" t="n">
         <v>-186954.5625</v>
       </c>
-      <c r="AL8" s="4" t="n">
+      <c r="AL8" s="2" t="n">
         <v>759.78</v>
       </c>
-      <c r="AM8" s="4" t="n">
+      <c r="AM8" s="2" t="n">
         <v>-70848.04</v>
       </c>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4" t="n">
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2" t="n">
         <v>70476259.987</v>
       </c>
       <c r="AP8" s="1" t="n">
@@ -1783,63 +1801,63 @@
       </c>
       <c r="M9"/>
       <c r="N9"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="4" t="n">
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="n">
         <v>98514</v>
       </c>
-      <c r="AN9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="4" t="n">
+      <c r="AN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AP9" s="1"/>
@@ -1898,85 +1916,85 @@
       <c r="N10" t="s">
         <v>58</v>
       </c>
-      <c r="O10" s="4" t="str">
+      <c r="O10" s="2" t="str">
         <f>Sum(O2:O9)</f>
       </c>
-      <c r="P10" s="4" t="str">
+      <c r="P10" s="2" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="4" t="str">
+      <c r="Q10" s="2" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="4" t="str">
+      <c r="R10" s="2" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="4" t="str">
+      <c r="S10" s="2" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="4" t="str">
+      <c r="T10" s="2" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="4" t="str">
+      <c r="U10" s="2" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="4" t="str">
+      <c r="V10" s="2" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="4" t="str">
+      <c r="W10" s="2" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="4" t="str">
+      <c r="X10" s="2" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="4" t="str">
+      <c r="Y10" s="2" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="4" t="str">
+      <c r="Z10" s="2" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="4" t="str">
+      <c r="AA10" s="2" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="4" t="str">
+      <c r="AB10" s="2" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="4" t="str">
+      <c r="AC10" s="2" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="4" t="str">
+      <c r="AD10" s="2" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="4" t="str">
+      <c r="AE10" s="2" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="4" t="str">
+      <c r="AF10" s="2" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="4" t="str">
+      <c r="AG10" s="2" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="4" t="str">
+      <c r="AH10" s="2" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="4" t="str">
+      <c r="AI10" s="2" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="4" t="str">
+      <c r="AJ10" s="2" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="4" t="str">
+      <c r="AK10" s="2" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="4" t="str">
+      <c r="AL10" s="2" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="4" t="str">
+      <c r="AM10" s="2" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="4" t="str">
+      <c r="AN10" s="2" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="4" t="str">
+      <c r="AO10" s="2" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
       <c r="AP10" s="1" t="str">
@@ -2203,85 +2221,85 @@
       <c r="N14" t="s">
         <v>49</v>
       </c>
-      <c r="O14" s="4" t="n">
+      <c r="O14" s="2" t="n">
         <v>4927741688.20604</v>
       </c>
-      <c r="P14" s="4" t="n">
+      <c r="P14" s="2" t="n">
         <v>3403887587.92503</v>
       </c>
-      <c r="Q14" s="4" t="n">
+      <c r="Q14" s="2" t="n">
         <v>4233176872.39738</v>
       </c>
-      <c r="R14" s="4" t="n">
+      <c r="R14" s="2" t="n">
         <v>9820984232.87341</v>
       </c>
-      <c r="S14" s="4" t="n">
+      <c r="S14" s="2" t="n">
         <v>6043450741.57595</v>
       </c>
-      <c r="T14" s="4" t="n">
+      <c r="T14" s="2" t="n">
         <v>11356627839.064</v>
       </c>
-      <c r="U14" s="4" t="n">
+      <c r="U14" s="2" t="n">
         <v>12776261006.3759</v>
       </c>
-      <c r="V14" s="4" t="n">
+      <c r="V14" s="2" t="n">
         <v>18395431766.1773</v>
       </c>
-      <c r="W14" s="4" t="n">
+      <c r="W14" s="2" t="n">
         <v>24606540771.853</v>
       </c>
-      <c r="X14" s="4" t="n">
+      <c r="X14" s="2" t="n">
         <v>13790318584.7415</v>
       </c>
-      <c r="Y14" s="4" t="n">
+      <c r="Y14" s="2" t="n">
         <v>11277873079.9843</v>
       </c>
-      <c r="Z14" s="4" t="n">
+      <c r="Z14" s="2" t="n">
         <v>8290716340.46435</v>
       </c>
-      <c r="AA14" s="4" t="n">
+      <c r="AA14" s="2" t="n">
         <v>4901340961.48759</v>
       </c>
-      <c r="AB14" s="4" t="n">
+      <c r="AB14" s="2" t="n">
         <v>3723836164.3108</v>
       </c>
-      <c r="AC14" s="4" t="n">
+      <c r="AC14" s="2" t="n">
         <v>3847626488.01747</v>
       </c>
-      <c r="AD14" s="4" t="n">
+      <c r="AD14" s="2" t="n">
         <v>5040203997.24721</v>
       </c>
-      <c r="AE14" s="4" t="n">
+      <c r="AE14" s="2" t="n">
         <v>5449076741.95026</v>
       </c>
-      <c r="AF14" s="4" t="n">
+      <c r="AF14" s="2" t="n">
         <v>4754542609.63421</v>
       </c>
-      <c r="AG14" s="4" t="n">
+      <c r="AG14" s="2" t="n">
         <v>6309977274.91763</v>
       </c>
-      <c r="AH14" s="4" t="n">
+      <c r="AH14" s="2" t="n">
         <v>7542865098.94448</v>
       </c>
-      <c r="AI14" s="4" t="n">
+      <c r="AI14" s="2" t="n">
         <v>6759431899.85415</v>
       </c>
-      <c r="AJ14" s="4" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>3889751354.90092</v>
       </c>
-      <c r="AK14" s="4" t="n">
+      <c r="AK14" s="2" t="n">
         <v>4028932922.49631</v>
       </c>
-      <c r="AL14" s="4" t="n">
+      <c r="AL14" s="2" t="n">
         <v>4816798883.74</v>
       </c>
-      <c r="AM14" s="4" t="n">
+      <c r="AM14" s="2" t="n">
         <v>4727564937.46095</v>
       </c>
-      <c r="AN14" s="4" t="n">
+      <c r="AN14" s="2" t="n">
         <v>1557106392.40923</v>
       </c>
-      <c r="AO14" s="4" t="n">
+      <c r="AO14" s="2" t="n">
         <v>12776261006.3759</v>
       </c>
       <c r="AP14" s="1" t="n">
@@ -2356,85 +2374,85 @@
       <c r="N15" t="s">
         <v>50</v>
       </c>
-      <c r="O15" s="4" t="n">
+      <c r="O15" s="2" t="n">
         <v>247079137.436434</v>
       </c>
-      <c r="P15" s="4" t="n">
+      <c r="P15" s="2" t="n">
         <v>253499402.026063</v>
       </c>
-      <c r="Q15" s="4" t="n">
+      <c r="Q15" s="2" t="n">
         <v>363619524.444626</v>
       </c>
-      <c r="R15" s="4" t="n">
+      <c r="R15" s="2" t="n">
         <v>583387474.731696</v>
       </c>
-      <c r="S15" s="4" t="n">
+      <c r="S15" s="2" t="n">
         <v>763263454.126832</v>
       </c>
-      <c r="T15" s="4" t="n">
+      <c r="T15" s="2" t="n">
         <v>1590057903.16178</v>
       </c>
-      <c r="U15" s="4" t="n">
+      <c r="U15" s="2" t="n">
         <v>1602358471.37868</v>
       </c>
-      <c r="V15" s="4" t="n">
+      <c r="V15" s="2" t="n">
         <v>888828935.088843</v>
       </c>
-      <c r="W15" s="4" t="n">
+      <c r="W15" s="2" t="n">
         <v>1047512121.23476</v>
       </c>
-      <c r="X15" s="4" t="n">
+      <c r="X15" s="2" t="n">
         <v>1143061318.00164</v>
       </c>
-      <c r="Y15" s="4" t="n">
+      <c r="Y15" s="2" t="n">
         <v>1161632388.61217</v>
       </c>
-      <c r="Z15" s="4" t="n">
+      <c r="Z15" s="2" t="n">
         <v>1220158884.57299</v>
       </c>
-      <c r="AA15" s="4" t="n">
+      <c r="AA15" s="2" t="n">
         <v>971909504.048712</v>
       </c>
-      <c r="AB15" s="4" t="n">
+      <c r="AB15" s="2" t="n">
         <v>767864938.832819</v>
       </c>
-      <c r="AC15" s="4" t="n">
+      <c r="AC15" s="2" t="n">
         <v>845505951.526263</v>
       </c>
-      <c r="AD15" s="4" t="n">
+      <c r="AD15" s="2" t="n">
         <v>1003501782.10914</v>
       </c>
-      <c r="AE15" s="4" t="n">
+      <c r="AE15" s="2" t="n">
         <v>914835422.883214</v>
       </c>
-      <c r="AF15" s="4" t="n">
+      <c r="AF15" s="2" t="n">
         <v>913093373.965936</v>
       </c>
-      <c r="AG15" s="4" t="n">
+      <c r="AG15" s="2" t="n">
         <v>1451745468.99375</v>
       </c>
-      <c r="AH15" s="4" t="n">
+      <c r="AH15" s="2" t="n">
         <v>1195297140.11259</v>
       </c>
-      <c r="AI15" s="4" t="n">
+      <c r="AI15" s="2" t="n">
         <v>998808105.244761</v>
       </c>
-      <c r="AJ15" s="4" t="n">
+      <c r="AJ15" s="2" t="n">
         <v>666682520.617008</v>
       </c>
-      <c r="AK15" s="4" t="n">
+      <c r="AK15" s="2" t="n">
         <v>715650000.872989</v>
       </c>
-      <c r="AL15" s="4" t="n">
+      <c r="AL15" s="2" t="n">
         <v>746173610.93</v>
       </c>
-      <c r="AM15" s="4" t="n">
+      <c r="AM15" s="2" t="n">
         <v>844730736.118001</v>
       </c>
-      <c r="AN15" s="4" t="n">
+      <c r="AN15" s="2" t="n">
         <v>369756603.952213</v>
       </c>
-      <c r="AO15" s="4" t="n">
+      <c r="AO15" s="2" t="n">
         <v>1602358471.37868</v>
       </c>
       <c r="AP15" s="1" t="n">
@@ -2509,85 +2527,85 @@
       <c r="N16" t="s">
         <v>52</v>
       </c>
-      <c r="O16" s="4" t="n">
+      <c r="O16" s="2" t="n">
         <v>1795493.18199038</v>
       </c>
-      <c r="P16" s="4" t="n">
+      <c r="P16" s="2" t="n">
         <v>6359277.00813111</v>
       </c>
-      <c r="Q16" s="4" t="n">
+      <c r="Q16" s="2" t="n">
         <v>9081076.07578219</v>
       </c>
-      <c r="R16" s="4" t="n">
+      <c r="R16" s="2" t="n">
         <v>20119211.3372667</v>
       </c>
-      <c r="S16" s="4" t="n">
+      <c r="S16" s="2" t="n">
         <v>285631822.50476</v>
       </c>
-      <c r="T16" s="4" t="n">
+      <c r="T16" s="2" t="n">
         <v>44201602.955289</v>
       </c>
-      <c r="U16" s="4" t="n">
+      <c r="U16" s="2" t="n">
         <v>19189636.1579341</v>
       </c>
-      <c r="V16" s="4" t="n">
+      <c r="V16" s="2" t="n">
         <v>13242177.0684446</v>
       </c>
-      <c r="W16" s="4" t="n">
+      <c r="W16" s="2" t="n">
         <v>17233073.9890695</v>
       </c>
-      <c r="X16" s="4" t="n">
+      <c r="X16" s="2" t="n">
         <v>9461566.53250568</v>
       </c>
-      <c r="Y16" s="4" t="n">
+      <c r="Y16" s="2" t="n">
         <v>41832425.8940192</v>
       </c>
-      <c r="Z16" s="4" t="n">
+      <c r="Z16" s="2" t="n">
         <v>1039570540.6562</v>
       </c>
-      <c r="AA16" s="4" t="n">
+      <c r="AA16" s="2" t="n">
         <v>815987934.332259</v>
       </c>
-      <c r="AB16" s="4" t="n">
+      <c r="AB16" s="2" t="n">
         <v>171370326.813648</v>
       </c>
-      <c r="AC16" s="4" t="n">
+      <c r="AC16" s="2" t="n">
         <v>303892206.96119</v>
       </c>
-      <c r="AD16" s="4" t="n">
+      <c r="AD16" s="2" t="n">
         <v>178283185.422681</v>
       </c>
-      <c r="AE16" s="4" t="n">
+      <c r="AE16" s="2" t="n">
         <v>139412206.090625</v>
       </c>
-      <c r="AF16" s="4" t="n">
+      <c r="AF16" s="2" t="n">
         <v>261996214.686203</v>
       </c>
-      <c r="AG16" s="4" t="n">
+      <c r="AG16" s="2" t="n">
         <v>313867879.12107</v>
       </c>
-      <c r="AH16" s="4" t="n">
+      <c r="AH16" s="2" t="n">
         <v>185700221.284735</v>
       </c>
-      <c r="AI16" s="4" t="n">
+      <c r="AI16" s="2" t="n">
         <v>303135639.348517</v>
       </c>
-      <c r="AJ16" s="4" t="n">
+      <c r="AJ16" s="2" t="n">
         <v>408331927.972304</v>
       </c>
-      <c r="AK16" s="4" t="n">
+      <c r="AK16" s="2" t="n">
         <v>263939815.078308</v>
       </c>
-      <c r="AL16" s="4" t="n">
+      <c r="AL16" s="2" t="n">
         <v>359165027.8787</v>
       </c>
-      <c r="AM16" s="4" t="n">
+      <c r="AM16" s="2" t="n">
         <v>535027104.39359</v>
       </c>
-      <c r="AN16" s="4" t="n">
+      <c r="AN16" s="2" t="n">
         <v>170118366.117144</v>
       </c>
-      <c r="AO16" s="4" t="n">
+      <c r="AO16" s="2" t="n">
         <v>19189636.1579341</v>
       </c>
       <c r="AP16" s="1" t="n">
@@ -2662,85 +2680,85 @@
       <c r="N17" t="s">
         <v>53</v>
       </c>
-      <c r="O17" s="4" t="n">
+      <c r="O17" s="2" t="n">
         <v>93386539.086408</v>
       </c>
-      <c r="P17" s="4" t="n">
+      <c r="P17" s="2" t="n">
         <v>76493331.2060949</v>
       </c>
-      <c r="Q17" s="4" t="n">
+      <c r="Q17" s="2" t="n">
         <v>285412909.014814</v>
       </c>
-      <c r="R17" s="4" t="n">
+      <c r="R17" s="2" t="n">
         <v>240553486.847734</v>
       </c>
-      <c r="S17" s="4" t="n">
+      <c r="S17" s="2" t="n">
         <v>335512002.62724</v>
       </c>
-      <c r="T17" s="4" t="n">
+      <c r="T17" s="2" t="n">
         <v>327945537.608357</v>
       </c>
-      <c r="U17" s="4" t="n">
+      <c r="U17" s="2" t="n">
         <v>320561477.957251</v>
       </c>
-      <c r="V17" s="4" t="n">
+      <c r="V17" s="2" t="n">
         <v>351169279.31687</v>
       </c>
-      <c r="W17" s="4" t="n">
+      <c r="W17" s="2" t="n">
         <v>266621003.23631</v>
       </c>
-      <c r="X17" s="4" t="n">
+      <c r="X17" s="2" t="n">
         <v>481679632.875745</v>
       </c>
-      <c r="Y17" s="4" t="n">
+      <c r="Y17" s="2" t="n">
         <v>672657340.312951</v>
       </c>
-      <c r="Z17" s="4" t="n">
+      <c r="Z17" s="2" t="n">
         <v>365330937.774166</v>
       </c>
-      <c r="AA17" s="4" t="n">
+      <c r="AA17" s="2" t="n">
         <v>299832930.770309</v>
       </c>
-      <c r="AB17" s="4" t="n">
+      <c r="AB17" s="2" t="n">
         <v>239121645.180268</v>
       </c>
-      <c r="AC17" s="4" t="n">
+      <c r="AC17" s="2" t="n">
         <v>226016877.014899</v>
       </c>
-      <c r="AD17" s="4" t="n">
+      <c r="AD17" s="2" t="n">
         <v>147388860.277429</v>
       </c>
-      <c r="AE17" s="4" t="n">
+      <c r="AE17" s="2" t="n">
         <v>172604464.833886</v>
       </c>
-      <c r="AF17" s="4" t="n">
+      <c r="AF17" s="2" t="n">
         <v>201710745.33785</v>
       </c>
-      <c r="AG17" s="4" t="n">
+      <c r="AG17" s="2" t="n">
         <v>247329274.198172</v>
       </c>
-      <c r="AH17" s="4" t="n">
+      <c r="AH17" s="2" t="n">
         <v>251150379.350963</v>
       </c>
-      <c r="AI17" s="4" t="n">
+      <c r="AI17" s="2" t="n">
         <v>360318958.783594</v>
       </c>
-      <c r="AJ17" s="4" t="n">
+      <c r="AJ17" s="2" t="n">
         <v>358553053.225917</v>
       </c>
-      <c r="AK17" s="4" t="n">
+      <c r="AK17" s="2" t="n">
         <v>262536727.50333</v>
       </c>
-      <c r="AL17" s="4" t="n">
+      <c r="AL17" s="2" t="n">
         <v>247996537.5797</v>
       </c>
-      <c r="AM17" s="4" t="n">
+      <c r="AM17" s="2" t="n">
         <v>223457351.034754</v>
       </c>
-      <c r="AN17" s="4" t="n">
+      <c r="AN17" s="2" t="n">
         <v>92864241.3686984</v>
       </c>
-      <c r="AO17" s="4" t="n">
+      <c r="AO17" s="2" t="n">
         <v>320561477.957251</v>
       </c>
       <c r="AP17" s="1" t="n">
@@ -2815,85 +2833,85 @@
       <c r="N18" t="s">
         <v>54</v>
       </c>
-      <c r="O18" s="4" t="n">
+      <c r="O18" s="2" t="n">
         <v>1281523733.1172</v>
       </c>
-      <c r="P18" s="4" t="n">
+      <c r="P18" s="2" t="n">
         <v>1561127810.58912</v>
       </c>
-      <c r="Q18" s="4" t="n">
+      <c r="Q18" s="2" t="n">
         <v>1636660974.0101</v>
       </c>
-      <c r="R18" s="4" t="n">
+      <c r="R18" s="2" t="n">
         <v>2263713302.0126</v>
       </c>
-      <c r="S18" s="4" t="n">
+      <c r="S18" s="2" t="n">
         <v>2287961041.91545</v>
       </c>
-      <c r="T18" s="4" t="n">
+      <c r="T18" s="2" t="n">
         <v>3387765739.06009</v>
       </c>
-      <c r="U18" s="4" t="n">
+      <c r="U18" s="2" t="n">
         <v>3276688338.23931</v>
       </c>
-      <c r="V18" s="4" t="n">
+      <c r="V18" s="2" t="n">
         <v>3306820614.68933</v>
       </c>
-      <c r="W18" s="4" t="n">
+      <c r="W18" s="2" t="n">
         <v>3134989303.53976</v>
       </c>
-      <c r="X18" s="4" t="n">
+      <c r="X18" s="2" t="n">
         <v>7430526670.59869</v>
       </c>
-      <c r="Y18" s="4" t="n">
+      <c r="Y18" s="2" t="n">
         <v>7542079955.84003</v>
       </c>
-      <c r="Z18" s="4" t="n">
+      <c r="Z18" s="2" t="n">
         <v>6047315426.14257</v>
       </c>
-      <c r="AA18" s="4" t="n">
+      <c r="AA18" s="2" t="n">
         <v>2709933327.70174</v>
       </c>
-      <c r="AB18" s="4" t="n">
+      <c r="AB18" s="2" t="n">
         <v>1907247339.83165</v>
       </c>
-      <c r="AC18" s="4" t="n">
+      <c r="AC18" s="2" t="n">
         <v>2001050544.33985</v>
       </c>
-      <c r="AD18" s="4" t="n">
+      <c r="AD18" s="2" t="n">
         <v>2011161932.33462</v>
       </c>
-      <c r="AE18" s="4" t="n">
+      <c r="AE18" s="2" t="n">
         <v>2539728848.17029</v>
       </c>
-      <c r="AF18" s="4" t="n">
+      <c r="AF18" s="2" t="n">
         <v>2184173962.92358</v>
       </c>
-      <c r="AG18" s="4" t="n">
+      <c r="AG18" s="2" t="n">
         <v>2154501884.70694</v>
       </c>
-      <c r="AH18" s="4" t="n">
+      <c r="AH18" s="2" t="n">
         <v>2351105577.54175</v>
       </c>
-      <c r="AI18" s="4" t="n">
+      <c r="AI18" s="2" t="n">
         <v>1901544610.81401</v>
       </c>
-      <c r="AJ18" s="4" t="n">
+      <c r="AJ18" s="2" t="n">
         <v>1878412756.43886</v>
       </c>
-      <c r="AK18" s="4" t="n">
+      <c r="AK18" s="2" t="n">
         <v>1679045495.97109</v>
       </c>
-      <c r="AL18" s="4" t="n">
+      <c r="AL18" s="2" t="n">
         <v>2215150196.7289</v>
       </c>
-      <c r="AM18" s="4" t="n">
+      <c r="AM18" s="2" t="n">
         <v>2286045041.57241</v>
       </c>
-      <c r="AN18" s="4" t="n">
+      <c r="AN18" s="2" t="n">
         <v>1029057937.55572</v>
       </c>
-      <c r="AO18" s="4" t="n">
+      <c r="AO18" s="2" t="n">
         <v>3276688338.23931</v>
       </c>
       <c r="AP18" s="1" t="n">
@@ -2968,85 +2986,85 @@
       <c r="N19" t="s">
         <v>55</v>
       </c>
-      <c r="O19" s="4" t="n">
+      <c r="O19" s="2" t="n">
         <v>1197608077.10039</v>
       </c>
-      <c r="P19" s="4" t="n">
+      <c r="P19" s="2" t="n">
         <v>1569068902.46792</v>
       </c>
-      <c r="Q19" s="4" t="n">
+      <c r="Q19" s="2" t="n">
         <v>3010794123.4374</v>
       </c>
-      <c r="R19" s="4" t="n">
+      <c r="R19" s="2" t="n">
         <v>4193797396.91822</v>
       </c>
-      <c r="S19" s="4" t="n">
+      <c r="S19" s="2" t="n">
         <v>6014657643.03084</v>
       </c>
-      <c r="T19" s="4" t="n">
+      <c r="T19" s="2" t="n">
         <v>10533107344.4589</v>
       </c>
-      <c r="U19" s="4" t="n">
+      <c r="U19" s="2" t="n">
         <v>8558475181.7541</v>
       </c>
-      <c r="V19" s="4" t="n">
+      <c r="V19" s="2" t="n">
         <v>19292739717.6553</v>
       </c>
-      <c r="W19" s="4" t="n">
+      <c r="W19" s="2" t="n">
         <v>28315993875.2866</v>
       </c>
-      <c r="X19" s="4" t="n">
+      <c r="X19" s="2" t="n">
         <v>19777292519.924</v>
       </c>
-      <c r="Y19" s="4" t="n">
+      <c r="Y19" s="2" t="n">
         <v>16299864543.27</v>
       </c>
-      <c r="Z19" s="4" t="n">
+      <c r="Z19" s="2" t="n">
         <v>11599896662.8065</v>
       </c>
-      <c r="AA19" s="4" t="n">
+      <c r="AA19" s="2" t="n">
         <v>6866846228.17874</v>
       </c>
-      <c r="AB19" s="4" t="n">
+      <c r="AB19" s="2" t="n">
         <v>4706357971.38333</v>
       </c>
-      <c r="AC19" s="4" t="n">
+      <c r="AC19" s="2" t="n">
         <v>2624476377.65303</v>
       </c>
-      <c r="AD19" s="4" t="n">
+      <c r="AD19" s="2" t="n">
         <v>3292427009.6654</v>
       </c>
-      <c r="AE19" s="4" t="n">
+      <c r="AE19" s="2" t="n">
         <v>2632100003.95629</v>
       </c>
-      <c r="AF19" s="4" t="n">
+      <c r="AF19" s="2" t="n">
         <v>4425661396.74567</v>
       </c>
-      <c r="AG19" s="4" t="n">
+      <c r="AG19" s="2" t="n">
         <v>7584882307.6268</v>
       </c>
-      <c r="AH19" s="4" t="n">
+      <c r="AH19" s="2" t="n">
         <v>6230988973.57272</v>
       </c>
-      <c r="AI19" s="4" t="n">
+      <c r="AI19" s="2" t="n">
         <v>5944786455.40632</v>
       </c>
-      <c r="AJ19" s="4" t="n">
+      <c r="AJ19" s="2" t="n">
         <v>6261560768.15028</v>
       </c>
-      <c r="AK19" s="4" t="n">
+      <c r="AK19" s="2" t="n">
         <v>6931803580.35754</v>
       </c>
-      <c r="AL19" s="4" t="n">
+      <c r="AL19" s="2" t="n">
         <v>9032366332.7949</v>
       </c>
-      <c r="AM19" s="4" t="n">
+      <c r="AM19" s="2" t="n">
         <v>7711711238.96279</v>
       </c>
-      <c r="AN19" s="4" t="n">
+      <c r="AN19" s="2" t="n">
         <v>4572640540.86937</v>
       </c>
-      <c r="AO19" s="4" t="n">
+      <c r="AO19" s="2" t="n">
         <v>8558475181.7541</v>
       </c>
       <c r="AP19" s="1" t="n">
@@ -3121,73 +3139,73 @@
       <c r="N20" t="s">
         <v>56</v>
       </c>
-      <c r="O20" s="4" t="n">
+      <c r="O20" s="2" t="n">
         <v>168731446.559945</v>
       </c>
-      <c r="P20" s="4" t="n">
+      <c r="P20" s="2" t="n">
         <v>115771941.331553</v>
       </c>
-      <c r="Q20" s="4" t="n">
+      <c r="Q20" s="2" t="n">
         <v>105585889.589666</v>
       </c>
-      <c r="R20" s="4" t="n">
+      <c r="R20" s="2" t="n">
         <v>148269147.778498</v>
       </c>
-      <c r="S20" s="4" t="n">
+      <c r="S20" s="2" t="n">
         <v>105976656.605748</v>
       </c>
-      <c r="T20" s="4" t="n">
+      <c r="T20" s="2" t="n">
         <v>73896735.5907502</v>
       </c>
-      <c r="U20" s="4" t="n">
+      <c r="U20" s="2" t="n">
         <v>102526958.088049</v>
       </c>
-      <c r="V20" s="4" t="n">
+      <c r="V20" s="2" t="n">
         <v>58751533.3634328</v>
       </c>
-      <c r="W20" s="4" t="n">
+      <c r="W20" s="2" t="n">
         <v>31591.4965635804</v>
       </c>
-      <c r="X20" s="4" t="n">
+      <c r="X20" s="2" t="n">
         <v>-5950.64902529315</v>
       </c>
-      <c r="Y20" s="4" t="n">
+      <c r="Y20" s="2" t="n">
         <v>189993.157941112</v>
       </c>
-      <c r="Z20" s="4" t="n">
+      <c r="Z20" s="2" t="n">
         <v>1828741.65760369</v>
       </c>
-      <c r="AA20" s="4" t="n">
+      <c r="AA20" s="2" t="n">
         <v>-7368.55122908507</v>
       </c>
-      <c r="AB20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="4" t="n">
+      <c r="AB20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="2" t="n">
         <v>107998.917501105</v>
       </c>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4" t="n">
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2" t="n">
         <v>352679.695073571</v>
       </c>
-      <c r="AK20" s="4" t="n">
+      <c r="AK20" s="2" t="n">
         <v>-195507.097101487</v>
       </c>
-      <c r="AL20" s="4" t="n">
+      <c r="AL20" s="2" t="n">
         <v>759.78</v>
       </c>
-      <c r="AM20" s="4" t="n">
+      <c r="AM20" s="2" t="n">
         <v>-69005.1882701204</v>
       </c>
-      <c r="AN20" s="4"/>
-      <c r="AO20" s="4" t="n">
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2" t="n">
         <v>102526958.088049</v>
       </c>
       <c r="AP20" s="1" t="n">
@@ -3246,63 +3264,63 @@
       </c>
       <c r="M21"/>
       <c r="N21"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="4" t="n">
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="2" t="n">
         <v>95951.5198619841</v>
       </c>
-      <c r="AN21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="4" t="n">
+      <c r="AN21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AP21" s="1"/>
@@ -3355,33 +3373,33 @@
       <c r="B22" t="str">
         <f>N22</f>
       </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
-      <c r="AO22" s="4"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>
@@ -3525,1824 +3543,83 @@
       <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="3" t="n">
         <v>2931132335</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="3" t="n">
         <v>2073786516.4</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="3" t="n">
         <v>2619596795.62</v>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="S2" s="3" t="n">
         <v>6194131044.21</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="3" t="n">
         <v>3904701892.09</v>
       </c>
-      <c r="U2" s="2" t="n">
+      <c r="U2" s="3" t="n">
         <v>7560851511.28</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="3" t="n">
         <v>8782305738.3</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="3" t="n">
         <v>12992988666.34</v>
       </c>
-      <c r="X2" s="2" t="n">
+      <c r="X2" s="3" t="n">
         <v>17740818007.76</v>
       </c>
-      <c r="Y2" s="2" t="n">
+      <c r="Y2" s="3" t="n">
         <v>10044214189.17</v>
       </c>
-      <c r="Z2" s="2" t="n">
+      <c r="Z2" s="3" t="n">
         <v>8285407210.4833</v>
       </c>
-      <c r="AA2" s="2" t="n">
+      <c r="AA2" s="3" t="n">
         <v>6213113216.5179</v>
       </c>
-      <c r="AB2" s="2" t="n">
+      <c r="AB2" s="3" t="n">
         <v>3739746841.7959</v>
       </c>
-      <c r="AC2" s="2" t="n">
+      <c r="AC2" s="3" t="n">
         <v>2892859700.0275</v>
       </c>
-      <c r="AD2" s="2" t="n">
+      <c r="AD2" s="3" t="n">
         <v>3043555449.1345</v>
       </c>
-      <c r="AE2" s="2" t="n">
+      <c r="AE2" s="3" t="n">
         <v>4028199410.0074</v>
       </c>
-      <c r="AF2" s="2" t="n">
+      <c r="AF2" s="3" t="n">
         <v>4389794434.1296</v>
       </c>
-      <c r="AG2" s="2" t="n">
+      <c r="AG2" s="3" t="n">
         <v>3894931276.0882</v>
       </c>
-      <c r="AH2" s="2" t="n">
+      <c r="AH2" s="3" t="n">
         <v>5283901673.32</v>
       </c>
-      <c r="AI2" s="2" t="n">
+      <c r="AI2" s="3" t="n">
         <v>6433093185.29</v>
       </c>
-      <c r="AJ2" s="2" t="n">
+      <c r="AJ2" s="3" t="n">
         <v>5840233329.92</v>
       </c>
-      <c r="AK2" s="2" t="n">
+      <c r="AK2" s="3" t="n">
         <v>3476463281.89</v>
       </c>
-      <c r="AL2" s="2" t="n">
+      <c r="AL2" s="3" t="n">
         <v>3852685672.46</v>
       </c>
-      <c r="AM2" s="2" t="n">
+      <c r="AM2" s="3" t="n">
         <v>4816798883.74</v>
       </c>
-      <c r="AN2" s="2" t="n">
+      <c r="AN2" s="3" t="n">
         <v>4853819229.95</v>
       </c>
-      <c r="AO2" s="2" t="n">
+      <c r="AO2" s="3" t="n">
         <v>1633769040.16</v>
-      </c>
-      <c r="AP2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <f>N3</f>
-      </c>
-      <c r="B3" t="str">
-        <f>O3</f>
-      </c>
-      <c r="N3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>146968265.5601</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>154442127.79</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>225016948.21</v>
-      </c>
-      <c r="S3" s="2" t="n">
-        <v>367944635.93</v>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>493148100.47</v>
-      </c>
-      <c r="U3" s="2" t="n">
-        <v>1058605764.89</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>1101449163.49</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>627794140.78</v>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>755235044.05</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>832551665.78</v>
-      </c>
-      <c r="Z3" s="2" t="n">
-        <v>853405362.8977</v>
-      </c>
-      <c r="AA3" s="2" t="n">
-        <v>914394484.2247</v>
-      </c>
-      <c r="AB3" s="2" t="n">
-        <v>741571648.8278</v>
-      </c>
-      <c r="AC3" s="2" t="n">
-        <v>596515377.8522</v>
-      </c>
-      <c r="AD3" s="2" t="n">
-        <v>668813424.083</v>
-      </c>
-      <c r="AE3" s="2" t="n">
-        <v>802012237.7668</v>
-      </c>
-      <c r="AF3" s="2" t="n">
-        <v>736994474.0547</v>
-      </c>
-      <c r="AG3" s="2" t="n">
-        <v>748008006.7097</v>
-      </c>
-      <c r="AH3" s="2" t="n">
-        <v>1215674792.26</v>
-      </c>
-      <c r="AI3" s="2" t="n">
-        <v>1019434629.36</v>
-      </c>
-      <c r="AJ3" s="2" t="n">
-        <v>862982640.09</v>
-      </c>
-      <c r="AK3" s="2" t="n">
-        <v>595847161.46</v>
-      </c>
-      <c r="AL3" s="2" t="n">
-        <v>684343611.05</v>
-      </c>
-      <c r="AM3" s="2" t="n">
-        <v>746173610.93</v>
-      </c>
-      <c r="AN3" s="2" t="n">
-        <v>867290105.02</v>
-      </c>
-      <c r="AO3" s="2" t="n">
-        <v>387961217.6</v>
-      </c>
-      <c r="AP3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <f>N4</f>
-      </c>
-      <c r="B4" t="str">
-        <f>O4</f>
-      </c>
-      <c r="N4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>1068000</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>3874329.74</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>5619599.3</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>12689260.9309</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>184548061.2761</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>29427904.2372</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>13190811.5889</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>9353162.1739</v>
-      </c>
-      <c r="X4" s="2" t="n">
-        <v>12424697.6521</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>6891356.4421</v>
-      </c>
-      <c r="Z4" s="2" t="n">
-        <v>30732628.4554</v>
-      </c>
-      <c r="AA4" s="2" t="n">
-        <v>779060481.6775</v>
-      </c>
-      <c r="AB4" s="2" t="n">
-        <v>622602737.5652</v>
-      </c>
-      <c r="AC4" s="2" t="n">
-        <v>133128926.8231</v>
-      </c>
-      <c r="AD4" s="2" t="n">
-        <v>240385283.0639</v>
-      </c>
-      <c r="AE4" s="2" t="n">
-        <v>142486340.3795</v>
-      </c>
-      <c r="AF4" s="2" t="n">
-        <v>112310939.1422</v>
-      </c>
-      <c r="AG4" s="2" t="n">
-        <v>214627848.477</v>
-      </c>
-      <c r="AH4" s="2" t="n">
-        <v>262829316.0867</v>
-      </c>
-      <c r="AI4" s="2" t="n">
-        <v>158378389.6945</v>
-      </c>
-      <c r="AJ4" s="2" t="n">
-        <v>261912967.0421</v>
-      </c>
-      <c r="AK4" s="2" t="n">
-        <v>364946451.5593</v>
-      </c>
-      <c r="AL4" s="2" t="n">
-        <v>252393664.4033</v>
-      </c>
-      <c r="AM4" s="2" t="n">
-        <v>359165027.8787</v>
-      </c>
-      <c r="AN4" s="2" t="n">
-        <v>549315531.8232</v>
-      </c>
-      <c r="AO4" s="2" t="n">
-        <v>178493981.58</v>
-      </c>
-      <c r="AP4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <f>N5</f>
-      </c>
-      <c r="B5" t="str">
-        <f>O5</f>
-      </c>
-      <c r="N5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>55548428</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>46602843</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>176620718.7701</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>151717973</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>216775879.7908</v>
-      </c>
-      <c r="U5" s="2" t="n">
-        <v>218334839.2482</v>
-      </c>
-      <c r="V5" s="2" t="n">
-        <v>220351549.3255</v>
-      </c>
-      <c r="W5" s="2" t="n">
-        <v>248036497.5461</v>
-      </c>
-      <c r="X5" s="2" t="n">
-        <v>192228348.524</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>350832605.7469</v>
-      </c>
-      <c r="Z5" s="2" t="n">
-        <v>494174738.2762</v>
-      </c>
-      <c r="AA5" s="2" t="n">
-        <v>273781225.2494</v>
-      </c>
-      <c r="AB5" s="2" t="n">
-        <v>228773975.2703</v>
-      </c>
-      <c r="AC5" s="2" t="n">
-        <v>185761494.3901</v>
-      </c>
-      <c r="AD5" s="2" t="n">
-        <v>178784219.2524</v>
-      </c>
-      <c r="AE5" s="2" t="n">
-        <v>117795176.611</v>
-      </c>
-      <c r="AF5" s="2" t="n">
-        <v>139050733.7143</v>
-      </c>
-      <c r="AG5" s="2" t="n">
-        <v>165241865.5682</v>
-      </c>
-      <c r="AH5" s="2" t="n">
-        <v>207110661.2367</v>
-      </c>
-      <c r="AI5" s="2" t="n">
-        <v>214198951.286</v>
-      </c>
-      <c r="AJ5" s="2" t="n">
-        <v>311320067.0807</v>
-      </c>
-      <c r="AK5" s="2" t="n">
-        <v>320456607.7415</v>
-      </c>
-      <c r="AL5" s="2" t="n">
-        <v>251051955.4443</v>
-      </c>
-      <c r="AM5" s="2" t="n">
-        <v>247996537.5797</v>
-      </c>
-      <c r="AN5" s="2" t="n">
-        <v>229425000.37</v>
-      </c>
-      <c r="AO5" s="2" t="n">
-        <v>97436323.7</v>
-      </c>
-      <c r="AP5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <f>N6</f>
-      </c>
-      <c r="B6" t="str">
-        <f>O6</f>
-      </c>
-      <c r="N6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>762279334</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>951102444</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>1012807159.3203</v>
-      </c>
-      <c r="S6" s="2" t="n">
-        <v>1427732344</v>
-      </c>
-      <c r="T6" s="2" t="n">
-        <v>1478262368.8707</v>
-      </c>
-      <c r="U6" s="2" t="n">
-        <v>2255457700.2099</v>
-      </c>
-      <c r="V6" s="2" t="n">
-        <v>2252370923.0094</v>
-      </c>
-      <c r="W6" s="2" t="n">
-        <v>2335660468.0123</v>
-      </c>
-      <c r="X6" s="2" t="n">
-        <v>2260263854.4786</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>5412043308.442</v>
-      </c>
-      <c r="Z6" s="2" t="n">
-        <v>5540867786.4147</v>
-      </c>
-      <c r="AA6" s="2" t="n">
-        <v>4531894935.9344</v>
-      </c>
-      <c r="AB6" s="2" t="n">
-        <v>2067692226.1442</v>
-      </c>
-      <c r="AC6" s="2" t="n">
-        <v>1481643854.3302</v>
-      </c>
-      <c r="AD6" s="2" t="n">
-        <v>1582874093.2068</v>
-      </c>
-      <c r="AE6" s="2" t="n">
-        <v>1607347899.7446</v>
-      </c>
-      <c r="AF6" s="2" t="n">
-        <v>2046014047.8598</v>
-      </c>
-      <c r="AG6" s="2" t="n">
-        <v>1789279890.6398</v>
-      </c>
-      <c r="AH6" s="2" t="n">
-        <v>1804154851.5597</v>
-      </c>
-      <c r="AI6" s="2" t="n">
-        <v>2005190477.4086</v>
-      </c>
-      <c r="AJ6" s="2" t="n">
-        <v>1642958221.7768</v>
-      </c>
-      <c r="AK6" s="2" t="n">
-        <v>1678830439.3199</v>
-      </c>
-      <c r="AL6" s="2" t="n">
-        <v>1605594992.564</v>
-      </c>
-      <c r="AM6" s="2" t="n">
-        <v>2215150196.7289</v>
-      </c>
-      <c r="AN6" s="2" t="n">
-        <v>2347096133.0201</v>
-      </c>
-      <c r="AO6" s="2" t="n">
-        <v>1079722623.39</v>
-      </c>
-      <c r="AP6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <f>N7</f>
-      </c>
-      <c r="B7" t="str">
-        <f>O7</f>
-      </c>
-      <c r="N7" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>712364401.699</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>955940479.5809</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>1863155468.2858</v>
-      </c>
-      <c r="S7" s="2" t="n">
-        <v>2645043514.3177</v>
-      </c>
-      <c r="T7" s="2" t="n">
-        <v>3886098535.9652</v>
-      </c>
-      <c r="U7" s="2" t="n">
-        <v>7012579941.1941</v>
-      </c>
-      <c r="V7" s="2" t="n">
-        <v>5883031480.2044</v>
-      </c>
-      <c r="W7" s="2" t="n">
-        <v>13626771672.4669</v>
-      </c>
-      <c r="X7" s="2" t="n">
-        <v>20415258638.2616</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>14404842131.1878</v>
-      </c>
-      <c r="Z7" s="2" t="n">
-        <v>11974865673.599</v>
-      </c>
-      <c r="AA7" s="2" t="n">
-        <v>8693033063.2791</v>
-      </c>
-      <c r="AB7" s="2" t="n">
-        <v>5239436859.5682</v>
-      </c>
-      <c r="AC7" s="2" t="n">
-        <v>3656131126.2301</v>
-      </c>
-      <c r="AD7" s="2" t="n">
-        <v>2076017359.0671</v>
-      </c>
-      <c r="AE7" s="2" t="n">
-        <v>2631352331.1894</v>
-      </c>
-      <c r="AF7" s="2" t="n">
-        <v>2120428559.6654</v>
-      </c>
-      <c r="AG7" s="2" t="n">
-        <v>3625511096.826</v>
-      </c>
-      <c r="AH7" s="2" t="n">
-        <v>6351492338.4138</v>
-      </c>
-      <c r="AI7" s="2" t="n">
-        <v>5314231684.8696</v>
-      </c>
-      <c r="AJ7" s="2" t="n">
-        <v>5136369521.952</v>
-      </c>
-      <c r="AK7" s="2" t="n">
-        <v>5596266730.6152</v>
-      </c>
-      <c r="AL7" s="2" t="n">
-        <v>6628569115.4678</v>
-      </c>
-      <c r="AM7" s="2" t="n">
-        <v>9032366332.7949</v>
-      </c>
-      <c r="AN7" s="2" t="n">
-        <v>7917660106.77</v>
-      </c>
-      <c r="AO7" s="2" t="n">
-        <v>4797770135.6</v>
-      </c>
-      <c r="AP7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <f>N8</f>
-      </c>
-      <c r="B8" t="str">
-        <f>O8</f>
-      </c>
-      <c r="N8" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" t="s">
-        <v>56</v>
-      </c>
-      <c r="P8" s="2" t="n">
-        <v>100365285</v>
-      </c>
-      <c r="Q8" s="2" t="n">
-        <v>70532967</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>65339216</v>
-      </c>
-      <c r="S8" s="2" t="n">
-        <v>93513899.3584</v>
-      </c>
-      <c r="T8" s="2" t="n">
-        <v>68472015.2874</v>
-      </c>
-      <c r="U8" s="2" t="n">
-        <v>49197900.3704</v>
-      </c>
-      <c r="V8" s="2" t="n">
-        <v>70476259.987</v>
-      </c>
-      <c r="W8" s="2" t="n">
-        <v>41497150.8592</v>
-      </c>
-      <c r="X8" s="2" t="n">
-        <v>22776.8298</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>-4334.1706</v>
-      </c>
-      <c r="Z8" s="2" t="n">
-        <v>139580.4572</v>
-      </c>
-      <c r="AA8" s="2" t="n">
-        <v>1370470.1133</v>
-      </c>
-      <c r="AB8" s="2" t="n">
-        <v>-5622.2402</v>
-      </c>
-      <c r="AC8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="2" t="n">
-        <v>90437.039</v>
-      </c>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2" t="n">
-        <v>315207.2969</v>
-      </c>
-      <c r="AL8" s="2" t="n">
-        <v>-186954.5625</v>
-      </c>
-      <c r="AM8" s="2" t="n">
-        <v>759.78</v>
-      </c>
-      <c r="AN8" s="2" t="n">
-        <v>-70848.04</v>
-      </c>
-      <c r="AO8" s="2"/>
-      <c r="AP8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <f>N9</f>
-      </c>
-      <c r="B9" t="str">
-        <f>O9</f>
-      </c>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="2" t="n">
-        <v>98514</v>
-      </c>
-      <c r="AO9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <f>N10</f>
-      </c>
-      <c r="B10" t="str">
-        <f>O10</f>
-      </c>
-      <c r="N10" t="s">
-        <v>57</v>
-      </c>
-      <c r="O10" t="s">
-        <v>58</v>
-      </c>
-      <c r="P10" s="2" t="str">
-        <f>Sum(P2:P9)</f>
-      </c>
-      <c r="Q10" s="2" t="str">
-        <f>Sum(Q2:Q9)</f>
-      </c>
-      <c r="R10" s="2" t="str">
-        <f>Sum(R2:R9)</f>
-      </c>
-      <c r="S10" s="2" t="str">
-        <f>Sum(S2:S9)</f>
-      </c>
-      <c r="T10" s="2" t="str">
-        <f>Sum(T2:T9)</f>
-      </c>
-      <c r="U10" s="2" t="str">
-        <f>Sum(U2:U9)</f>
-      </c>
-      <c r="V10" s="2" t="str">
-        <f>Sum(V2:V9)</f>
-      </c>
-      <c r="W10" s="2" t="str">
-        <f>Sum(W2:W9)</f>
-      </c>
-      <c r="X10" s="2" t="str">
-        <f>Sum(X2:X9)</f>
-      </c>
-      <c r="Y10" s="2" t="str">
-        <f>Sum(Y2:Y9)</f>
-      </c>
-      <c r="Z10" s="2" t="str">
-        <f>Sum(Z2:Z9)</f>
-      </c>
-      <c r="AA10" s="2" t="str">
-        <f>Sum(AA2:AA9)</f>
-      </c>
-      <c r="AB10" s="2" t="str">
-        <f>Sum(AB2:AB9)</f>
-      </c>
-      <c r="AC10" s="2" t="str">
-        <f>Sum(AC2:AC9)</f>
-      </c>
-      <c r="AD10" s="2" t="str">
-        <f>Sum(AD2:AD9)</f>
-      </c>
-      <c r="AE10" s="2" t="str">
-        <f>Sum(AE2:AE9)</f>
-      </c>
-      <c r="AF10" s="2" t="str">
-        <f>Sum(AF2:AF9)</f>
-      </c>
-      <c r="AG10" s="2" t="str">
-        <f>Sum(AG2:AG9)</f>
-      </c>
-      <c r="AH10" s="2" t="str">
-        <f>Sum(AH2:AH9)</f>
-      </c>
-      <c r="AI10" s="2" t="str">
-        <f>Sum(AI2:AI9)</f>
-      </c>
-      <c r="AJ10" s="2" t="str">
-        <f>Sum(AJ2:AJ9)</f>
-      </c>
-      <c r="AK10" s="2" t="str">
-        <f>Sum(AK2:AK9)</f>
-      </c>
-      <c r="AL10" s="2" t="str">
-        <f>Sum(AL2:AL9)</f>
-      </c>
-      <c r="AM10" s="2" t="str">
-        <f>Sum(AM2:AM9)</f>
-      </c>
-      <c r="AN10" s="2" t="str">
-        <f>Sum(AN2:AN9)</f>
-      </c>
-      <c r="AO10" s="2" t="str">
-        <f>Sum(AO2:AO9)</f>
-      </c>
-      <c r="AP10" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <f>N13</f>
-      </c>
-      <c r="B13" t="str">
-        <f>O13</f>
-      </c>
-      <c r="N13" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" t="s">
-        <v>24</v>
-      </c>
-      <c r="S13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T13" t="s">
-        <v>26</v>
-      </c>
-      <c r="U13" t="s">
-        <v>27</v>
-      </c>
-      <c r="V13" t="s">
-        <v>28</v>
-      </c>
-      <c r="W13" t="s">
-        <v>29</v>
-      </c>
-      <c r="X13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <f>N14</f>
-      </c>
-      <c r="B14" t="str">
-        <f>O14</f>
-      </c>
-      <c r="N14" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14" t="s">
-        <v>49</v>
-      </c>
-      <c r="P14" s="2" t="n">
-        <v>4927741688.20604</v>
-      </c>
-      <c r="Q14" s="2" t="n">
-        <v>3403887587.92503</v>
-      </c>
-      <c r="R14" s="2" t="n">
-        <v>4233176872.39738</v>
-      </c>
-      <c r="S14" s="2" t="n">
-        <v>9820984232.87341</v>
-      </c>
-      <c r="T14" s="2" t="n">
-        <v>6043450741.57595</v>
-      </c>
-      <c r="U14" s="2" t="n">
-        <v>11356627839.064</v>
-      </c>
-      <c r="V14" s="2" t="n">
-        <v>12776261006.3759</v>
-      </c>
-      <c r="W14" s="2" t="n">
-        <v>18395431766.1773</v>
-      </c>
-      <c r="X14" s="2" t="n">
-        <v>24606540771.853</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>13790318584.7415</v>
-      </c>
-      <c r="Z14" s="2" t="n">
-        <v>11277873079.9843</v>
-      </c>
-      <c r="AA14" s="2" t="n">
-        <v>8290716340.46435</v>
-      </c>
-      <c r="AB14" s="2" t="n">
-        <v>4901340961.48759</v>
-      </c>
-      <c r="AC14" s="2" t="n">
-        <v>3723836164.3108</v>
-      </c>
-      <c r="AD14" s="2" t="n">
-        <v>3847626488.01747</v>
-      </c>
-      <c r="AE14" s="2" t="n">
-        <v>5040203997.24721</v>
-      </c>
-      <c r="AF14" s="2" t="n">
-        <v>5449076741.95026</v>
-      </c>
-      <c r="AG14" s="2" t="n">
-        <v>4754542609.63421</v>
-      </c>
-      <c r="AH14" s="2" t="n">
-        <v>6309977274.91763</v>
-      </c>
-      <c r="AI14" s="2" t="n">
-        <v>7542865098.94448</v>
-      </c>
-      <c r="AJ14" s="2" t="n">
-        <v>6759431899.85415</v>
-      </c>
-      <c r="AK14" s="2" t="n">
-        <v>3889751354.90092</v>
-      </c>
-      <c r="AL14" s="2" t="n">
-        <v>4028932922.49631</v>
-      </c>
-      <c r="AM14" s="2" t="n">
-        <v>4816798883.74</v>
-      </c>
-      <c r="AN14" s="2" t="n">
-        <v>4727564937.46095</v>
-      </c>
-      <c r="AO14" s="2" t="n">
-        <v>1557106392.40923</v>
-      </c>
-      <c r="AP14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <f>N15</f>
-      </c>
-      <c r="B15" t="str">
-        <f>O15</f>
-      </c>
-      <c r="N15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O15" t="s">
-        <v>50</v>
-      </c>
-      <c r="P15" s="2" t="n">
-        <v>247079137.436434</v>
-      </c>
-      <c r="Q15" s="2" t="n">
-        <v>253499402.026063</v>
-      </c>
-      <c r="R15" s="2" t="n">
-        <v>363619524.444626</v>
-      </c>
-      <c r="S15" s="2" t="n">
-        <v>583387474.731696</v>
-      </c>
-      <c r="T15" s="2" t="n">
-        <v>763263454.126832</v>
-      </c>
-      <c r="U15" s="2" t="n">
-        <v>1590057903.16178</v>
-      </c>
-      <c r="V15" s="2" t="n">
-        <v>1602358471.37868</v>
-      </c>
-      <c r="W15" s="2" t="n">
-        <v>888828935.088843</v>
-      </c>
-      <c r="X15" s="2" t="n">
-        <v>1047512121.23476</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>1143061318.00164</v>
-      </c>
-      <c r="Z15" s="2" t="n">
-        <v>1161632388.61217</v>
-      </c>
-      <c r="AA15" s="2" t="n">
-        <v>1220158884.57299</v>
-      </c>
-      <c r="AB15" s="2" t="n">
-        <v>971909504.048712</v>
-      </c>
-      <c r="AC15" s="2" t="n">
-        <v>767864938.832819</v>
-      </c>
-      <c r="AD15" s="2" t="n">
-        <v>845505951.526263</v>
-      </c>
-      <c r="AE15" s="2" t="n">
-        <v>1003501782.10914</v>
-      </c>
-      <c r="AF15" s="2" t="n">
-        <v>914835422.883214</v>
-      </c>
-      <c r="AG15" s="2" t="n">
-        <v>913093373.965936</v>
-      </c>
-      <c r="AH15" s="2" t="n">
-        <v>1451745468.99375</v>
-      </c>
-      <c r="AI15" s="2" t="n">
-        <v>1195297140.11259</v>
-      </c>
-      <c r="AJ15" s="2" t="n">
-        <v>998808105.244761</v>
-      </c>
-      <c r="AK15" s="2" t="n">
-        <v>666682520.617008</v>
-      </c>
-      <c r="AL15" s="2" t="n">
-        <v>715650000.872989</v>
-      </c>
-      <c r="AM15" s="2" t="n">
-        <v>746173610.93</v>
-      </c>
-      <c r="AN15" s="2" t="n">
-        <v>844730736.118001</v>
-      </c>
-      <c r="AO15" s="2" t="n">
-        <v>369756603.952213</v>
-      </c>
-      <c r="AP15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <f>N16</f>
-      </c>
-      <c r="B16" t="str">
-        <f>O16</f>
-      </c>
-      <c r="N16" t="s">
-        <v>51</v>
-      </c>
-      <c r="O16" t="s">
-        <v>52</v>
-      </c>
-      <c r="P16" s="2" t="n">
-        <v>1795493.18199038</v>
-      </c>
-      <c r="Q16" s="2" t="n">
-        <v>6359277.00813111</v>
-      </c>
-      <c r="R16" s="2" t="n">
-        <v>9081076.07578219</v>
-      </c>
-      <c r="S16" s="2" t="n">
-        <v>20119211.3372667</v>
-      </c>
-      <c r="T16" s="2" t="n">
-        <v>285631822.50476</v>
-      </c>
-      <c r="U16" s="2" t="n">
-        <v>44201602.955289</v>
-      </c>
-      <c r="V16" s="2" t="n">
-        <v>19189636.1579341</v>
-      </c>
-      <c r="W16" s="2" t="n">
-        <v>13242177.0684446</v>
-      </c>
-      <c r="X16" s="2" t="n">
-        <v>17233073.9890695</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>9461566.53250568</v>
-      </c>
-      <c r="Z16" s="2" t="n">
-        <v>41832425.8940192</v>
-      </c>
-      <c r="AA16" s="2" t="n">
-        <v>1039570540.6562</v>
-      </c>
-      <c r="AB16" s="2" t="n">
-        <v>815987934.332259</v>
-      </c>
-      <c r="AC16" s="2" t="n">
-        <v>171370326.813648</v>
-      </c>
-      <c r="AD16" s="2" t="n">
-        <v>303892206.96119</v>
-      </c>
-      <c r="AE16" s="2" t="n">
-        <v>178283185.422681</v>
-      </c>
-      <c r="AF16" s="2" t="n">
-        <v>139412206.090625</v>
-      </c>
-      <c r="AG16" s="2" t="n">
-        <v>261996214.686203</v>
-      </c>
-      <c r="AH16" s="2" t="n">
-        <v>313867879.12107</v>
-      </c>
-      <c r="AI16" s="2" t="n">
-        <v>185700221.284735</v>
-      </c>
-      <c r="AJ16" s="2" t="n">
-        <v>303135639.348517</v>
-      </c>
-      <c r="AK16" s="2" t="n">
-        <v>408331927.972304</v>
-      </c>
-      <c r="AL16" s="2" t="n">
-        <v>263939815.078308</v>
-      </c>
-      <c r="AM16" s="2" t="n">
-        <v>359165027.8787</v>
-      </c>
-      <c r="AN16" s="2" t="n">
-        <v>535027104.39359</v>
-      </c>
-      <c r="AO16" s="2" t="n">
-        <v>170118366.117144</v>
-      </c>
-      <c r="AP16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <f>N17</f>
-      </c>
-      <c r="B17" t="str">
-        <f>O17</f>
-      </c>
-      <c r="N17" t="s">
-        <v>51</v>
-      </c>
-      <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" s="2" t="n">
-        <v>93386539.086408</v>
-      </c>
-      <c r="Q17" s="2" t="n">
-        <v>76493331.2060949</v>
-      </c>
-      <c r="R17" s="2" t="n">
-        <v>285412909.014814</v>
-      </c>
-      <c r="S17" s="2" t="n">
-        <v>240553486.847734</v>
-      </c>
-      <c r="T17" s="2" t="n">
-        <v>335512002.62724</v>
-      </c>
-      <c r="U17" s="2" t="n">
-        <v>327945537.608357</v>
-      </c>
-      <c r="V17" s="2" t="n">
-        <v>320561477.957251</v>
-      </c>
-      <c r="W17" s="2" t="n">
-        <v>351169279.31687</v>
-      </c>
-      <c r="X17" s="2" t="n">
-        <v>266621003.23631</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>481679632.875745</v>
-      </c>
-      <c r="Z17" s="2" t="n">
-        <v>672657340.312951</v>
-      </c>
-      <c r="AA17" s="2" t="n">
-        <v>365330937.774166</v>
-      </c>
-      <c r="AB17" s="2" t="n">
-        <v>299832930.770309</v>
-      </c>
-      <c r="AC17" s="2" t="n">
-        <v>239121645.180268</v>
-      </c>
-      <c r="AD17" s="2" t="n">
-        <v>226016877.014899</v>
-      </c>
-      <c r="AE17" s="2" t="n">
-        <v>147388860.277429</v>
-      </c>
-      <c r="AF17" s="2" t="n">
-        <v>172604464.833886</v>
-      </c>
-      <c r="AG17" s="2" t="n">
-        <v>201710745.33785</v>
-      </c>
-      <c r="AH17" s="2" t="n">
-        <v>247329274.198172</v>
-      </c>
-      <c r="AI17" s="2" t="n">
-        <v>251150379.350963</v>
-      </c>
-      <c r="AJ17" s="2" t="n">
-        <v>360318958.783594</v>
-      </c>
-      <c r="AK17" s="2" t="n">
-        <v>358553053.225917</v>
-      </c>
-      <c r="AL17" s="2" t="n">
-        <v>262536727.50333</v>
-      </c>
-      <c r="AM17" s="2" t="n">
-        <v>247996537.5797</v>
-      </c>
-      <c r="AN17" s="2" t="n">
-        <v>223457351.034754</v>
-      </c>
-      <c r="AO17" s="2" t="n">
-        <v>92864241.3686984</v>
-      </c>
-      <c r="AP17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <f>N18</f>
-      </c>
-      <c r="B18" t="str">
-        <f>O18</f>
-      </c>
-      <c r="N18" t="s">
-        <v>51</v>
-      </c>
-      <c r="O18" t="s">
-        <v>54</v>
-      </c>
-      <c r="P18" s="2" t="n">
-        <v>1281523733.1172</v>
-      </c>
-      <c r="Q18" s="2" t="n">
-        <v>1561127810.58912</v>
-      </c>
-      <c r="R18" s="2" t="n">
-        <v>1636660974.0101</v>
-      </c>
-      <c r="S18" s="2" t="n">
-        <v>2263713302.0126</v>
-      </c>
-      <c r="T18" s="2" t="n">
-        <v>2287961041.91545</v>
-      </c>
-      <c r="U18" s="2" t="n">
-        <v>3387765739.06009</v>
-      </c>
-      <c r="V18" s="2" t="n">
-        <v>3276688338.23931</v>
-      </c>
-      <c r="W18" s="2" t="n">
-        <v>3306820614.68933</v>
-      </c>
-      <c r="X18" s="2" t="n">
-        <v>3134989303.53976</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>7430526670.59869</v>
-      </c>
-      <c r="Z18" s="2" t="n">
-        <v>7542079955.84003</v>
-      </c>
-      <c r="AA18" s="2" t="n">
-        <v>6047315426.14257</v>
-      </c>
-      <c r="AB18" s="2" t="n">
-        <v>2709933327.70174</v>
-      </c>
-      <c r="AC18" s="2" t="n">
-        <v>1907247339.83165</v>
-      </c>
-      <c r="AD18" s="2" t="n">
-        <v>2001050544.33985</v>
-      </c>
-      <c r="AE18" s="2" t="n">
-        <v>2011161932.33462</v>
-      </c>
-      <c r="AF18" s="2" t="n">
-        <v>2539728848.17029</v>
-      </c>
-      <c r="AG18" s="2" t="n">
-        <v>2184173962.92358</v>
-      </c>
-      <c r="AH18" s="2" t="n">
-        <v>2154501884.70694</v>
-      </c>
-      <c r="AI18" s="2" t="n">
-        <v>2351105577.54175</v>
-      </c>
-      <c r="AJ18" s="2" t="n">
-        <v>1901544610.81401</v>
-      </c>
-      <c r="AK18" s="2" t="n">
-        <v>1878412756.43886</v>
-      </c>
-      <c r="AL18" s="2" t="n">
-        <v>1679045495.97109</v>
-      </c>
-      <c r="AM18" s="2" t="n">
-        <v>2215150196.7289</v>
-      </c>
-      <c r="AN18" s="2" t="n">
-        <v>2286045041.57241</v>
-      </c>
-      <c r="AO18" s="2" t="n">
-        <v>1029057937.55572</v>
-      </c>
-      <c r="AP18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <f>N19</f>
-      </c>
-      <c r="B19" t="str">
-        <f>O19</f>
-      </c>
-      <c r="N19" t="s">
-        <v>51</v>
-      </c>
-      <c r="O19" t="s">
-        <v>55</v>
-      </c>
-      <c r="P19" s="2" t="n">
-        <v>1197608077.10039</v>
-      </c>
-      <c r="Q19" s="2" t="n">
-        <v>1569068902.46792</v>
-      </c>
-      <c r="R19" s="2" t="n">
-        <v>3010794123.4374</v>
-      </c>
-      <c r="S19" s="2" t="n">
-        <v>4193797396.91822</v>
-      </c>
-      <c r="T19" s="2" t="n">
-        <v>6014657643.03084</v>
-      </c>
-      <c r="U19" s="2" t="n">
-        <v>10533107344.4589</v>
-      </c>
-      <c r="V19" s="2" t="n">
-        <v>8558475181.7541</v>
-      </c>
-      <c r="W19" s="2" t="n">
-        <v>19292739717.6553</v>
-      </c>
-      <c r="X19" s="2" t="n">
-        <v>28315993875.2866</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>19777292519.924</v>
-      </c>
-      <c r="Z19" s="2" t="n">
-        <v>16299864543.27</v>
-      </c>
-      <c r="AA19" s="2" t="n">
-        <v>11599896662.8065</v>
-      </c>
-      <c r="AB19" s="2" t="n">
-        <v>6866846228.17874</v>
-      </c>
-      <c r="AC19" s="2" t="n">
-        <v>4706357971.38333</v>
-      </c>
-      <c r="AD19" s="2" t="n">
-        <v>2624476377.65303</v>
-      </c>
-      <c r="AE19" s="2" t="n">
-        <v>3292427009.6654</v>
-      </c>
-      <c r="AF19" s="2" t="n">
-        <v>2632100003.95629</v>
-      </c>
-      <c r="AG19" s="2" t="n">
-        <v>4425661396.74567</v>
-      </c>
-      <c r="AH19" s="2" t="n">
-        <v>7584882307.6268</v>
-      </c>
-      <c r="AI19" s="2" t="n">
-        <v>6230988973.57272</v>
-      </c>
-      <c r="AJ19" s="2" t="n">
-        <v>5944786455.40632</v>
-      </c>
-      <c r="AK19" s="2" t="n">
-        <v>6261560768.15028</v>
-      </c>
-      <c r="AL19" s="2" t="n">
-        <v>6931803580.35754</v>
-      </c>
-      <c r="AM19" s="2" t="n">
-        <v>9032366332.7949</v>
-      </c>
-      <c r="AN19" s="2" t="n">
-        <v>7711711238.96279</v>
-      </c>
-      <c r="AO19" s="2" t="n">
-        <v>4572640540.86937</v>
-      </c>
-      <c r="AP19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <f>N20</f>
-      </c>
-      <c r="B20" t="str">
-        <f>O20</f>
-      </c>
-      <c r="N20" t="s">
-        <v>51</v>
-      </c>
-      <c r="O20" t="s">
-        <v>56</v>
-      </c>
-      <c r="P20" s="2" t="n">
-        <v>168731446.559945</v>
-      </c>
-      <c r="Q20" s="2" t="n">
-        <v>115771941.331553</v>
-      </c>
-      <c r="R20" s="2" t="n">
-        <v>105585889.589666</v>
-      </c>
-      <c r="S20" s="2" t="n">
-        <v>148269147.778498</v>
-      </c>
-      <c r="T20" s="2" t="n">
-        <v>105976656.605748</v>
-      </c>
-      <c r="U20" s="2" t="n">
-        <v>73896735.5907502</v>
-      </c>
-      <c r="V20" s="2" t="n">
-        <v>102526958.088049</v>
-      </c>
-      <c r="W20" s="2" t="n">
-        <v>58751533.3634328</v>
-      </c>
-      <c r="X20" s="2" t="n">
-        <v>31591.4965635804</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>-5950.64902529315</v>
-      </c>
-      <c r="Z20" s="2" t="n">
-        <v>189993.157941112</v>
-      </c>
-      <c r="AA20" s="2" t="n">
-        <v>1828741.65760369</v>
-      </c>
-      <c r="AB20" s="2" t="n">
-        <v>-7368.55122908507</v>
-      </c>
-      <c r="AC20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="2" t="n">
-        <v>107998.917501105</v>
-      </c>
-      <c r="AI20" s="2"/>
-      <c r="AJ20" s="2"/>
-      <c r="AK20" s="2" t="n">
-        <v>352679.695073571</v>
-      </c>
-      <c r="AL20" s="2" t="n">
-        <v>-195507.097101487</v>
-      </c>
-      <c r="AM20" s="2" t="n">
-        <v>759.78</v>
-      </c>
-      <c r="AN20" s="2" t="n">
-        <v>-69005.1882701204</v>
-      </c>
-      <c r="AO20" s="2"/>
-      <c r="AP20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <f>N21</f>
-      </c>
-      <c r="B21" t="str">
-        <f>O21</f>
-      </c>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
-      <c r="AG21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="2" t="n">
-        <v>95951.5198619841</v>
-      </c>
-      <c r="AO21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <f>N22</f>
-      </c>
-      <c r="B22" t="str">
-        <f>O22</f>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
-      <c r="AI22" s="2"/>
-      <c r="AJ22" s="2"/>
-      <c r="AK22" s="2"/>
-      <c r="AL22" s="2"/>
-      <c r="AM22" s="2"/>
-      <c r="AN22" s="2"/>
-      <c r="AO22" s="2"/>
-      <c r="AP22" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
-      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <f>N1</f>
-      </c>
-      <c r="B1" t="str">
-        <f>O1</f>
-      </c>
-      <c r="N1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <f>N2</f>
-      </c>
-      <c r="B2" t="str">
-        <f>O2</f>
-      </c>
-      <c r="N2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>918102644.4375</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>794034064</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>837624513.63</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>563745748</v>
-      </c>
-      <c r="T2" s="3" t="n">
-        <v>1001705206.8106</v>
-      </c>
-      <c r="U2" s="3" t="n">
-        <v>1855581221.07</v>
-      </c>
-      <c r="V2" s="3" t="n">
-        <v>2058966485.3981</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <v>3177438429.1835</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>5313498590.7222</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <v>5914563294.7151</v>
-      </c>
-      <c r="Z2" s="3" t="n">
-        <v>3866587568.3553</v>
-      </c>
-      <c r="AA2" s="3" t="n">
-        <v>3607891341.7472</v>
-      </c>
-      <c r="AB2" s="3" t="n">
-        <v>1988861380.7164</v>
-      </c>
-      <c r="AC2" s="3" t="n">
-        <v>1399819590.0819</v>
-      </c>
-      <c r="AD2" s="3" t="n">
-        <v>1177588273.678</v>
-      </c>
-      <c r="AE2" s="3" t="n">
-        <v>903882724.8373</v>
-      </c>
-      <c r="AF2" s="3" t="n">
-        <v>659332260.8983</v>
-      </c>
-      <c r="AG2" s="3" t="n">
-        <v>703197678.092</v>
-      </c>
-      <c r="AH2" s="3" t="n">
-        <v>1262855337.5937</v>
-      </c>
-      <c r="AI2" s="3" t="n">
-        <v>1079045285.3172</v>
-      </c>
-      <c r="AJ2" s="3" t="n">
-        <v>1328060409.7981</v>
-      </c>
-      <c r="AK2" s="3" t="n">
-        <v>1685668652.0944</v>
-      </c>
-      <c r="AL2" s="3" t="n">
-        <v>2288058041.4532</v>
-      </c>
-      <c r="AM2" s="3" t="n">
-        <v>1671527228.4074</v>
-      </c>
-      <c r="AN2" s="3" t="n">
-        <v>1817239808.51</v>
-      </c>
-      <c r="AO2" s="3" t="n">
-        <v>1699600042.91</v>
       </c>
       <c r="AP2" s="3"/>
     </row>
@@ -5354,88 +3631,88 @@
         <f>O3</f>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>94727644</v>
+        <v>146968265.5601</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>33511794</v>
+        <v>154442127.79</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>55083461</v>
+        <v>225016948.21</v>
       </c>
       <c r="S3" s="3" t="n">
-        <v>61875178</v>
+        <v>367944635.93</v>
       </c>
       <c r="T3" s="3" t="n">
-        <v>135973299.62</v>
+        <v>493148100.47</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>321298527.9733</v>
+        <v>1058605764.89</v>
       </c>
       <c r="V3" s="3" t="n">
-        <v>337720027.9936</v>
+        <v>1101449163.49</v>
       </c>
       <c r="W3" s="3" t="n">
-        <v>193825232.5718</v>
+        <v>627794140.78</v>
       </c>
       <c r="X3" s="3" t="n">
-        <v>641225388.1833</v>
+        <v>755235044.05</v>
       </c>
       <c r="Y3" s="3" t="n">
-        <v>469345012.2069</v>
+        <v>832551665.78</v>
       </c>
       <c r="Z3" s="3" t="n">
-        <v>268926257.6103</v>
+        <v>853405362.8977</v>
       </c>
       <c r="AA3" s="3" t="n">
-        <v>202154341.2706</v>
+        <v>914394484.2247</v>
       </c>
       <c r="AB3" s="3" t="n">
-        <v>137472227.1321</v>
+        <v>741571648.8278</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>68155625.5759</v>
+        <v>596515377.8522</v>
       </c>
       <c r="AD3" s="3" t="n">
-        <v>61863492.6494</v>
+        <v>668813424.083</v>
       </c>
       <c r="AE3" s="3" t="n">
-        <v>91062197.0191</v>
+        <v>802012237.7668</v>
       </c>
       <c r="AF3" s="3" t="n">
-        <v>133661346.7064</v>
+        <v>736994474.0547</v>
       </c>
       <c r="AG3" s="3" t="n">
-        <v>52129322.8201</v>
+        <v>748008006.7097</v>
       </c>
       <c r="AH3" s="3" t="n">
-        <v>105581249.7747</v>
+        <v>1215674792.26</v>
       </c>
       <c r="AI3" s="3" t="n">
-        <v>177929726.0725</v>
+        <v>1019434629.36</v>
       </c>
       <c r="AJ3" s="3" t="n">
-        <v>59545934.6124</v>
+        <v>862982640.09</v>
       </c>
       <c r="AK3" s="3" t="n">
-        <v>92063146.3974</v>
+        <v>595847161.46</v>
       </c>
       <c r="AL3" s="3" t="n">
-        <v>45513772.8618</v>
+        <v>684343611.05</v>
       </c>
       <c r="AM3" s="3" t="n">
-        <v>9940886.1433</v>
+        <v>746173610.93</v>
       </c>
       <c r="AN3" s="3" t="n">
-        <v>23448433.16</v>
+        <v>867290105.02</v>
       </c>
       <c r="AO3" s="3" t="n">
-        <v>10355563.14</v>
+        <v>387961217.6</v>
       </c>
       <c r="AP3" s="3"/>
     </row>
@@ -5447,69 +3724,89 @@
         <f>O4</f>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>1068000</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>3874329.74</v>
+      </c>
       <c r="R4" s="3" t="n">
-        <v>13216.3203</v>
+        <v>5619599.3</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>114874</v>
+        <v>12689260.9309</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>1644916.0725</v>
+        <v>184548061.2761</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>16395156.2602</v>
+        <v>29427904.2372</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>59245504.3092</v>
+        <v>13190811.5889</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>467640427.0237</v>
+        <v>9353162.1739</v>
       </c>
       <c r="X4" s="3" t="n">
-        <v>185434621.01</v>
+        <v>12424697.6521</v>
       </c>
       <c r="Y4" s="3" t="n">
-        <v>815457782.5238</v>
+        <v>6891356.4421</v>
       </c>
       <c r="Z4" s="3" t="n">
-        <v>-229790836.3075</v>
+        <v>30732628.4554</v>
       </c>
       <c r="AA4" s="3" t="n">
-        <v>-554102.2528</v>
+        <v>779060481.6775</v>
       </c>
       <c r="AB4" s="3" t="n">
-        <v>-425797.7201</v>
+        <v>622602737.5652</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>36127.37</v>
+        <v>133128926.8231</v>
       </c>
       <c r="AD4" s="3" t="n">
-        <v>-225049.56</v>
+        <v>240385283.0639</v>
       </c>
       <c r="AE4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="3"/>
+        <v>142486340.3795</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>112310939.1422</v>
+      </c>
       <c r="AG4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
+        <v>214627848.477</v>
+      </c>
+      <c r="AH4" s="3" t="n">
+        <v>262829316.0867</v>
+      </c>
+      <c r="AI4" s="3" t="n">
+        <v>158378389.6945</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>261912967.0421</v>
+      </c>
       <c r="AK4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
+        <v>364946451.5593</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>252393664.4033</v>
+      </c>
+      <c r="AM4" s="3" t="n">
+        <v>359165027.8787</v>
+      </c>
+      <c r="AN4" s="3" t="n">
+        <v>549315531.8232</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v>178493981.58</v>
+      </c>
       <c r="AP4" s="3"/>
     </row>
     <row r="5">
@@ -5520,88 +3817,88 @@
         <f>O5</f>
       </c>
       <c r="N5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>110442344</v>
+        <v>55548428</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>18263732</v>
+        <v>46602843</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>33319536</v>
+        <v>176620718.7701</v>
       </c>
       <c r="S5" s="3" t="n">
-        <v>47616371</v>
+        <v>151717973</v>
       </c>
       <c r="T5" s="3" t="n">
-        <v>367646486.05</v>
+        <v>216775879.7908</v>
       </c>
       <c r="U5" s="3" t="n">
-        <v>1605735388.54</v>
+        <v>218334839.2482</v>
       </c>
       <c r="V5" s="3" t="n">
-        <v>3512230596.49</v>
+        <v>220351549.3255</v>
       </c>
       <c r="W5" s="3" t="n">
-        <v>4189754945.21</v>
+        <v>248036497.5461</v>
       </c>
       <c r="X5" s="3" t="n">
-        <v>4615283917.0833</v>
+        <v>192228348.524</v>
       </c>
       <c r="Y5" s="3" t="n">
-        <v>1391274218.8866</v>
+        <v>350832605.7469</v>
       </c>
       <c r="Z5" s="3" t="n">
-        <v>4831923428.9124</v>
+        <v>494174738.2762</v>
       </c>
       <c r="AA5" s="3" t="n">
-        <v>2914783627.1127</v>
+        <v>273781225.2494</v>
       </c>
       <c r="AB5" s="3" t="n">
-        <v>1545113847.3812</v>
+        <v>228773975.2703</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>711305058.5</v>
+        <v>185761494.3901</v>
       </c>
       <c r="AD5" s="3" t="n">
-        <v>448485788.21</v>
+        <v>178784219.2524</v>
       </c>
       <c r="AE5" s="3" t="n">
-        <v>87175500.24</v>
+        <v>117795176.611</v>
       </c>
       <c r="AF5" s="3" t="n">
-        <v>618765190.3039</v>
+        <v>139050733.7143</v>
       </c>
       <c r="AG5" s="3" t="n">
-        <v>356663164.7604</v>
+        <v>165241865.5682</v>
       </c>
       <c r="AH5" s="3" t="n">
-        <v>586929961.0419</v>
+        <v>207110661.2367</v>
       </c>
       <c r="AI5" s="3" t="n">
-        <v>683971805.4223</v>
+        <v>214198951.286</v>
       </c>
       <c r="AJ5" s="3" t="n">
-        <v>382979985.0289</v>
+        <v>311320067.0807</v>
       </c>
       <c r="AK5" s="3" t="n">
-        <v>100907526.9636</v>
+        <v>320456607.7415</v>
       </c>
       <c r="AL5" s="3" t="n">
-        <v>357708268.3574</v>
+        <v>251051955.4443</v>
       </c>
       <c r="AM5" s="3" t="n">
-        <v>1373258048.6118</v>
+        <v>247996537.5797</v>
       </c>
       <c r="AN5" s="3" t="n">
-        <v>715313755.45</v>
+        <v>229425000.37</v>
       </c>
       <c r="AO5" s="3" t="n">
-        <v>332203662.55</v>
+        <v>97436323.7</v>
       </c>
       <c r="AP5" s="3"/>
     </row>
@@ -5613,86 +3910,88 @@
         <f>O6</f>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6"/>
+        <v>51</v>
+      </c>
+      <c r="O6" t="s">
+        <v>54</v>
+      </c>
       <c r="P6" s="3" t="n">
-        <v>68425203</v>
+        <v>762279334</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>31753144.6509</v>
+        <v>951102444</v>
       </c>
       <c r="R6" s="3" t="n">
-        <v>53396500.1808</v>
+        <v>1012807159.3203</v>
       </c>
       <c r="S6" s="3" t="n">
-        <v>135811937.7309</v>
+        <v>1427732344</v>
       </c>
       <c r="T6" s="3" t="n">
-        <v>124651609.932</v>
+        <v>1478262368.8707</v>
       </c>
       <c r="U6" s="3" t="n">
-        <v>152174822.4077</v>
+        <v>2255457700.2099</v>
       </c>
       <c r="V6" s="3" t="n">
-        <v>365499296.5236</v>
+        <v>2252370923.0094</v>
       </c>
       <c r="W6" s="3" t="n">
-        <v>11658511.0141</v>
+        <v>2335660468.0123</v>
       </c>
       <c r="X6" s="3" t="n">
-        <v>51116834.3189</v>
+        <v>2260263854.4786</v>
       </c>
       <c r="Y6" s="3" t="n">
-        <v>7227516.7441</v>
+        <v>5412043308.442</v>
       </c>
       <c r="Z6" s="3" t="n">
-        <v>19717435.2052</v>
+        <v>5540867786.4147</v>
       </c>
       <c r="AA6" s="3" t="n">
-        <v>-624793.3611</v>
+        <v>4531894935.9344</v>
       </c>
       <c r="AB6" s="3" t="n">
-        <v>261265.3099</v>
+        <v>2067692226.1442</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>49025.44</v>
+        <v>1481643854.3302</v>
       </c>
       <c r="AD6" s="3" t="n">
-        <v>2163241.87</v>
+        <v>1582874093.2068</v>
       </c>
       <c r="AE6" s="3" t="n">
-        <v>253742.8527</v>
+        <v>1607347899.7446</v>
       </c>
       <c r="AF6" s="3" t="n">
-        <v>-2185743.2192</v>
+        <v>2046014047.8598</v>
       </c>
       <c r="AG6" s="3" t="n">
-        <v>13070420.1911</v>
+        <v>1789279890.6398</v>
       </c>
       <c r="AH6" s="3" t="n">
-        <v>389597</v>
+        <v>1804154851.5597</v>
       </c>
       <c r="AI6" s="3" t="n">
-        <v>0</v>
+        <v>2005190477.4086</v>
       </c>
       <c r="AJ6" s="3" t="n">
-        <v>50000</v>
+        <v>1642958221.7768</v>
       </c>
       <c r="AK6" s="3" t="n">
-        <v>-50000</v>
+        <v>1678830439.3199</v>
       </c>
       <c r="AL6" s="3" t="n">
-        <v>0</v>
+        <v>1605594992.564</v>
       </c>
       <c r="AM6" s="3" t="n">
-        <v>-45108</v>
+        <v>2215150196.7289</v>
       </c>
       <c r="AN6" s="3" t="n">
-        <v>0</v>
+        <v>2347096133.0201</v>
       </c>
       <c r="AO6" s="3" t="n">
-        <v>0</v>
+        <v>1079722623.39</v>
       </c>
       <c r="AP6" s="3"/>
     </row>
@@ -5704,88 +4003,88 @@
         <f>O7</f>
       </c>
       <c r="N7" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>2560635370.8216</v>
+        <v>712364401.699</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>2447227909.86</v>
+        <v>955940479.5809</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>3987496835.3751</v>
+        <v>1863155468.2858</v>
       </c>
       <c r="S7" s="3" t="n">
-        <v>8903731847.6577</v>
+        <v>2645043514.3177</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>7299340614.9237</v>
+        <v>3886098535.9652</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>13006857226.8521</v>
+        <v>7012579941.1941</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>10592766641.5057</v>
+        <v>5883031480.2044</v>
       </c>
       <c r="W7" s="3" t="n">
-        <v>20559588210.1789</v>
+        <v>13626771672.4669</v>
       </c>
       <c r="X7" s="3" t="n">
-        <v>29097050248.0463</v>
+        <v>20415258638.2616</v>
       </c>
       <c r="Y7" s="3" t="n">
-        <v>19956920148.1567</v>
+        <v>14404842131.1878</v>
       </c>
       <c r="Z7" s="3" t="n">
-        <v>16734245736.2922</v>
+        <v>11974865673.599</v>
       </c>
       <c r="AA7" s="3" t="n">
-        <v>13029120709.5249</v>
+        <v>8693033063.2791</v>
       </c>
       <c r="AB7" s="3" t="n">
-        <v>6981269673.2177</v>
+        <v>5239436859.5682</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>4993016553.8466</v>
+        <v>3656131126.2301</v>
       </c>
       <c r="AD7" s="3" t="n">
-        <v>4037388592.18</v>
+        <v>2076017359.0671</v>
       </c>
       <c r="AE7" s="3" t="n">
-        <v>5795132489.802</v>
+        <v>2631352331.1894</v>
       </c>
       <c r="AF7" s="3" t="n">
-        <v>5559156824.49</v>
+        <v>2120428559.6654</v>
       </c>
       <c r="AG7" s="3" t="n">
-        <v>6637886499.095</v>
+        <v>3625511096.826</v>
       </c>
       <c r="AH7" s="3" t="n">
-        <v>8354973314.8693</v>
+        <v>6351492338.4138</v>
       </c>
       <c r="AI7" s="3" t="n">
-        <v>9625000282.2858</v>
+        <v>5314231684.8696</v>
       </c>
       <c r="AJ7" s="3" t="n">
-        <v>9951107812.7838</v>
+        <v>5136369521.952</v>
       </c>
       <c r="AK7" s="3" t="n">
-        <v>8107297699.6142</v>
+        <v>5596266730.6152</v>
       </c>
       <c r="AL7" s="3" t="n">
-        <v>8265619993.1113</v>
+        <v>6628569115.4678</v>
       </c>
       <c r="AM7" s="3" t="n">
-        <v>11456082020.0082</v>
+        <v>9032366332.7949</v>
       </c>
       <c r="AN7" s="3" t="n">
-        <v>12850557770.4333</v>
+        <v>7917660106.77</v>
       </c>
       <c r="AO7" s="3" t="n">
-        <v>5620588249.24</v>
+        <v>4797770135.6</v>
       </c>
       <c r="AP7" s="3"/>
     </row>
@@ -5797,89 +4096,77 @@
         <f>O8</f>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>924076007</v>
+        <v>100365285</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>929566556</v>
+        <v>70532967</v>
       </c>
       <c r="R8" s="3" t="n">
-        <v>992946469</v>
+        <v>65339216</v>
       </c>
       <c r="S8" s="3" t="n">
-        <v>1176445680.3584</v>
+        <v>93513899.3584</v>
       </c>
       <c r="T8" s="3" t="n">
-        <v>1274661426.3414</v>
+        <v>68472015.2874</v>
       </c>
       <c r="U8" s="3" t="n">
-        <v>1194583564.7627</v>
+        <v>49197900.3704</v>
       </c>
       <c r="V8" s="3" t="n">
-        <v>1284713041.2528</v>
+        <v>70476259.987</v>
       </c>
       <c r="W8" s="3" t="n">
-        <v>1253692890.8208</v>
+        <v>41497150.8592</v>
       </c>
       <c r="X8" s="3" t="n">
-        <v>1385812330.9217</v>
+        <v>22776.8298</v>
       </c>
       <c r="Y8" s="3" t="n">
-        <v>2124017402.2952</v>
+        <v>-4334.1706</v>
       </c>
       <c r="Z8" s="3" t="n">
-        <v>1324497027.8796</v>
+        <v>139580.4572</v>
       </c>
       <c r="AA8" s="3" t="n">
-        <v>1253011094.6901</v>
+        <v>1370470.1133</v>
       </c>
       <c r="AB8" s="3" t="n">
-        <v>1342809926.0115</v>
+        <v>-5622.2402</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>1147000155.357</v>
-      </c>
-      <c r="AD8" s="3" t="n">
-        <v>1471512223.8462</v>
-      </c>
-      <c r="AE8" s="3" t="n">
-        <v>1328840997.877</v>
-      </c>
-      <c r="AF8" s="3" t="n">
-        <v>1609589063.596</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
       <c r="AG8" s="3" t="n">
-        <v>1574198524.5889</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="3" t="n">
-        <v>1568836527.3382</v>
-      </c>
-      <c r="AI8" s="3" t="n">
-        <v>352155865.3252</v>
-      </c>
-      <c r="AJ8" s="3" t="n">
-        <v>220540872.8008</v>
-      </c>
+        <v>90437.039</v>
+      </c>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
       <c r="AK8" s="3" t="n">
-        <v>152618567.9873</v>
+        <v>315207.2969</v>
       </c>
       <c r="AL8" s="3" t="n">
-        <v>98325327.0014</v>
+        <v>-186954.5625</v>
       </c>
       <c r="AM8" s="3" t="n">
-        <v>120730833.9651</v>
+        <v>759.78</v>
       </c>
       <c r="AN8" s="3" t="n">
-        <v>153672344.82</v>
-      </c>
-      <c r="AO8" s="3" t="n">
-        <v>328386805.94</v>
-      </c>
+        <v>-70848.04</v>
+      </c>
+      <c r="AO8" s="3"/>
       <c r="AP8" s="3"/>
     </row>
     <row r="9">
@@ -5889,89 +4176,63 @@
       <c r="B9" t="str">
         <f>O9</f>
       </c>
-      <c r="N9" t="s">
-        <v>70</v>
-      </c>
-      <c r="O9" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" s="3" t="n">
-        <v>33316836</v>
-      </c>
-      <c r="Q9" s="3" t="n">
-        <v>1924507</v>
-      </c>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
       <c r="R9" s="3" t="n">
-        <v>8275374</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="n">
-        <v>3431035</v>
-      </c>
-      <c r="T9" s="3" t="n">
-        <v>26383294</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T9" s="3"/>
       <c r="U9" s="3" t="n">
-        <v>31829653.5638</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3" t="n">
-        <v>112034332.4322</v>
-      </c>
-      <c r="W9" s="3" t="n">
-        <v>28503112.1756</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W9" s="3"/>
       <c r="X9" s="3" t="n">
-        <v>86829437.2704</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="3" t="n">
-        <v>372565547.0698</v>
-      </c>
-      <c r="Z9" s="3" t="n">
-        <v>363486362.636</v>
-      </c>
-      <c r="AA9" s="3" t="n">
-        <v>400865658.2647</v>
-      </c>
-      <c r="AB9" s="3" t="n">
-        <v>644456144.8827</v>
-      </c>
-      <c r="AC9" s="3" t="n">
-        <v>626658343.4818</v>
-      </c>
-      <c r="AD9" s="3" t="n">
-        <v>591653264.9341</v>
-      </c>
-      <c r="AE9" s="3" t="n">
-        <v>1122845743.0706</v>
-      </c>
-      <c r="AF9" s="3" t="n">
-        <v>966274245.7906</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
       <c r="AG9" s="3" t="n">
-        <v>1100454374.7614</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="3" t="n">
-        <v>3245688082.2981</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="3" t="n">
-        <v>3226424353.4857</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="3" t="n">
-        <v>2113491732.8376</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="3" t="n">
-        <v>1894620286.8259</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="3" t="n">
-        <v>2219226654.0418</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="3" t="n">
-        <v>2786157440.2964</v>
+        <v>0</v>
       </c>
       <c r="AN9" s="3" t="n">
-        <v>1204401660.54</v>
+        <v>98514</v>
       </c>
       <c r="AO9" s="3" t="n">
-        <v>184018998.25</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="3"/>
     </row>
@@ -6076,10 +4337,10 @@
         <f>O13</f>
       </c>
       <c r="N13" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="P13" t="s">
         <v>22</v>
@@ -6168,88 +4429,88 @@
         <f>O14</f>
       </c>
       <c r="N14" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="P14" s="3" t="n">
-        <v>1543489736.38097</v>
+        <v>4927741688.20604</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>1303317710.60563</v>
+        <v>3403887587.92503</v>
       </c>
       <c r="R14" s="3" t="n">
-        <v>1353571940.83466</v>
+        <v>4233176872.39738</v>
       </c>
       <c r="S14" s="3" t="n">
-        <v>893836126.962916</v>
+        <v>9820984232.87341</v>
       </c>
       <c r="T14" s="3" t="n">
-        <v>1550375993.4154</v>
+        <v>6043450741.57595</v>
       </c>
       <c r="U14" s="3" t="n">
-        <v>2787139163.01742</v>
+        <v>11356627839.064</v>
       </c>
       <c r="V14" s="3" t="n">
-        <v>2995328790.03579</v>
+        <v>12776261006.3759</v>
       </c>
       <c r="W14" s="3" t="n">
-        <v>4498607157.77408</v>
+        <v>18395431766.1773</v>
       </c>
       <c r="X14" s="3" t="n">
-        <v>7369830390.94359</v>
+        <v>24606540771.853</v>
       </c>
       <c r="Y14" s="3" t="n">
-        <v>8120467224.97058</v>
+        <v>13790318584.7415</v>
       </c>
       <c r="Z14" s="3" t="n">
-        <v>5263094829.35028</v>
+        <v>11277873079.9843</v>
       </c>
       <c r="AA14" s="3" t="n">
-        <v>4814334241.0244</v>
+        <v>8290716340.46435</v>
       </c>
       <c r="AB14" s="3" t="n">
-        <v>2606617015.64399</v>
+        <v>4901340961.48759</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>1801918984.52875</v>
+        <v>3723836164.3108</v>
       </c>
       <c r="AD14" s="3" t="n">
-        <v>1488693046.50608</v>
+        <v>3847626488.01747</v>
       </c>
       <c r="AE14" s="3" t="n">
-        <v>1130965192.89726</v>
+        <v>5040203997.24721</v>
       </c>
       <c r="AF14" s="3" t="n">
-        <v>818432876.980667</v>
+        <v>5449076741.95026</v>
       </c>
       <c r="AG14" s="3" t="n">
-        <v>858393405.811802</v>
+        <v>4754542609.63421</v>
       </c>
       <c r="AH14" s="3" t="n">
-        <v>1508087957.41989</v>
+        <v>6309977274.91763</v>
       </c>
       <c r="AI14" s="3" t="n">
-        <v>1265191221.13926</v>
+        <v>7542865098.94448</v>
       </c>
       <c r="AJ14" s="3" t="n">
-        <v>1537084803.26172</v>
+        <v>6759431899.85415</v>
       </c>
       <c r="AK14" s="3" t="n">
-        <v>1886063907.98223</v>
+        <v>3889751354.90092</v>
       </c>
       <c r="AL14" s="3" t="n">
-        <v>2392728905.36827</v>
+        <v>4028932922.49631</v>
       </c>
       <c r="AM14" s="3" t="n">
-        <v>1671527228.4074</v>
+        <v>4816798883.74</v>
       </c>
       <c r="AN14" s="3" t="n">
-        <v>1769970984.63402</v>
+        <v>4727564937.46095</v>
       </c>
       <c r="AO14" s="3" t="n">
-        <v>1619848354.51098</v>
+        <v>1557106392.40923</v>
       </c>
       <c r="AP14" s="3"/>
     </row>
@@ -6261,88 +4522,88 @@
         <f>O15</f>
       </c>
       <c r="N15" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="P15" s="3" t="n">
-        <v>159253594.520611</v>
+        <v>247079137.436434</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>55005844.9814408</v>
+        <v>253499402.026063</v>
       </c>
       <c r="R15" s="3" t="n">
-        <v>89012947.9264441</v>
+        <v>363619524.444626</v>
       </c>
       <c r="S15" s="3" t="n">
-        <v>98104987.318966</v>
+        <v>583387474.731696</v>
       </c>
       <c r="T15" s="3" t="n">
-        <v>210450877.207216</v>
+        <v>763263454.126832</v>
       </c>
       <c r="U15" s="3" t="n">
-        <v>482600114.813542</v>
+        <v>1590057903.16178</v>
       </c>
       <c r="V15" s="3" t="n">
-        <v>491305968.307364</v>
+        <v>1602358471.37868</v>
       </c>
       <c r="W15" s="3" t="n">
-        <v>274417143.884291</v>
+        <v>888828935.088843</v>
       </c>
       <c r="X15" s="3" t="n">
-        <v>889380560.207428</v>
+        <v>1047512121.23476</v>
       </c>
       <c r="Y15" s="3" t="n">
-        <v>644392594.840451</v>
+        <v>1143061318.00164</v>
       </c>
       <c r="Z15" s="3" t="n">
-        <v>366055176.789218</v>
+        <v>1161632388.61217</v>
       </c>
       <c r="AA15" s="3" t="n">
-        <v>269752737.808193</v>
+        <v>1220158884.57299</v>
       </c>
       <c r="AB15" s="3" t="n">
-        <v>180172157.745821</v>
+        <v>971909504.048712</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>87733388.2864591</v>
+        <v>767864938.832819</v>
       </c>
       <c r="AD15" s="3" t="n">
-        <v>78207089.3522881</v>
+        <v>845505951.526263</v>
       </c>
       <c r="AE15" s="3" t="n">
-        <v>113939753.894393</v>
+        <v>1003501782.10914</v>
       </c>
       <c r="AF15" s="3" t="n">
-        <v>165914588.157704</v>
+        <v>914835422.883214</v>
       </c>
       <c r="AG15" s="3" t="n">
-        <v>63634264.3787202</v>
+        <v>913093373.965936</v>
       </c>
       <c r="AH15" s="3" t="n">
-        <v>126083967.477987</v>
+        <v>1451745468.99375</v>
       </c>
       <c r="AI15" s="3" t="n">
-        <v>208624355.687226</v>
+        <v>1195297140.11259</v>
       </c>
       <c r="AJ15" s="3" t="n">
-        <v>68917912.5538806</v>
+        <v>998808105.244761</v>
       </c>
       <c r="AK15" s="3" t="n">
-        <v>103007775.258608</v>
+        <v>666682520.617008</v>
       </c>
       <c r="AL15" s="3" t="n">
-        <v>47595872.9830246</v>
+        <v>715650000.872989</v>
       </c>
       <c r="AM15" s="3" t="n">
-        <v>9940886.1433</v>
+        <v>746173610.93</v>
       </c>
       <c r="AN15" s="3" t="n">
-        <v>22838508.2331866</v>
+        <v>844730736.118001</v>
       </c>
       <c r="AO15" s="3" t="n">
-        <v>9869640.79127871</v>
+        <v>369756603.952213</v>
       </c>
       <c r="AP15" s="3"/>
     </row>
@@ -6354,69 +4615,89 @@
         <f>O16</f>
       </c>
       <c r="N16" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="O16" t="s">
-        <v>65</v>
-      </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="P16" s="3" t="n">
+        <v>1795493.18199038</v>
+      </c>
+      <c r="Q16" s="3" t="n">
+        <v>6359277.00813111</v>
+      </c>
       <c r="R16" s="3" t="n">
-        <v>21357.111722575</v>
+        <v>9081076.07578219</v>
       </c>
       <c r="S16" s="3" t="n">
-        <v>182136.240695403</v>
+        <v>20119211.3372667</v>
       </c>
       <c r="T16" s="3" t="n">
-        <v>2545897.10889796</v>
+        <v>285631822.50476</v>
       </c>
       <c r="U16" s="3" t="n">
-        <v>24626020.9888543</v>
+        <v>44201602.955289</v>
       </c>
       <c r="V16" s="3" t="n">
-        <v>86188758.2901693</v>
+        <v>19189636.1579341</v>
       </c>
       <c r="W16" s="3" t="n">
-        <v>662083819.768597</v>
+        <v>13242177.0684446</v>
       </c>
       <c r="X16" s="3" t="n">
-        <v>257198093.143158</v>
+        <v>17233073.9890695</v>
       </c>
       <c r="Y16" s="3" t="n">
-        <v>1119592075.75792</v>
+        <v>9461566.53250568</v>
       </c>
       <c r="Z16" s="3" t="n">
-        <v>-312785095.648698</v>
+        <v>41832425.8940192</v>
       </c>
       <c r="AA16" s="3" t="n">
-        <v>-739388.522546784</v>
+        <v>1039570540.6562</v>
       </c>
       <c r="AB16" s="3" t="n">
-        <v>-558053.765434013</v>
+        <v>815987934.332259</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>46504.9884466081</v>
+        <v>171370326.813648</v>
       </c>
       <c r="AD16" s="3" t="n">
-        <v>-284504.968824838</v>
+        <v>303892206.96119</v>
       </c>
       <c r="AE16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="3"/>
+        <v>178283185.422681</v>
+      </c>
+      <c r="AF16" s="3" t="n">
+        <v>139412206.090625</v>
+      </c>
       <c r="AG16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
+        <v>261996214.686203</v>
+      </c>
+      <c r="AH16" s="3" t="n">
+        <v>313867879.12107</v>
+      </c>
+      <c r="AI16" s="3" t="n">
+        <v>185700221.284735</v>
+      </c>
+      <c r="AJ16" s="3" t="n">
+        <v>303135639.348517</v>
+      </c>
       <c r="AK16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
+        <v>408331927.972304</v>
+      </c>
+      <c r="AL16" s="3" t="n">
+        <v>263939815.078308</v>
+      </c>
+      <c r="AM16" s="3" t="n">
+        <v>359165027.8787</v>
+      </c>
+      <c r="AN16" s="3" t="n">
+        <v>535027104.39359</v>
+      </c>
+      <c r="AO16" s="3" t="n">
+        <v>170118366.117144</v>
+      </c>
       <c r="AP16" s="3"/>
     </row>
     <row r="17">
@@ -6427,88 +4708,88 @@
         <f>O17</f>
       </c>
       <c r="N17" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="O17" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P17" s="3" t="n">
-        <v>185672730.014079</v>
+        <v>93386539.086408</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>29977864.2460795</v>
+        <v>76493331.2060949</v>
       </c>
       <c r="R17" s="3" t="n">
-        <v>53843205.7292347</v>
+        <v>285412909.014814</v>
       </c>
       <c r="S17" s="3" t="n">
-        <v>75497212.6808295</v>
+        <v>240553486.847734</v>
       </c>
       <c r="T17" s="3" t="n">
-        <v>569019989.27437</v>
+        <v>335512002.62724</v>
       </c>
       <c r="U17" s="3" t="n">
-        <v>2411863159.65309</v>
+        <v>327945537.608357</v>
       </c>
       <c r="V17" s="3" t="n">
-        <v>5109498137.78876</v>
+        <v>320561477.957251</v>
       </c>
       <c r="W17" s="3" t="n">
-        <v>5931841640.9675</v>
+        <v>351169279.31687</v>
       </c>
       <c r="X17" s="3" t="n">
-        <v>6401405607.66209</v>
+        <v>266621003.23631</v>
       </c>
       <c r="Y17" s="3" t="n">
-        <v>1910165828.39011</v>
+        <v>481679632.875745</v>
       </c>
       <c r="Z17" s="3" t="n">
-        <v>6577083995.88702</v>
+        <v>672657340.312951</v>
       </c>
       <c r="AA17" s="3" t="n">
-        <v>3889458215.88693</v>
+        <v>365330937.774166</v>
       </c>
       <c r="AB17" s="3" t="n">
-        <v>2025038086.98837</v>
+        <v>299832930.770309</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>915628055.060647</v>
+        <v>239121645.180268</v>
       </c>
       <c r="AD17" s="3" t="n">
-        <v>566970382.848422</v>
+        <v>226016877.014899</v>
       </c>
       <c r="AE17" s="3" t="n">
-        <v>109076602.235753</v>
+        <v>147388860.277429</v>
       </c>
       <c r="AF17" s="3" t="n">
-        <v>768076742.04497</v>
+        <v>172604464.833886</v>
       </c>
       <c r="AG17" s="3" t="n">
-        <v>435378725.306657</v>
+        <v>201710745.33785</v>
       </c>
       <c r="AH17" s="3" t="n">
-        <v>700905305.419068</v>
+        <v>247329274.198172</v>
       </c>
       <c r="AI17" s="3" t="n">
-        <v>801963676.133092</v>
+        <v>251150379.350963</v>
       </c>
       <c r="AJ17" s="3" t="n">
-        <v>443257483.31796</v>
+        <v>360318958.783594</v>
       </c>
       <c r="AK17" s="3" t="n">
-        <v>112903591.351316</v>
+        <v>358553053.225917</v>
       </c>
       <c r="AL17" s="3" t="n">
-        <v>374072203.53745</v>
+        <v>262536727.50333</v>
       </c>
       <c r="AM17" s="3" t="n">
-        <v>1373258048.6118</v>
+        <v>247996537.5797</v>
       </c>
       <c r="AN17" s="3" t="n">
-        <v>696707493.489363</v>
+        <v>223457351.034754</v>
       </c>
       <c r="AO17" s="3" t="n">
-        <v>316615405.129543</v>
+        <v>92864241.3686984</v>
       </c>
       <c r="AP17" s="3"/>
     </row>
@@ -6520,86 +4801,88 @@
         <f>O18</f>
       </c>
       <c r="N18" t="s">
-        <v>64</v>
-      </c>
-      <c r="O18"/>
+        <v>51</v>
+      </c>
+      <c r="O18" t="s">
+        <v>54</v>
+      </c>
       <c r="P18" s="3" t="n">
-        <v>115034630.583154</v>
+        <v>1281523733.1172</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>52119219.6496753</v>
+        <v>1561127810.58912</v>
       </c>
       <c r="R18" s="3" t="n">
-        <v>86286878.1983019</v>
+        <v>1636660974.0101</v>
       </c>
       <c r="S18" s="3" t="n">
-        <v>215333981.404533</v>
+        <v>2263713302.0126</v>
       </c>
       <c r="T18" s="3" t="n">
-        <v>192927881.641423</v>
+        <v>2287961041.91545</v>
       </c>
       <c r="U18" s="3" t="n">
-        <v>228571189.631436</v>
+        <v>3387765739.06009</v>
       </c>
       <c r="V18" s="3" t="n">
-        <v>531718497.303898</v>
+        <v>3276688338.23931</v>
       </c>
       <c r="W18" s="3" t="n">
-        <v>16506082.5774979</v>
+        <v>3306820614.68933</v>
       </c>
       <c r="X18" s="3" t="n">
-        <v>70899124.6765447</v>
+        <v>3134989303.53976</v>
       </c>
       <c r="Y18" s="3" t="n">
-        <v>9923101.65838157</v>
+        <v>7430526670.59869</v>
       </c>
       <c r="Z18" s="3" t="n">
-        <v>26838841.5992035</v>
+        <v>7542079955.84003</v>
       </c>
       <c r="AA18" s="3" t="n">
-        <v>-833718.032775283</v>
+        <v>6047315426.14257</v>
       </c>
       <c r="AB18" s="3" t="n">
-        <v>342416.323724649</v>
+        <v>2709933327.70174</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>63108.0402694654</v>
+        <v>1907247339.83165</v>
       </c>
       <c r="AD18" s="3" t="n">
-        <v>2734744.56375269</v>
+        <v>2001050544.33985</v>
       </c>
       <c r="AE18" s="3" t="n">
-        <v>317490.672699617</v>
+        <v>2011161932.33462</v>
       </c>
       <c r="AF18" s="3" t="n">
-        <v>-2713175.46147916</v>
+        <v>2539728848.17029</v>
       </c>
       <c r="AG18" s="3" t="n">
-        <v>15955061.9303407</v>
+        <v>2184173962.92358</v>
       </c>
       <c r="AH18" s="3" t="n">
-        <v>465252.453275015</v>
+        <v>2154501884.70694</v>
       </c>
       <c r="AI18" s="3" t="n">
-        <v>0</v>
+        <v>2351105577.54175</v>
       </c>
       <c r="AJ18" s="3" t="n">
-        <v>57869.5363524691</v>
+        <v>1901544610.81401</v>
       </c>
       <c r="AK18" s="3" t="n">
-        <v>-55944.0879925852</v>
+        <v>1878412756.43886</v>
       </c>
       <c r="AL18" s="3" t="n">
-        <v>0</v>
+        <v>1679045495.97109</v>
       </c>
       <c r="AM18" s="3" t="n">
-        <v>-45108</v>
+        <v>2215150196.7289</v>
       </c>
       <c r="AN18" s="3" t="n">
-        <v>0</v>
+        <v>2286045041.57241</v>
       </c>
       <c r="AO18" s="3" t="n">
-        <v>0</v>
+        <v>1029057937.55572</v>
       </c>
       <c r="AP18" s="3"/>
     </row>
@@ -6611,88 +4894,88 @@
         <f>O19</f>
       </c>
       <c r="N19" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="O19" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="P19" s="3" t="n">
-        <v>4304872050.44345</v>
+        <v>1197608077.10039</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>4016849681.16045</v>
+        <v>1569068902.46792</v>
       </c>
       <c r="R19" s="3" t="n">
-        <v>6443655531.4508</v>
+        <v>3010794123.4374</v>
       </c>
       <c r="S19" s="3" t="n">
-        <v>14117139186.346</v>
+        <v>4193797396.91822</v>
       </c>
       <c r="T19" s="3" t="n">
-        <v>11297457954.8925</v>
+        <v>6014657643.03084</v>
       </c>
       <c r="U19" s="3" t="n">
-        <v>19536693275.9922</v>
+        <v>10533107344.4589</v>
       </c>
       <c r="V19" s="3" t="n">
-        <v>15410070592.4303</v>
+        <v>8558475181.7541</v>
       </c>
       <c r="W19" s="3" t="n">
-        <v>29108199181.3655</v>
+        <v>19292739717.6553</v>
       </c>
       <c r="X19" s="3" t="n">
-        <v>40357651657.1012</v>
+        <v>28315993875.2866</v>
       </c>
       <c r="Y19" s="3" t="n">
-        <v>27400081442.9137</v>
+        <v>19777292519.924</v>
       </c>
       <c r="Z19" s="3" t="n">
-        <v>22778204463.4307</v>
+        <v>16299864543.27</v>
       </c>
       <c r="AA19" s="3" t="n">
-        <v>17385928793.5011</v>
+        <v>11599896662.8065</v>
       </c>
       <c r="AB19" s="3" t="n">
-        <v>9149705704.70515</v>
+        <v>6866846228.17874</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>6427264900.55487</v>
+        <v>4706357971.38333</v>
       </c>
       <c r="AD19" s="3" t="n">
-        <v>5104018490.6468</v>
+        <v>2624476377.65303</v>
       </c>
       <c r="AE19" s="3" t="n">
-        <v>7251043696.37539</v>
+        <v>3292427009.6654</v>
       </c>
       <c r="AF19" s="3" t="n">
-        <v>6900612912.91168</v>
+        <v>2632100003.95629</v>
       </c>
       <c r="AG19" s="3" t="n">
-        <v>8102868051.00183</v>
+        <v>4425661396.74567</v>
       </c>
       <c r="AH19" s="3" t="n">
-        <v>9977417258.8347</v>
+        <v>7584882307.6268</v>
       </c>
       <c r="AI19" s="3" t="n">
-        <v>11285407597.1716</v>
+        <v>6230988973.57272</v>
       </c>
       <c r="AJ19" s="3" t="n">
-        <v>11517319906.3846</v>
+        <v>5944786455.40632</v>
       </c>
       <c r="AK19" s="3" t="n">
-        <v>9071107517.78601</v>
+        <v>6261560768.15028</v>
       </c>
       <c r="AL19" s="3" t="n">
-        <v>8643743961.03438</v>
+        <v>6931803580.35754</v>
       </c>
       <c r="AM19" s="3" t="n">
-        <v>11456082020.0082</v>
+        <v>9032366332.7949</v>
       </c>
       <c r="AN19" s="3" t="n">
-        <v>12516297674.9224</v>
+        <v>7711711238.96279</v>
       </c>
       <c r="AO19" s="3" t="n">
-        <v>5356848903.89079</v>
+        <v>4572640540.86937</v>
       </c>
       <c r="AP19" s="3"/>
     </row>
@@ -6704,89 +4987,77 @@
         <f>O20</f>
       </c>
       <c r="N20" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="O20" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="P20" s="3" t="n">
-        <v>1553531994.57809</v>
+        <v>168731446.559945</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>1525779069.87814</v>
+        <v>115771941.331553</v>
       </c>
       <c r="R20" s="3" t="n">
-        <v>1604566792.54129</v>
+        <v>105585889.589666</v>
       </c>
       <c r="S20" s="3" t="n">
-        <v>1865290610.60662</v>
+        <v>148269147.778498</v>
       </c>
       <c r="T20" s="3" t="n">
-        <v>1972840374.28987</v>
+        <v>105976656.605748</v>
       </c>
       <c r="U20" s="3" t="n">
-        <v>1794300674.65717</v>
+        <v>73896735.5907502</v>
       </c>
       <c r="V20" s="3" t="n">
-        <v>1868965807.2093</v>
+        <v>102526958.088049</v>
       </c>
       <c r="W20" s="3" t="n">
-        <v>1774974382.03584</v>
+        <v>58751533.3634328</v>
       </c>
       <c r="X20" s="3" t="n">
-        <v>1922123749.20061</v>
+        <v>31591.4965635804</v>
       </c>
       <c r="Y20" s="3" t="n">
-        <v>2916193950.61967</v>
+        <v>-5950.64902529315</v>
       </c>
       <c r="Z20" s="3" t="n">
-        <v>1802869671.43178</v>
+        <v>189993.157941112</v>
       </c>
       <c r="AA20" s="3" t="n">
-        <v>1672005514.06537</v>
+        <v>1828741.65760369</v>
       </c>
       <c r="AB20" s="3" t="n">
-        <v>1759897012.35811</v>
+        <v>-7368.55122908507</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>1476476947.34311</v>
-      </c>
-      <c r="AD20" s="3" t="n">
-        <v>1860268197.68379</v>
-      </c>
-      <c r="AE20" s="3" t="n">
-        <v>1662685738.09094</v>
-      </c>
-      <c r="AF20" s="3" t="n">
-        <v>1997992038.61297</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
       <c r="AG20" s="3" t="n">
-        <v>1921624139.33481</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="3" t="n">
-        <v>1873487329.55221</v>
-      </c>
-      <c r="AI20" s="3" t="n">
-        <v>412906219.363322</v>
-      </c>
-      <c r="AJ20" s="3" t="n">
-        <v>255251961.115023</v>
-      </c>
+        <v>107998.917501105</v>
+      </c>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
       <c r="AK20" s="3" t="n">
-        <v>170762131.935677</v>
+        <v>352679.695073571</v>
       </c>
       <c r="AL20" s="3" t="n">
-        <v>102823375.88631</v>
+        <v>-195507.097101487</v>
       </c>
       <c r="AM20" s="3" t="n">
-        <v>120730833.9651</v>
+        <v>759.78</v>
       </c>
       <c r="AN20" s="3" t="n">
-        <v>149675122.786953</v>
-      </c>
-      <c r="AO20" s="3" t="n">
-        <v>312977649.926545</v>
-      </c>
+        <v>-69005.1882701204</v>
+      </c>
+      <c r="AO20" s="3"/>
       <c r="AP20" s="3"/>
     </row>
     <row r="21">
@@ -6796,89 +5067,63 @@
       <c r="B21" t="str">
         <f>O21</f>
       </c>
-      <c r="N21" t="s">
-        <v>70</v>
-      </c>
-      <c r="O21" t="s">
-        <v>70</v>
-      </c>
-      <c r="P21" s="3" t="n">
-        <v>56011378.1680635</v>
-      </c>
-      <c r="Q21" s="3" t="n">
-        <v>3158862.03250407</v>
-      </c>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
       <c r="R21" s="3" t="n">
-        <v>13372715.177317</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3" t="n">
-        <v>5440010.93889263</v>
-      </c>
-      <c r="T21" s="3" t="n">
-        <v>40834394.5571149</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T21" s="3"/>
       <c r="U21" s="3" t="n">
-        <v>47809103.1454761</v>
+        <v>0</v>
       </c>
       <c r="V21" s="3" t="n">
-        <v>162984518.585656</v>
-      </c>
-      <c r="W21" s="3" t="n">
-        <v>40354614.9861797</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W21" s="3"/>
       <c r="X21" s="3" t="n">
-        <v>120432557.701488</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="3" t="n">
-        <v>511518122.87424</v>
-      </c>
-      <c r="Z21" s="3" t="n">
-        <v>494767844.231863</v>
-      </c>
-      <c r="AA21" s="3" t="n">
-        <v>534911138.343743</v>
-      </c>
-      <c r="AB21" s="3" t="n">
-        <v>844629177.968392</v>
-      </c>
-      <c r="AC21" s="3" t="n">
-        <v>806666497.549965</v>
-      </c>
-      <c r="AD21" s="3" t="n">
-        <v>747960998.880378</v>
-      </c>
-      <c r="AE21" s="3" t="n">
-        <v>1404938292.89004</v>
-      </c>
-      <c r="AF21" s="3" t="n">
-        <v>1199441704.63806</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
       <c r="AG21" s="3" t="n">
-        <v>1343324655.52929</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="3" t="n">
-        <v>3875965017.32474</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="3" t="n">
-        <v>3783014321.31279</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="3" t="n">
-        <v>2446135733.28177</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="3" t="n">
-        <v>2119856080.7745</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="3" t="n">
-        <v>2320748716.37304</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="3" t="n">
-        <v>2786157440.2964</v>
+        <v>0</v>
       </c>
       <c r="AN21" s="3" t="n">
-        <v>1173073571.80817</v>
+        <v>95951.5198619841</v>
       </c>
       <c r="AO21" s="3" t="n">
-        <v>175384128.023234</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="3"/>
     </row>
@@ -6921,4 +5166,2693 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>O1</f>
+      </c>
+      <c r="N1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>O2</f>
+      </c>
+      <c r="N2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>918102644.4375</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>794034064</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>837624513.63</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>563745748</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>1001705206.8106</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>1855581221.07</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>2058966485.3981</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3177438429.1835</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>5313498590.7222</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>5914563294.7151</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>3866587568.3553</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>3607891341.7472</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>1988861380.7164</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>1399819590.0819</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>1177588273.678</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>903882724.8373</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>659332260.8983</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>703197678.092</v>
+      </c>
+      <c r="AH2" s="4" t="n">
+        <v>1262855337.5937</v>
+      </c>
+      <c r="AI2" s="4" t="n">
+        <v>1079045285.3172</v>
+      </c>
+      <c r="AJ2" s="4" t="n">
+        <v>1328060409.7981</v>
+      </c>
+      <c r="AK2" s="4" t="n">
+        <v>1685668652.0944</v>
+      </c>
+      <c r="AL2" s="4" t="n">
+        <v>2288058041.4532</v>
+      </c>
+      <c r="AM2" s="4" t="n">
+        <v>1671527228.4074</v>
+      </c>
+      <c r="AN2" s="4" t="n">
+        <v>1817239808.51</v>
+      </c>
+      <c r="AO2" s="4" t="n">
+        <v>1699600042.91</v>
+      </c>
+      <c r="AP2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>O3</f>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>94727644</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>33511794</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>55083461</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>61875178</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>135973299.62</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>321298527.9733</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>337720027.9936</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>193825232.5718</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>641225388.1833</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>469345012.2069</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>268926257.6103</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>202154341.2706</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>137472227.1321</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>68155625.5759</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>61863492.6494</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>91062197.0191</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>133661346.7064</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>52129322.8201</v>
+      </c>
+      <c r="AH3" s="4" t="n">
+        <v>105581249.7747</v>
+      </c>
+      <c r="AI3" s="4" t="n">
+        <v>177929726.0725</v>
+      </c>
+      <c r="AJ3" s="4" t="n">
+        <v>59545934.6124</v>
+      </c>
+      <c r="AK3" s="4" t="n">
+        <v>92063146.3974</v>
+      </c>
+      <c r="AL3" s="4" t="n">
+        <v>45513772.8618</v>
+      </c>
+      <c r="AM3" s="4" t="n">
+        <v>9940886.1433</v>
+      </c>
+      <c r="AN3" s="4" t="n">
+        <v>23448433.16</v>
+      </c>
+      <c r="AO3" s="4" t="n">
+        <v>10355563.14</v>
+      </c>
+      <c r="AP3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>O4</f>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4" t="n">
+        <v>13216.3203</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>114874</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>1644916.0725</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>16395156.2602</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>59245504.3092</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>467640427.0237</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>185434621.01</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>815457782.5238</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>-229790836.3075</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>-554102.2528</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>-425797.7201</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>36127.37</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>-225049.56</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>O5</f>
+      </c>
+      <c r="N5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>110442344</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>18263732</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>33319536</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>47616371</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>367646486.05</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1605735388.54</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>3512230596.49</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>4189754945.21</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>4615283917.0833</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>1391274218.8866</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>4831923428.9124</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>2914783627.1127</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1545113847.3812</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>711305058.5</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>448485788.21</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>87175500.24</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>618765190.3039</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>356663164.7604</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>586929961.0419</v>
+      </c>
+      <c r="AI5" s="4" t="n">
+        <v>683971805.4223</v>
+      </c>
+      <c r="AJ5" s="4" t="n">
+        <v>382979985.0289</v>
+      </c>
+      <c r="AK5" s="4" t="n">
+        <v>100907526.9636</v>
+      </c>
+      <c r="AL5" s="4" t="n">
+        <v>357708268.3574</v>
+      </c>
+      <c r="AM5" s="4" t="n">
+        <v>1373258048.6118</v>
+      </c>
+      <c r="AN5" s="4" t="n">
+        <v>715313755.45</v>
+      </c>
+      <c r="AO5" s="4" t="n">
+        <v>332203662.55</v>
+      </c>
+      <c r="AP5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>O6</f>
+      </c>
+      <c r="N6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6" s="4" t="n">
+        <v>68425203</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>31753144.6509</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>53396500.1808</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>135811937.7309</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>124651609.932</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>152174822.4077</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>365499296.5236</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>11658511.0141</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>51116834.3189</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>7227516.7441</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>19717435.2052</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>-624793.3611</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>261265.3099</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>49025.44</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>2163241.87</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>253742.8527</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>-2185743.2192</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>13070420.1911</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>389597</v>
+      </c>
+      <c r="AI6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AK6" s="4" t="n">
+        <v>-50000</v>
+      </c>
+      <c r="AL6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="4" t="n">
+        <v>-45108</v>
+      </c>
+      <c r="AN6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>O7</f>
+      </c>
+      <c r="N7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>2560635370.8216</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>2447227909.86</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>3987496835.3751</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>8903731847.6577</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>7299340614.9237</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>13006857226.8521</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>10592766641.5057</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>20559588210.1789</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>29097050248.0463</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>19956920148.1567</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>16734245736.2922</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>13029120709.5249</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>6981269673.2177</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>4993016553.8466</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>4037388592.18</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>5795132489.802</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>5559156824.49</v>
+      </c>
+      <c r="AG7" s="4" t="n">
+        <v>6637886499.095</v>
+      </c>
+      <c r="AH7" s="4" t="n">
+        <v>8354973314.8693</v>
+      </c>
+      <c r="AI7" s="4" t="n">
+        <v>9625000282.2858</v>
+      </c>
+      <c r="AJ7" s="4" t="n">
+        <v>9951107812.7838</v>
+      </c>
+      <c r="AK7" s="4" t="n">
+        <v>8107297699.6142</v>
+      </c>
+      <c r="AL7" s="4" t="n">
+        <v>8265619993.1113</v>
+      </c>
+      <c r="AM7" s="4" t="n">
+        <v>11456082020.0082</v>
+      </c>
+      <c r="AN7" s="4" t="n">
+        <v>12850557770.4333</v>
+      </c>
+      <c r="AO7" s="4" t="n">
+        <v>5620588249.24</v>
+      </c>
+      <c r="AP7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>O8</f>
+      </c>
+      <c r="N8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>924076007</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>929566556</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>992946469</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>1176445680.3584</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>1274661426.3414</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>1194583564.7627</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>1284713041.2528</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>1253692890.8208</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>1385812330.9217</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>2124017402.2952</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>1324497027.8796</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>1253011094.6901</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>1342809926.0115</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>1147000155.357</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>1471512223.8462</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>1328840997.877</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>1609589063.596</v>
+      </c>
+      <c r="AG8" s="4" t="n">
+        <v>1574198524.5889</v>
+      </c>
+      <c r="AH8" s="4" t="n">
+        <v>1568836527.3382</v>
+      </c>
+      <c r="AI8" s="4" t="n">
+        <v>352155865.3252</v>
+      </c>
+      <c r="AJ8" s="4" t="n">
+        <v>220540872.8008</v>
+      </c>
+      <c r="AK8" s="4" t="n">
+        <v>152618567.9873</v>
+      </c>
+      <c r="AL8" s="4" t="n">
+        <v>98325327.0014</v>
+      </c>
+      <c r="AM8" s="4" t="n">
+        <v>120730833.9651</v>
+      </c>
+      <c r="AN8" s="4" t="n">
+        <v>153672344.82</v>
+      </c>
+      <c r="AO8" s="4" t="n">
+        <v>328386805.94</v>
+      </c>
+      <c r="AP8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>O9</f>
+      </c>
+      <c r="N9" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>33316836</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>1924507</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>8275374</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>3431035</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>26383294</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>31829653.5638</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>112034332.4322</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>28503112.1756</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>86829437.2704</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>372565547.0698</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>363486362.636</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>400865658.2647</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>644456144.8827</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>626658343.4818</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>591653264.9341</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>1122845743.0706</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>966274245.7906</v>
+      </c>
+      <c r="AG9" s="4" t="n">
+        <v>1100454374.7614</v>
+      </c>
+      <c r="AH9" s="4" t="n">
+        <v>3245688082.2981</v>
+      </c>
+      <c r="AI9" s="4" t="n">
+        <v>3226424353.4857</v>
+      </c>
+      <c r="AJ9" s="4" t="n">
+        <v>2113491732.8376</v>
+      </c>
+      <c r="AK9" s="4" t="n">
+        <v>1894620286.8259</v>
+      </c>
+      <c r="AL9" s="4" t="n">
+        <v>2219226654.0418</v>
+      </c>
+      <c r="AM9" s="4" t="n">
+        <v>2786157440.2964</v>
+      </c>
+      <c r="AN9" s="4" t="n">
+        <v>1204401660.54</v>
+      </c>
+      <c r="AO9" s="4" t="n">
+        <v>184018998.25</v>
+      </c>
+      <c r="AP9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>O10</f>
+      </c>
+      <c r="N10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="4" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="4" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="4" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="4" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="4" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="4" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="4" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="4" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="4" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="4" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="4" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="4" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="4" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="4" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="4" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="4" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="4" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="4" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="4" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="4" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="4" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="4" t="str">
+        <f>Sum(AK2:AK9)</f>
+      </c>
+      <c r="AL10" s="4" t="str">
+        <f>Sum(AL2:AL9)</f>
+      </c>
+      <c r="AM10" s="4" t="str">
+        <f>Sum(AM2:AM9)</f>
+      </c>
+      <c r="AN10" s="4" t="str">
+        <f>Sum(AN2:AN9)</f>
+      </c>
+      <c r="AO10" s="4" t="str">
+        <f>Sum(AO2:AO9)</f>
+      </c>
+      <c r="AP10" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>O13</f>
+      </c>
+      <c r="N13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" t="s">
+        <v>27</v>
+      </c>
+      <c r="V13" t="s">
+        <v>28</v>
+      </c>
+      <c r="W13" t="s">
+        <v>29</v>
+      </c>
+      <c r="X13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>O14</f>
+      </c>
+      <c r="N14" t="s">
+        <v>61</v>
+      </c>
+      <c r="O14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="4" t="n">
+        <v>1543489736.38097</v>
+      </c>
+      <c r="Q14" s="4" t="n">
+        <v>1303317710.60563</v>
+      </c>
+      <c r="R14" s="4" t="n">
+        <v>1353571940.83466</v>
+      </c>
+      <c r="S14" s="4" t="n">
+        <v>893836126.962916</v>
+      </c>
+      <c r="T14" s="4" t="n">
+        <v>1550375993.4154</v>
+      </c>
+      <c r="U14" s="4" t="n">
+        <v>2787139163.01742</v>
+      </c>
+      <c r="V14" s="4" t="n">
+        <v>2995328790.03579</v>
+      </c>
+      <c r="W14" s="4" t="n">
+        <v>4498607157.77408</v>
+      </c>
+      <c r="X14" s="4" t="n">
+        <v>7369830390.94359</v>
+      </c>
+      <c r="Y14" s="4" t="n">
+        <v>8120467224.97058</v>
+      </c>
+      <c r="Z14" s="4" t="n">
+        <v>5263094829.35028</v>
+      </c>
+      <c r="AA14" s="4" t="n">
+        <v>4814334241.0244</v>
+      </c>
+      <c r="AB14" s="4" t="n">
+        <v>2606617015.64399</v>
+      </c>
+      <c r="AC14" s="4" t="n">
+        <v>1801918984.52875</v>
+      </c>
+      <c r="AD14" s="4" t="n">
+        <v>1488693046.50608</v>
+      </c>
+      <c r="AE14" s="4" t="n">
+        <v>1130965192.89726</v>
+      </c>
+      <c r="AF14" s="4" t="n">
+        <v>818432876.980667</v>
+      </c>
+      <c r="AG14" s="4" t="n">
+        <v>858393405.811802</v>
+      </c>
+      <c r="AH14" s="4" t="n">
+        <v>1508087957.41989</v>
+      </c>
+      <c r="AI14" s="4" t="n">
+        <v>1265191221.13926</v>
+      </c>
+      <c r="AJ14" s="4" t="n">
+        <v>1537084803.26172</v>
+      </c>
+      <c r="AK14" s="4" t="n">
+        <v>1886063907.98223</v>
+      </c>
+      <c r="AL14" s="4" t="n">
+        <v>2392728905.36827</v>
+      </c>
+      <c r="AM14" s="4" t="n">
+        <v>1671527228.4074</v>
+      </c>
+      <c r="AN14" s="4" t="n">
+        <v>1769970984.63402</v>
+      </c>
+      <c r="AO14" s="4" t="n">
+        <v>1619848354.51098</v>
+      </c>
+      <c r="AP14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>O15</f>
+      </c>
+      <c r="N15" t="s">
+        <v>61</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" s="4" t="n">
+        <v>159253594.520611</v>
+      </c>
+      <c r="Q15" s="4" t="n">
+        <v>55005844.9814408</v>
+      </c>
+      <c r="R15" s="4" t="n">
+        <v>89012947.9264441</v>
+      </c>
+      <c r="S15" s="4" t="n">
+        <v>98104987.318966</v>
+      </c>
+      <c r="T15" s="4" t="n">
+        <v>210450877.207216</v>
+      </c>
+      <c r="U15" s="4" t="n">
+        <v>482600114.813542</v>
+      </c>
+      <c r="V15" s="4" t="n">
+        <v>491305968.307364</v>
+      </c>
+      <c r="W15" s="4" t="n">
+        <v>274417143.884291</v>
+      </c>
+      <c r="X15" s="4" t="n">
+        <v>889380560.207428</v>
+      </c>
+      <c r="Y15" s="4" t="n">
+        <v>644392594.840451</v>
+      </c>
+      <c r="Z15" s="4" t="n">
+        <v>366055176.789218</v>
+      </c>
+      <c r="AA15" s="4" t="n">
+        <v>269752737.808193</v>
+      </c>
+      <c r="AB15" s="4" t="n">
+        <v>180172157.745821</v>
+      </c>
+      <c r="AC15" s="4" t="n">
+        <v>87733388.2864591</v>
+      </c>
+      <c r="AD15" s="4" t="n">
+        <v>78207089.3522881</v>
+      </c>
+      <c r="AE15" s="4" t="n">
+        <v>113939753.894393</v>
+      </c>
+      <c r="AF15" s="4" t="n">
+        <v>165914588.157704</v>
+      </c>
+      <c r="AG15" s="4" t="n">
+        <v>63634264.3787202</v>
+      </c>
+      <c r="AH15" s="4" t="n">
+        <v>126083967.477987</v>
+      </c>
+      <c r="AI15" s="4" t="n">
+        <v>208624355.687226</v>
+      </c>
+      <c r="AJ15" s="4" t="n">
+        <v>68917912.5538806</v>
+      </c>
+      <c r="AK15" s="4" t="n">
+        <v>103007775.258608</v>
+      </c>
+      <c r="AL15" s="4" t="n">
+        <v>47595872.9830246</v>
+      </c>
+      <c r="AM15" s="4" t="n">
+        <v>9940886.1433</v>
+      </c>
+      <c r="AN15" s="4" t="n">
+        <v>22838508.2331866</v>
+      </c>
+      <c r="AO15" s="4" t="n">
+        <v>9869640.79127871</v>
+      </c>
+      <c r="AP15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>O16</f>
+      </c>
+      <c r="N16" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4" t="n">
+        <v>21357.111722575</v>
+      </c>
+      <c r="S16" s="4" t="n">
+        <v>182136.240695403</v>
+      </c>
+      <c r="T16" s="4" t="n">
+        <v>2545897.10889796</v>
+      </c>
+      <c r="U16" s="4" t="n">
+        <v>24626020.9888543</v>
+      </c>
+      <c r="V16" s="4" t="n">
+        <v>86188758.2901693</v>
+      </c>
+      <c r="W16" s="4" t="n">
+        <v>662083819.768597</v>
+      </c>
+      <c r="X16" s="4" t="n">
+        <v>257198093.143158</v>
+      </c>
+      <c r="Y16" s="4" t="n">
+        <v>1119592075.75792</v>
+      </c>
+      <c r="Z16" s="4" t="n">
+        <v>-312785095.648698</v>
+      </c>
+      <c r="AA16" s="4" t="n">
+        <v>-739388.522546784</v>
+      </c>
+      <c r="AB16" s="4" t="n">
+        <v>-558053.765434013</v>
+      </c>
+      <c r="AC16" s="4" t="n">
+        <v>46504.9884466081</v>
+      </c>
+      <c r="AD16" s="4" t="n">
+        <v>-284504.968824838</v>
+      </c>
+      <c r="AE16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>O17</f>
+      </c>
+      <c r="N17" t="s">
+        <v>64</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="4" t="n">
+        <v>185672730.014079</v>
+      </c>
+      <c r="Q17" s="4" t="n">
+        <v>29977864.2460795</v>
+      </c>
+      <c r="R17" s="4" t="n">
+        <v>53843205.7292347</v>
+      </c>
+      <c r="S17" s="4" t="n">
+        <v>75497212.6808295</v>
+      </c>
+      <c r="T17" s="4" t="n">
+        <v>569019989.27437</v>
+      </c>
+      <c r="U17" s="4" t="n">
+        <v>2411863159.65309</v>
+      </c>
+      <c r="V17" s="4" t="n">
+        <v>5109498137.78876</v>
+      </c>
+      <c r="W17" s="4" t="n">
+        <v>5931841640.9675</v>
+      </c>
+      <c r="X17" s="4" t="n">
+        <v>6401405607.66209</v>
+      </c>
+      <c r="Y17" s="4" t="n">
+        <v>1910165828.39011</v>
+      </c>
+      <c r="Z17" s="4" t="n">
+        <v>6577083995.88702</v>
+      </c>
+      <c r="AA17" s="4" t="n">
+        <v>3889458215.88693</v>
+      </c>
+      <c r="AB17" s="4" t="n">
+        <v>2025038086.98837</v>
+      </c>
+      <c r="AC17" s="4" t="n">
+        <v>915628055.060647</v>
+      </c>
+      <c r="AD17" s="4" t="n">
+        <v>566970382.848422</v>
+      </c>
+      <c r="AE17" s="4" t="n">
+        <v>109076602.235753</v>
+      </c>
+      <c r="AF17" s="4" t="n">
+        <v>768076742.04497</v>
+      </c>
+      <c r="AG17" s="4" t="n">
+        <v>435378725.306657</v>
+      </c>
+      <c r="AH17" s="4" t="n">
+        <v>700905305.419068</v>
+      </c>
+      <c r="AI17" s="4" t="n">
+        <v>801963676.133092</v>
+      </c>
+      <c r="AJ17" s="4" t="n">
+        <v>443257483.31796</v>
+      </c>
+      <c r="AK17" s="4" t="n">
+        <v>112903591.351316</v>
+      </c>
+      <c r="AL17" s="4" t="n">
+        <v>374072203.53745</v>
+      </c>
+      <c r="AM17" s="4" t="n">
+        <v>1373258048.6118</v>
+      </c>
+      <c r="AN17" s="4" t="n">
+        <v>696707493.489363</v>
+      </c>
+      <c r="AO17" s="4" t="n">
+        <v>316615405.129543</v>
+      </c>
+      <c r="AP17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>O18</f>
+      </c>
+      <c r="N18" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18"/>
+      <c r="P18" s="4" t="n">
+        <v>115034630.583154</v>
+      </c>
+      <c r="Q18" s="4" t="n">
+        <v>52119219.6496753</v>
+      </c>
+      <c r="R18" s="4" t="n">
+        <v>86286878.1983019</v>
+      </c>
+      <c r="S18" s="4" t="n">
+        <v>215333981.404533</v>
+      </c>
+      <c r="T18" s="4" t="n">
+        <v>192927881.641423</v>
+      </c>
+      <c r="U18" s="4" t="n">
+        <v>228571189.631436</v>
+      </c>
+      <c r="V18" s="4" t="n">
+        <v>531718497.303898</v>
+      </c>
+      <c r="W18" s="4" t="n">
+        <v>16506082.5774979</v>
+      </c>
+      <c r="X18" s="4" t="n">
+        <v>70899124.6765447</v>
+      </c>
+      <c r="Y18" s="4" t="n">
+        <v>9923101.65838157</v>
+      </c>
+      <c r="Z18" s="4" t="n">
+        <v>26838841.5992035</v>
+      </c>
+      <c r="AA18" s="4" t="n">
+        <v>-833718.032775283</v>
+      </c>
+      <c r="AB18" s="4" t="n">
+        <v>342416.323724649</v>
+      </c>
+      <c r="AC18" s="4" t="n">
+        <v>63108.0402694654</v>
+      </c>
+      <c r="AD18" s="4" t="n">
+        <v>2734744.56375269</v>
+      </c>
+      <c r="AE18" s="4" t="n">
+        <v>317490.672699617</v>
+      </c>
+      <c r="AF18" s="4" t="n">
+        <v>-2713175.46147916</v>
+      </c>
+      <c r="AG18" s="4" t="n">
+        <v>15955061.9303407</v>
+      </c>
+      <c r="AH18" s="4" t="n">
+        <v>465252.453275015</v>
+      </c>
+      <c r="AI18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="4" t="n">
+        <v>57869.5363524691</v>
+      </c>
+      <c r="AK18" s="4" t="n">
+        <v>-55944.0879925852</v>
+      </c>
+      <c r="AL18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="4" t="n">
+        <v>-45108</v>
+      </c>
+      <c r="AN18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <f>N19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>O19</f>
+      </c>
+      <c r="N19" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" s="4" t="n">
+        <v>4304872050.44345</v>
+      </c>
+      <c r="Q19" s="4" t="n">
+        <v>4016849681.16045</v>
+      </c>
+      <c r="R19" s="4" t="n">
+        <v>6443655531.4508</v>
+      </c>
+      <c r="S19" s="4" t="n">
+        <v>14117139186.346</v>
+      </c>
+      <c r="T19" s="4" t="n">
+        <v>11297457954.8925</v>
+      </c>
+      <c r="U19" s="4" t="n">
+        <v>19536693275.9922</v>
+      </c>
+      <c r="V19" s="4" t="n">
+        <v>15410070592.4303</v>
+      </c>
+      <c r="W19" s="4" t="n">
+        <v>29108199181.3655</v>
+      </c>
+      <c r="X19" s="4" t="n">
+        <v>40357651657.1012</v>
+      </c>
+      <c r="Y19" s="4" t="n">
+        <v>27400081442.9137</v>
+      </c>
+      <c r="Z19" s="4" t="n">
+        <v>22778204463.4307</v>
+      </c>
+      <c r="AA19" s="4" t="n">
+        <v>17385928793.5011</v>
+      </c>
+      <c r="AB19" s="4" t="n">
+        <v>9149705704.70515</v>
+      </c>
+      <c r="AC19" s="4" t="n">
+        <v>6427264900.55487</v>
+      </c>
+      <c r="AD19" s="4" t="n">
+        <v>5104018490.6468</v>
+      </c>
+      <c r="AE19" s="4" t="n">
+        <v>7251043696.37539</v>
+      </c>
+      <c r="AF19" s="4" t="n">
+        <v>6900612912.91168</v>
+      </c>
+      <c r="AG19" s="4" t="n">
+        <v>8102868051.00183</v>
+      </c>
+      <c r="AH19" s="4" t="n">
+        <v>9977417258.8347</v>
+      </c>
+      <c r="AI19" s="4" t="n">
+        <v>11285407597.1716</v>
+      </c>
+      <c r="AJ19" s="4" t="n">
+        <v>11517319906.3846</v>
+      </c>
+      <c r="AK19" s="4" t="n">
+        <v>9071107517.78601</v>
+      </c>
+      <c r="AL19" s="4" t="n">
+        <v>8643743961.03438</v>
+      </c>
+      <c r="AM19" s="4" t="n">
+        <v>11456082020.0082</v>
+      </c>
+      <c r="AN19" s="4" t="n">
+        <v>12516297674.9224</v>
+      </c>
+      <c r="AO19" s="4" t="n">
+        <v>5356848903.89079</v>
+      </c>
+      <c r="AP19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <f>N20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>O20</f>
+      </c>
+      <c r="N20" t="s">
+        <v>67</v>
+      </c>
+      <c r="O20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" s="4" t="n">
+        <v>1553531994.57809</v>
+      </c>
+      <c r="Q20" s="4" t="n">
+        <v>1525779069.87814</v>
+      </c>
+      <c r="R20" s="4" t="n">
+        <v>1604566792.54129</v>
+      </c>
+      <c r="S20" s="4" t="n">
+        <v>1865290610.60662</v>
+      </c>
+      <c r="T20" s="4" t="n">
+        <v>1972840374.28987</v>
+      </c>
+      <c r="U20" s="4" t="n">
+        <v>1794300674.65717</v>
+      </c>
+      <c r="V20" s="4" t="n">
+        <v>1868965807.2093</v>
+      </c>
+      <c r="W20" s="4" t="n">
+        <v>1774974382.03584</v>
+      </c>
+      <c r="X20" s="4" t="n">
+        <v>1922123749.20061</v>
+      </c>
+      <c r="Y20" s="4" t="n">
+        <v>2916193950.61967</v>
+      </c>
+      <c r="Z20" s="4" t="n">
+        <v>1802869671.43178</v>
+      </c>
+      <c r="AA20" s="4" t="n">
+        <v>1672005514.06537</v>
+      </c>
+      <c r="AB20" s="4" t="n">
+        <v>1759897012.35811</v>
+      </c>
+      <c r="AC20" s="4" t="n">
+        <v>1476476947.34311</v>
+      </c>
+      <c r="AD20" s="4" t="n">
+        <v>1860268197.68379</v>
+      </c>
+      <c r="AE20" s="4" t="n">
+        <v>1662685738.09094</v>
+      </c>
+      <c r="AF20" s="4" t="n">
+        <v>1997992038.61297</v>
+      </c>
+      <c r="AG20" s="4" t="n">
+        <v>1921624139.33481</v>
+      </c>
+      <c r="AH20" s="4" t="n">
+        <v>1873487329.55221</v>
+      </c>
+      <c r="AI20" s="4" t="n">
+        <v>412906219.363322</v>
+      </c>
+      <c r="AJ20" s="4" t="n">
+        <v>255251961.115023</v>
+      </c>
+      <c r="AK20" s="4" t="n">
+        <v>170762131.935677</v>
+      </c>
+      <c r="AL20" s="4" t="n">
+        <v>102823375.88631</v>
+      </c>
+      <c r="AM20" s="4" t="n">
+        <v>120730833.9651</v>
+      </c>
+      <c r="AN20" s="4" t="n">
+        <v>149675122.786953</v>
+      </c>
+      <c r="AO20" s="4" t="n">
+        <v>312977649.926545</v>
+      </c>
+      <c r="AP20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <f>N21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>O21</f>
+      </c>
+      <c r="N21" t="s">
+        <v>70</v>
+      </c>
+      <c r="O21" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" s="4" t="n">
+        <v>56011378.1680635</v>
+      </c>
+      <c r="Q21" s="4" t="n">
+        <v>3158862.03250407</v>
+      </c>
+      <c r="R21" s="4" t="n">
+        <v>13372715.177317</v>
+      </c>
+      <c r="S21" s="4" t="n">
+        <v>5440010.93889263</v>
+      </c>
+      <c r="T21" s="4" t="n">
+        <v>40834394.5571149</v>
+      </c>
+      <c r="U21" s="4" t="n">
+        <v>47809103.1454761</v>
+      </c>
+      <c r="V21" s="4" t="n">
+        <v>162984518.585656</v>
+      </c>
+      <c r="W21" s="4" t="n">
+        <v>40354614.9861797</v>
+      </c>
+      <c r="X21" s="4" t="n">
+        <v>120432557.701488</v>
+      </c>
+      <c r="Y21" s="4" t="n">
+        <v>511518122.87424</v>
+      </c>
+      <c r="Z21" s="4" t="n">
+        <v>494767844.231863</v>
+      </c>
+      <c r="AA21" s="4" t="n">
+        <v>534911138.343743</v>
+      </c>
+      <c r="AB21" s="4" t="n">
+        <v>844629177.968392</v>
+      </c>
+      <c r="AC21" s="4" t="n">
+        <v>806666497.549965</v>
+      </c>
+      <c r="AD21" s="4" t="n">
+        <v>747960998.880378</v>
+      </c>
+      <c r="AE21" s="4" t="n">
+        <v>1404938292.89004</v>
+      </c>
+      <c r="AF21" s="4" t="n">
+        <v>1199441704.63806</v>
+      </c>
+      <c r="AG21" s="4" t="n">
+        <v>1343324655.52929</v>
+      </c>
+      <c r="AH21" s="4" t="n">
+        <v>3875965017.32474</v>
+      </c>
+      <c r="AI21" s="4" t="n">
+        <v>3783014321.31279</v>
+      </c>
+      <c r="AJ21" s="4" t="n">
+        <v>2446135733.28177</v>
+      </c>
+      <c r="AK21" s="4" t="n">
+        <v>2119856080.7745</v>
+      </c>
+      <c r="AL21" s="4" t="n">
+        <v>2320748716.37304</v>
+      </c>
+      <c r="AM21" s="4" t="n">
+        <v>2786157440.2964</v>
+      </c>
+      <c r="AN21" s="4" t="n">
+        <v>1173073571.80817</v>
+      </c>
+      <c r="AO21" s="4" t="n">
+        <v>175384128.023234</v>
+      </c>
+      <c r="AP21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>O22</f>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>4038541300.9976</v>
+      </c>
+      <c r="O2" s="5" t="n">
+        <v>3281198385.6609</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>5095153099.1851</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>10001346842.3962</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>8693628055.3009</v>
+      </c>
+      <c r="S2" s="5" t="n">
+        <v>14156294029.3569</v>
+      </c>
+      <c r="T2" s="5" t="n">
+        <v>13057148747.4909</v>
+      </c>
+      <c r="U2" s="5" t="n">
+        <v>24650520727.9551</v>
+      </c>
+      <c r="V2" s="5" t="n">
+        <v>36313052463.9972</v>
+      </c>
+      <c r="W2" s="5" t="n">
+        <v>25683265043.9522</v>
+      </c>
+      <c r="X2" s="5" t="n">
+        <v>24232514874.0921</v>
+      </c>
+      <c r="Y2" s="5" t="n">
+        <v>19118866721.7918</v>
+      </c>
+      <c r="Z2" s="5" t="n">
+        <v>11535146175.9403</v>
+      </c>
+      <c r="AA2" s="5" t="n">
+        <v>7614482060.2671</v>
+      </c>
+      <c r="AB2" s="5" t="n">
+        <v>6777104669.9211</v>
+      </c>
+      <c r="AC2" s="5" t="n">
+        <v>8282001853.3018</v>
+      </c>
+      <c r="AD2" s="5" t="n">
+        <v>8261185317.558</v>
+      </c>
+      <c r="AE2" s="5" t="n">
+        <v>9159161927.6319</v>
+      </c>
+      <c r="AF2" s="5" t="n">
+        <v>12114694877.373</v>
+      </c>
+      <c r="AG2" s="5" t="n">
+        <v>12603852663.8662</v>
+      </c>
+      <c r="AH2" s="5" t="n">
+        <v>11666547408.4796</v>
+      </c>
+      <c r="AI2" s="5" t="n">
+        <v>9376781213.9636</v>
+      </c>
+      <c r="AJ2" s="5" t="n">
+        <v>10887336806.9835</v>
+      </c>
+      <c r="AK2" s="5" t="n">
+        <v>13910538906.4022</v>
+      </c>
+      <c r="AL2" s="5" t="n">
+        <v>12930033043.5532</v>
+      </c>
+      <c r="AM2" s="5" t="n">
+        <v>6314893233.27</v>
+      </c>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <v>209449385</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>412702576</v>
+      </c>
+      <c r="P3" s="5" t="n">
+        <v>390143838.8008</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>241577284</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>493535801.77</v>
+      </c>
+      <c r="S3" s="5" t="n">
+        <v>1036489709.5125</v>
+      </c>
+      <c r="T3" s="5" t="n">
+        <v>3459372735.7169</v>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>3481653834.3848</v>
+      </c>
+      <c r="V3" s="5" t="n">
+        <v>3339913637.2595</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>3310707991.0317</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>1803390514.8573</v>
+      </c>
+      <c r="Y3" s="5" t="n">
+        <v>1223611779.1763</v>
+      </c>
+      <c r="Z3" s="5" t="n">
+        <v>161321377.3427</v>
+      </c>
+      <c r="AA3" s="5" t="n">
+        <v>222817682.8022</v>
+      </c>
+      <c r="AB3" s="5" t="n">
+        <v>210582720.2094</v>
+      </c>
+      <c r="AC3" s="5" t="n">
+        <v>131512971.9972</v>
+      </c>
+      <c r="AD3" s="5" t="n">
+        <v>109397196.0009</v>
+      </c>
+      <c r="AE3" s="5" t="n">
+        <v>17479270.992</v>
+      </c>
+      <c r="AF3" s="5" t="n">
+        <v>283621435.0905</v>
+      </c>
+      <c r="AG3" s="5" t="n">
+        <v>123414837.7078</v>
+      </c>
+      <c r="AH3" s="5" t="n">
+        <v>379370984.1182</v>
+      </c>
+      <c r="AI3" s="5" t="n">
+        <v>468449792.8695</v>
+      </c>
+      <c r="AJ3" s="5" t="n">
+        <v>481766303.0172</v>
+      </c>
+      <c r="AK3" s="5" t="n">
+        <v>401635965.2288</v>
+      </c>
+      <c r="AL3" s="5" t="n">
+        <v>406149124.6</v>
+      </c>
+      <c r="AM3" s="5" t="n">
+        <v>181318186.61</v>
+      </c>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>461735363.2615</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>562380745.85</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>482858967.5203</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>649848545.3508</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>1044842996.6793</v>
+      </c>
+      <c r="S4" s="5" t="n">
+        <v>2991671822.5604</v>
+      </c>
+      <c r="T4" s="5" t="n">
+        <v>1806654442.6974</v>
+      </c>
+      <c r="U4" s="5" t="n">
+        <v>1749927195.8385</v>
+      </c>
+      <c r="V4" s="5" t="n">
+        <v>1723285266.2994</v>
+      </c>
+      <c r="W4" s="5" t="n">
+        <v>2057397887.6143</v>
+      </c>
+      <c r="X4" s="5" t="n">
+        <v>1143687591.6341</v>
+      </c>
+      <c r="Y4" s="5" t="n">
+        <v>1064169376.0282</v>
+      </c>
+      <c r="Z4" s="5" t="n">
+        <v>943351113.6484</v>
+      </c>
+      <c r="AA4" s="5" t="n">
+        <v>1108740736.5839</v>
+      </c>
+      <c r="AB4" s="5" t="n">
+        <v>802742437.6772</v>
+      </c>
+      <c r="AC4" s="5" t="n">
+        <v>915678570.3997</v>
+      </c>
+      <c r="AD4" s="5" t="n">
+        <v>1174010675.0071</v>
+      </c>
+      <c r="AE4" s="5" t="n">
+        <v>1260958785.685</v>
+      </c>
+      <c r="AF4" s="5" t="n">
+        <v>2726937757.4524</v>
+      </c>
+      <c r="AG4" s="5" t="n">
+        <v>2417259816.3347</v>
+      </c>
+      <c r="AH4" s="5" t="n">
+        <v>2009858355.2638</v>
+      </c>
+      <c r="AI4" s="5" t="n">
+        <v>2187894873.0497</v>
+      </c>
+      <c r="AJ4" s="5" t="n">
+        <v>1905348946.8262</v>
+      </c>
+      <c r="AK4" s="5" t="n">
+        <v>3105476477.8012</v>
+      </c>
+      <c r="AL4" s="5" t="n">
+        <v>3428451604.7601</v>
+      </c>
+      <c r="AM4" s="5" t="n">
+        <v>1678941902.15</v>
+      </c>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="5" t="str">
+        <f>Sum(N2:N5)</f>
+      </c>
+      <c r="O6" s="5" t="str">
+        <f>Sum(O2:O5)</f>
+      </c>
+      <c r="P6" s="5" t="str">
+        <f>Sum(P2:P5)</f>
+      </c>
+      <c r="Q6" s="5" t="str">
+        <f>Sum(Q2:Q5)</f>
+      </c>
+      <c r="R6" s="5" t="str">
+        <f>Sum(R2:R5)</f>
+      </c>
+      <c r="S6" s="5" t="str">
+        <f>Sum(S2:S5)</f>
+      </c>
+      <c r="T6" s="5" t="str">
+        <f>Sum(T2:T5)</f>
+      </c>
+      <c r="U6" s="5" t="str">
+        <f>Sum(U2:U5)</f>
+      </c>
+      <c r="V6" s="5" t="str">
+        <f>Sum(V2:V5)</f>
+      </c>
+      <c r="W6" s="5" t="str">
+        <f>Sum(W2:W5)</f>
+      </c>
+      <c r="X6" s="5" t="str">
+        <f>Sum(X2:X5)</f>
+      </c>
+      <c r="Y6" s="5" t="str">
+        <f>Sum(Y2:Y5)</f>
+      </c>
+      <c r="Z6" s="5" t="str">
+        <f>Sum(Z2:Z5)</f>
+      </c>
+      <c r="AA6" s="5" t="str">
+        <f>Sum(AA2:AA5)</f>
+      </c>
+      <c r="AB6" s="5" t="str">
+        <f>Sum(AB2:AB5)</f>
+      </c>
+      <c r="AC6" s="5" t="str">
+        <f>Sum(AC2:AC5)</f>
+      </c>
+      <c r="AD6" s="5" t="str">
+        <f>Sum(AD2:AD5)</f>
+      </c>
+      <c r="AE6" s="5" t="str">
+        <f>Sum(AE2:AE5)</f>
+      </c>
+      <c r="AF6" s="5" t="str">
+        <f>Sum(AF2:AF5)</f>
+      </c>
+      <c r="AG6" s="5" t="str">
+        <f>Sum(AG2:AG5)</f>
+      </c>
+      <c r="AH6" s="5" t="str">
+        <f>Sum(AH2:AH5)</f>
+      </c>
+      <c r="AI6" s="5" t="str">
+        <f>Sum(AI2:AI5)</f>
+      </c>
+      <c r="AJ6" s="5" t="str">
+        <f>Sum(AJ2:AJ5)</f>
+      </c>
+      <c r="AK6" s="5" t="str">
+        <f>Sum(AK2:AK5)</f>
+      </c>
+      <c r="AL6" s="5" t="str">
+        <f>Sum(AL2:AL5)</f>
+      </c>
+      <c r="AM6" s="5" t="str">
+        <f>Sum(AM2:AM5)</f>
+      </c>
+      <c r="AN6" s="5" t="str">
+        <f>Sum(AN2:AN5)</f>
+      </c>
+      <c r="AO6" s="5"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" t="s">
+        <v>29</v>
+      </c>
+      <c r="V9" t="s">
+        <v>30</v>
+      </c>
+      <c r="W9" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>6789488175.21326</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>5385718525.09649</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>8233589343.54222</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>15857441333.6776</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>13455447911.2032</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>21263182147.1327</v>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>18995187069.0976</v>
+      </c>
+      <c r="U10" s="5" t="n">
+        <v>34900128345.8805</v>
+      </c>
+      <c r="V10" s="5" t="n">
+        <v>50366257385.3663</v>
+      </c>
+      <c r="W10" s="5" t="n">
+        <v>35262132067.4687</v>
+      </c>
+      <c r="X10" s="5" t="n">
+        <v>32984646404.9534</v>
+      </c>
+      <c r="Y10" s="5" t="n">
+        <v>25512025166.4036</v>
+      </c>
+      <c r="Z10" s="5" t="n">
+        <v>15118051258.7137</v>
+      </c>
+      <c r="AA10" s="5" t="n">
+        <v>9801748653.15759</v>
+      </c>
+      <c r="AB10" s="5" t="n">
+        <v>8567534870.26842</v>
+      </c>
+      <c r="AC10" s="5" t="n">
+        <v>10362689280.6044</v>
+      </c>
+      <c r="AD10" s="5" t="n">
+        <v>10254656214.6188</v>
+      </c>
+      <c r="AE10" s="5" t="n">
+        <v>11180588967.2081</v>
+      </c>
+      <c r="AF10" s="5" t="n">
+        <v>14467235405.7553</v>
+      </c>
+      <c r="AG10" s="5" t="n">
+        <v>14778141343.8719</v>
+      </c>
+      <c r="AH10" s="5" t="n">
+        <v>13502753787.2563</v>
+      </c>
+      <c r="AI10" s="5" t="n">
+        <v>10491509466.424</v>
+      </c>
+      <c r="AJ10" s="5" t="n">
+        <v>11385395391.4578</v>
+      </c>
+      <c r="AK10" s="5" t="n">
+        <v>13910538906.4022</v>
+      </c>
+      <c r="AL10" s="5" t="n">
+        <v>12593705690.507</v>
+      </c>
+      <c r="AM10" s="5" t="n">
+        <v>6018574461.3838</v>
+      </c>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>352120732.902227</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>677404913.59243</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>630458808.806487</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>383028172.999684</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>763863513.689315</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>1556838918.5255</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>5032601950.65983</v>
+      </c>
+      <c r="U11" s="5" t="n">
+        <v>4929314354.73317</v>
+      </c>
+      <c r="V11" s="5" t="n">
+        <v>4632465146.40676</v>
+      </c>
+      <c r="W11" s="5" t="n">
+        <v>4545474347.47101</v>
+      </c>
+      <c r="X11" s="5" t="n">
+        <v>2454726584.1653</v>
+      </c>
+      <c r="Y11" s="5" t="n">
+        <v>1632775360.51195</v>
+      </c>
+      <c r="Z11" s="5" t="n">
+        <v>211429037.360632</v>
+      </c>
+      <c r="AA11" s="5" t="n">
+        <v>286822255.935494</v>
+      </c>
+      <c r="AB11" s="5" t="n">
+        <v>266216162.556483</v>
+      </c>
+      <c r="AC11" s="5" t="n">
+        <v>164552977.56695</v>
+      </c>
+      <c r="AD11" s="5" t="n">
+        <v>135795360.194645</v>
+      </c>
+      <c r="AE11" s="5" t="n">
+        <v>21336946.1040332</v>
+      </c>
+      <c r="AF11" s="5" t="n">
+        <v>338697598.999057</v>
+      </c>
+      <c r="AG11" s="5" t="n">
+        <v>144705112.334868</v>
+      </c>
+      <c r="AH11" s="5" t="n">
+        <v>439080459.130003</v>
+      </c>
+      <c r="AI11" s="5" t="n">
+        <v>524139928.647993</v>
+      </c>
+      <c r="AJ11" s="5" t="n">
+        <v>503805470.830421</v>
+      </c>
+      <c r="AK11" s="5" t="n">
+        <v>401635965.2288</v>
+      </c>
+      <c r="AL11" s="5" t="n">
+        <v>395584645.796378</v>
+      </c>
+      <c r="AM11" s="5" t="n">
+        <v>172810048.721961</v>
+      </c>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="M12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>776257206.572918</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>923084813.864998</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>780283216.621065</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>1030354745.82212</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>1617141937.49427</v>
+      </c>
+      <c r="S12" s="5" t="n">
+        <v>4493581636.241</v>
+      </c>
+      <c r="T12" s="5" t="n">
+        <v>2628272050.1938</v>
+      </c>
+      <c r="U12" s="5" t="n">
+        <v>2477541322.74579</v>
+      </c>
+      <c r="V12" s="5" t="n">
+        <v>2390199208.86296</v>
+      </c>
+      <c r="W12" s="5" t="n">
+        <v>2824727927.08534</v>
+      </c>
+      <c r="X12" s="5" t="n">
+        <v>1556756737.95277</v>
+      </c>
+      <c r="Y12" s="5" t="n">
+        <v>1420017007.15883</v>
+      </c>
+      <c r="Z12" s="5" t="n">
+        <v>1236363221.89377</v>
+      </c>
+      <c r="AA12" s="5" t="n">
+        <v>1427227477.25943</v>
+      </c>
+      <c r="AB12" s="5" t="n">
+        <v>1014817412.68779</v>
+      </c>
+      <c r="AC12" s="5" t="n">
+        <v>1145724508.88515</v>
+      </c>
+      <c r="AD12" s="5" t="n">
+        <v>1457306113.07109</v>
+      </c>
+      <c r="AE12" s="5" t="n">
+        <v>1539252389.98137</v>
+      </c>
+      <c r="AF12" s="5" t="n">
+        <v>3256479083.72753</v>
+      </c>
+      <c r="AG12" s="5" t="n">
+        <v>2834260934.60047</v>
+      </c>
+      <c r="AH12" s="5" t="n">
+        <v>2326191423.06505</v>
+      </c>
+      <c r="AI12" s="5" t="n">
+        <v>2447995665.92837</v>
+      </c>
+      <c r="AJ12" s="5" t="n">
+        <v>1992512172.89423</v>
+      </c>
+      <c r="AK12" s="5" t="n">
+        <v>3105476477.8012</v>
+      </c>
+      <c r="AL12" s="5" t="n">
+        <v>3339273019.57072</v>
+      </c>
+      <c r="AM12" s="5" t="n">
+        <v>1600159572.16661</v>
+      </c>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="M13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>